--- a/Data/Iris_inputs.xlsx
+++ b/Data/Iris_inputs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giparoli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giparoli\Documents\Projetos\AEco\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5211F2-A6F8-47DF-B366-D337B9362196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE42A0F-2C73-4A08-B413-3C9D66400435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="241">
   <si>
     <t>nominal</t>
   </si>
@@ -896,6 +896,9 @@
   </si>
   <si>
     <t>Mindlife update in 2035</t>
+  </si>
+  <si>
+    <t>0,000q</t>
   </si>
 </sst>
 </file>
@@ -1360,6 +1363,69 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1396,70 +1462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1805,7 +1808,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1823,14 +1826,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="33"/>
@@ -1864,7 +1867,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="95" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1888,7 +1891,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="99"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1915,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="99"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -1938,7 +1941,7 @@
       <c r="I6" s="81"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="99"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
@@ -1964,7 +1967,7 @@
       <c r="I7" s="81"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="99"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
@@ -1990,7 +1993,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="99"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -2014,7 +2017,7 @@
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="99"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -2042,20 +2045,20 @@
       <c r="B11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="115">
+      <c r="C11" s="84">
         <v>10</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="84">
         <v>8</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="84">
         <v>12</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="114" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2064,40 +2067,40 @@
       <c r="B12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="115">
+      <c r="C12" s="84">
         <v>20</v>
       </c>
-      <c r="D12" s="115">
+      <c r="D12" s="84">
         <v>16</v>
       </c>
-      <c r="E12" s="115">
+      <c r="E12" s="84">
         <v>24</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="93"/>
+      <c r="H12" s="114"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="29"/>
       <c r="B13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="84">
         <v>70</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="84">
         <v>56</v>
       </c>
-      <c r="E13" s="115">
+      <c r="E13" s="84">
         <v>84</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="114"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="59"/>
@@ -2122,7 +2125,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="35" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="97" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -2146,13 +2149,13 @@
       <c r="G15" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="108" t="s">
+      <c r="H15" s="87" t="s">
         <v>180</v>
       </c>
       <c r="I15" s="75"/>
     </row>
     <row r="16" spans="1:9" s="35" customFormat="1">
-      <c r="A16" s="101"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="47" t="s">
         <v>74</v>
       </c>
@@ -2174,11 +2177,11 @@
       <c r="G16" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="109"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" s="35" customFormat="1">
-      <c r="A17" s="101"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="47" t="s">
         <v>75</v>
       </c>
@@ -2200,11 +2203,11 @@
       <c r="G17" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="110"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="76"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="99" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -2230,7 +2233,7 @@
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="28.8">
-      <c r="A19" s="102"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="25" t="s">
         <v>76</v>
       </c>
@@ -2256,7 +2259,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="102"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="25" t="s">
         <v>79</v>
       </c>
@@ -2280,7 +2283,7 @@
       <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="102"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="25" t="s">
         <v>80</v>
       </c>
@@ -2304,7 +2307,7 @@
       <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="102"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="25" t="s">
         <v>86</v>
       </c>
@@ -2328,20 +2331,18 @@
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="102"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="25" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="28">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="D23" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>84</v>
@@ -2351,7 +2352,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="102"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="25" t="s">
         <v>90</v>
       </c>
@@ -2375,7 +2376,7 @@
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="100" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -2399,7 +2400,7 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A26" s="104"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
@@ -2421,20 +2422,18 @@
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="104"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="12">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
@@ -2443,7 +2442,7 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="104"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
@@ -2465,20 +2464,18 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="104"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="12">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="E29" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
@@ -2487,20 +2484,18 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="104"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="12">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
@@ -2509,7 +2504,7 @@
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="104"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="36" t="s">
         <v>16</v>
       </c>
@@ -2533,7 +2528,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="104"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="36" t="s">
         <v>17</v>
       </c>
@@ -2557,7 +2552,7 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="104"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="36" t="s">
         <v>18</v>
       </c>
@@ -2574,17 +2569,17 @@
       <c r="G33" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="111" t="s">
+      <c r="H33" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="84" t="s">
+      <c r="K33" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="104"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="36" t="s">
         <v>22</v>
       </c>
@@ -2603,15 +2598,15 @@
       <c r="G34" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="K34" s="94" t="s">
+      <c r="H34" s="91"/>
+      <c r="K34" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="104"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="36" t="s">
         <v>19</v>
       </c>
@@ -2628,7 +2623,7 @@
       <c r="G35" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="112"/>
+      <c r="H35" s="91"/>
       <c r="K35" s="50" t="s">
         <v>191</v>
       </c>
@@ -2640,7 +2635,7 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="104"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="36" t="s">
         <v>20</v>
       </c>
@@ -2657,7 +2652,7 @@
       <c r="G36" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="113"/>
+      <c r="H36" s="92"/>
       <c r="K36" s="50">
         <v>0.33</v>
       </c>
@@ -2670,7 +2665,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="111" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -2694,18 +2689,18 @@
       <c r="G37" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="111" t="s">
+      <c r="H37" s="90" t="s">
         <v>182</v>
       </c>
       <c r="I37" s="76"/>
-      <c r="K37" s="94" t="s">
+      <c r="K37" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="91"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="52" t="s">
         <v>27</v>
       </c>
@@ -2727,7 +2722,7 @@
       <c r="G38" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="112"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="76"/>
       <c r="K38" s="50" t="s">
         <v>191</v>
@@ -2740,7 +2735,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="91"/>
+      <c r="A39" s="112"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -2762,7 +2757,7 @@
       <c r="G39" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H39" s="112"/>
+      <c r="H39" s="91"/>
       <c r="I39" s="76"/>
       <c r="K39" s="66">
         <v>0.33</v>
@@ -2770,13 +2765,13 @@
       <c r="L39" s="50">
         <v>1500</v>
       </c>
-      <c r="M39" s="95">
+      <c r="M39" s="116">
         <f>L39*K39+K40*L40+K41*L41</f>
         <v>2805</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="91"/>
+      <c r="A40" s="112"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -2798,7 +2793,7 @@
       <c r="G40" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="113"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="76"/>
       <c r="K40" s="66">
         <v>0.33</v>
@@ -2806,23 +2801,21 @@
       <c r="L40" s="50">
         <v>6500</v>
       </c>
-      <c r="M40" s="95"/>
+      <c r="M40" s="116"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="92"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="14" t="s">
         <v>165</v>
       </c>
       <c r="C41" s="15">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D41" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E41" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>167</v>
@@ -2837,10 +2830,10 @@
       <c r="L41" s="50">
         <v>500</v>
       </c>
-      <c r="M41" s="95"/>
+      <c r="M41" s="116"/>
     </row>
     <row r="42" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="108" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -2868,20 +2861,18 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="88"/>
+      <c r="A43" s="109"/>
       <c r="B43" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="18">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="D43" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="E43" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>7</v>
@@ -2890,13 +2881,13 @@
         <v>123</v>
       </c>
       <c r="H43" s="50"/>
-      <c r="K43" s="94" t="s">
+      <c r="K43" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="L43" s="94"/>
+      <c r="L43" s="115"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="88"/>
+      <c r="A44" s="109"/>
       <c r="B44" s="17" t="s">
         <v>34</v>
       </c>
@@ -2932,7 +2923,7 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="88"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="17" t="s">
         <v>35</v>
       </c>
@@ -2967,20 +2958,18 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="88"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="18">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="D46" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="E46" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>38</v>
@@ -3002,7 +2991,7 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="88"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="17" t="s">
         <v>37</v>
       </c>
@@ -3026,7 +3015,7 @@
       <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="89"/>
+      <c r="A48" s="110"/>
       <c r="B48" s="17" t="s">
         <v>151</v>
       </c>
@@ -3048,15 +3037,15 @@
         <v>162</v>
       </c>
       <c r="H48" s="50"/>
-      <c r="K48" s="94" t="s">
+      <c r="K48" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
+      <c r="L48" s="115"/>
+      <c r="M48" s="115"/>
+      <c r="N48" s="115"/>
     </row>
     <row r="49" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="102" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -3080,7 +3069,7 @@
       <c r="G49" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="H49" s="111" t="s">
+      <c r="H49" s="90" t="s">
         <v>183</v>
       </c>
       <c r="I49" s="80"/>
@@ -3092,7 +3081,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="106"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="20" t="s">
         <v>171</v>
       </c>
@@ -3114,7 +3103,7 @@
       <c r="G50" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="112"/>
+      <c r="H50" s="91"/>
       <c r="I50" s="80"/>
       <c r="K50" s="62" t="s">
         <v>189</v>
@@ -3130,7 +3119,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="106"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="20" t="s">
         <v>173</v>
       </c>
@@ -3152,7 +3141,7 @@
       <c r="G51" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H51" s="112"/>
+      <c r="H51" s="91"/>
       <c r="I51" s="80"/>
       <c r="K51" s="50" t="s">
         <v>188</v>
@@ -3170,7 +3159,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="106"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="20" t="s">
         <v>225</v>
       </c>
@@ -3192,7 +3181,7 @@
       <c r="G52" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="112"/>
+      <c r="H52" s="91"/>
       <c r="I52" s="80"/>
       <c r="K52" s="50"/>
       <c r="L52" s="66"/>
@@ -3200,7 +3189,7 @@
       <c r="N52" s="63"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="106"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="20" t="s">
         <v>224</v>
       </c>
@@ -3222,7 +3211,7 @@
       <c r="G53" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H53" s="112"/>
+      <c r="H53" s="91"/>
       <c r="I53" s="80"/>
       <c r="K53" s="50" t="s">
         <v>187</v>
@@ -3240,7 +3229,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="106"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="20" t="s">
         <v>229</v>
       </c>
@@ -3262,7 +3251,7 @@
       <c r="G54" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H54" s="112"/>
+      <c r="H54" s="91"/>
       <c r="I54" s="80"/>
       <c r="K54" s="50" t="s">
         <v>200</v>
@@ -3280,7 +3269,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="106"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="20" t="s">
         <v>170</v>
       </c>
@@ -3301,11 +3290,11 @@
       <c r="G55" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H55" s="112"/>
+      <c r="H55" s="91"/>
       <c r="I55" s="80"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="106"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="20" t="s">
         <v>174</v>
       </c>
@@ -3326,7 +3315,7 @@
       <c r="G56" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H56" s="112"/>
+      <c r="H56" s="91"/>
       <c r="I56" s="80"/>
       <c r="K56" s="50" t="s">
         <v>204</v>
@@ -3339,7 +3328,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="106"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="23" t="s">
         <v>220</v>
       </c>
@@ -3361,7 +3350,7 @@
       <c r="G57" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H57" s="112"/>
+      <c r="H57" s="91"/>
       <c r="I57" s="80"/>
       <c r="K57" s="50" t="s">
         <v>207</v>
@@ -3374,7 +3363,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="106"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="23" t="s">
         <v>221</v>
       </c>
@@ -3395,7 +3384,7 @@
       <c r="G58" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="92"/>
       <c r="I58" s="80"/>
       <c r="K58" s="69" t="s">
         <v>194</v>
@@ -3408,7 +3397,7 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="106"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="23" t="s">
         <v>163</v>
       </c>
@@ -3443,7 +3432,7 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="106"/>
+      <c r="A60" s="103"/>
       <c r="B60" s="23" t="s">
         <v>164</v>
       </c>
@@ -3467,7 +3456,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A61" s="106"/>
+      <c r="A61" s="103"/>
       <c r="B61" s="42" t="s">
         <v>41</v>
       </c>
@@ -3489,7 +3478,7 @@
       <c r="G61" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="111" t="s">
+      <c r="H61" s="90" t="s">
         <v>185</v>
       </c>
       <c r="I61" t="s">
@@ -3504,7 +3493,7 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="106"/>
+      <c r="A62" s="103"/>
       <c r="B62" s="42" t="s">
         <v>42</v>
       </c>
@@ -3526,7 +3515,7 @@
       <c r="G62" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="112"/>
+      <c r="H62" s="91"/>
       <c r="K62" s="50" t="s">
         <v>202</v>
       </c>
@@ -3536,7 +3525,7 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="106"/>
+      <c r="A63" s="103"/>
       <c r="B63" s="42" t="s">
         <v>92</v>
       </c>
@@ -3558,7 +3547,7 @@
       <c r="G63" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="112"/>
+      <c r="H63" s="91"/>
       <c r="K63" s="50" t="s">
         <v>203</v>
       </c>
@@ -3568,7 +3557,7 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="107"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="73" t="s">
         <v>93</v>
       </c>
@@ -3590,7 +3579,7 @@
       <c r="G64" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="113"/>
+      <c r="H64" s="92"/>
       <c r="K64" s="62" t="s">
         <v>208</v>
       </c>
@@ -3600,374 +3589,374 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="93" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="116">
+      <c r="C65" s="85">
         <v>0.25</v>
       </c>
-      <c r="D65" s="116">
+      <c r="D65" s="85">
         <v>0.2</v>
       </c>
-      <c r="E65" s="116">
+      <c r="E65" s="85">
         <v>0.3</v>
       </c>
       <c r="F65" s="58"/>
       <c r="G65" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="108" t="s">
+      <c r="H65" s="87" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="97"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="116">
+      <c r="C66" s="85">
         <v>0.2</v>
       </c>
-      <c r="D66" s="116">
+      <c r="D66" s="85">
         <v>0.16000000000000003</v>
       </c>
-      <c r="E66" s="116">
+      <c r="E66" s="85">
         <v>0.24</v>
       </c>
       <c r="F66" s="58"/>
       <c r="G66" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H66" s="109"/>
+      <c r="H66" s="88"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="97"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="116">
+      <c r="C67" s="85">
         <v>0.2</v>
       </c>
-      <c r="D67" s="116">
+      <c r="D67" s="85">
         <v>0.16000000000000003</v>
       </c>
-      <c r="E67" s="116">
+      <c r="E67" s="85">
         <v>0.24</v>
       </c>
       <c r="F67" s="58"/>
       <c r="G67" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="109"/>
+      <c r="H67" s="88"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="97"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="117">
+      <c r="C68" s="86">
         <v>0.2</v>
       </c>
-      <c r="D68" s="116">
+      <c r="D68" s="85">
         <v>0.16000000000000003</v>
       </c>
-      <c r="E68" s="116">
+      <c r="E68" s="85">
         <v>0.24</v>
       </c>
       <c r="F68" s="58"/>
       <c r="G68" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="109"/>
+      <c r="H68" s="88"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="97"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="117">
+      <c r="C69" s="86">
         <v>0.5</v>
       </c>
-      <c r="D69" s="116">
+      <c r="D69" s="85">
         <v>0.4</v>
       </c>
-      <c r="E69" s="116">
+      <c r="E69" s="85">
         <v>0.6</v>
       </c>
       <c r="F69" s="58"/>
       <c r="G69" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H69" s="109"/>
+      <c r="H69" s="88"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="97"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="117">
+      <c r="C70" s="86">
         <v>0.5</v>
       </c>
-      <c r="D70" s="116">
+      <c r="D70" s="85">
         <v>0.4</v>
       </c>
-      <c r="E70" s="116">
+      <c r="E70" s="85">
         <v>0.6</v>
       </c>
       <c r="F70" s="58"/>
       <c r="G70" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H70" s="109"/>
+      <c r="H70" s="88"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="97"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="117">
+      <c r="C71" s="86">
         <v>0.25</v>
       </c>
-      <c r="D71" s="116">
+      <c r="D71" s="85">
         <v>0.2</v>
       </c>
-      <c r="E71" s="116">
+      <c r="E71" s="85">
         <v>0.3</v>
       </c>
       <c r="F71" s="58"/>
       <c r="G71" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="109"/>
+      <c r="H71" s="88"/>
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="97"/>
+      <c r="A72" s="94"/>
       <c r="B72" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="117">
+      <c r="C72" s="86">
         <v>0.1</v>
       </c>
-      <c r="D72" s="116">
+      <c r="D72" s="85">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="E72" s="116">
+      <c r="E72" s="85">
         <v>0.12</v>
       </c>
       <c r="F72" s="58"/>
       <c r="G72" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="109"/>
+      <c r="H72" s="88"/>
       <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="97"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="117">
+      <c r="C73" s="86">
         <v>0.1</v>
       </c>
-      <c r="D73" s="116">
+      <c r="D73" s="85">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="E73" s="116">
+      <c r="E73" s="85">
         <v>0.12</v>
       </c>
       <c r="F73" s="58"/>
       <c r="G73" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="109"/>
+      <c r="H73" s="88"/>
       <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="97"/>
+      <c r="A74" s="94"/>
       <c r="B74" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="117">
+      <c r="C74" s="86">
         <v>0.1</v>
       </c>
-      <c r="D74" s="116">
+      <c r="D74" s="85">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="E74" s="116">
+      <c r="E74" s="85">
         <v>0.12</v>
       </c>
       <c r="F74" s="58"/>
       <c r="G74" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="109"/>
+      <c r="H74" s="88"/>
       <c r="K74" s="13"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="97"/>
+      <c r="A75" s="94"/>
       <c r="B75" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="117">
+      <c r="C75" s="86">
         <v>0.45</v>
       </c>
-      <c r="D75" s="116">
+      <c r="D75" s="85">
         <v>0.36000000000000004</v>
       </c>
-      <c r="E75" s="116">
+      <c r="E75" s="85">
         <v>0.54</v>
       </c>
       <c r="F75" s="58"/>
       <c r="G75" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="109"/>
+      <c r="H75" s="88"/>
       <c r="K75" s="13"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="97"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="117">
+      <c r="C76" s="86">
         <v>0.45</v>
       </c>
-      <c r="D76" s="116">
+      <c r="D76" s="85">
         <v>0.36000000000000004</v>
       </c>
-      <c r="E76" s="116">
+      <c r="E76" s="85">
         <v>0.54</v>
       </c>
       <c r="F76" s="58"/>
       <c r="G76" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H76" s="109"/>
+      <c r="H76" s="88"/>
       <c r="K76" s="13"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="97"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="117">
+      <c r="C77" s="86">
         <v>0.5</v>
       </c>
-      <c r="D77" s="116">
+      <c r="D77" s="85">
         <v>0.4</v>
       </c>
-      <c r="E77" s="116">
+      <c r="E77" s="85">
         <v>0.6</v>
       </c>
       <c r="F77" s="58"/>
       <c r="G77" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="109"/>
+      <c r="H77" s="88"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="97"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="116">
+      <c r="C78" s="85">
         <v>0.7</v>
       </c>
-      <c r="D78" s="116">
+      <c r="D78" s="85">
         <v>0.55999999999999994</v>
       </c>
-      <c r="E78" s="116">
+      <c r="E78" s="85">
         <v>0.84</v>
       </c>
       <c r="F78" s="58"/>
       <c r="G78" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="109"/>
+      <c r="H78" s="88"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="97"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="116">
+      <c r="C79" s="85">
         <v>0.7</v>
       </c>
-      <c r="D79" s="116">
+      <c r="D79" s="85">
         <v>0.55999999999999994</v>
       </c>
-      <c r="E79" s="116">
+      <c r="E79" s="85">
         <v>0.84</v>
       </c>
       <c r="F79" s="58"/>
       <c r="G79" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="109"/>
+      <c r="H79" s="88"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="97"/>
+      <c r="A80" s="94"/>
       <c r="B80" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="116">
+      <c r="C80" s="85">
         <v>0.7</v>
       </c>
-      <c r="D80" s="116">
+      <c r="D80" s="85">
         <v>0.55999999999999994</v>
       </c>
-      <c r="E80" s="116">
+      <c r="E80" s="85">
         <v>0.84</v>
       </c>
       <c r="F80" s="58"/>
       <c r="G80" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="109"/>
+      <c r="H80" s="88"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="97"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="116">
+      <c r="C81" s="85">
         <v>0.05</v>
       </c>
-      <c r="D81" s="116">
+      <c r="D81" s="85">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="E81" s="116">
+      <c r="E81" s="85">
         <v>0.06</v>
       </c>
       <c r="F81" s="58"/>
       <c r="G81" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H81" s="109"/>
+      <c r="H81" s="88"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="97"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="116">
+      <c r="C82" s="85">
         <v>0.05</v>
       </c>
-      <c r="D82" s="116">
+      <c r="D82" s="85">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="E82" s="116">
+      <c r="E82" s="85">
         <v>0.06</v>
       </c>
       <c r="F82" s="58"/>
       <c r="G82" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="110"/>
+      <c r="H82" s="89"/>
     </row>
     <row r="84" spans="1:11">
       <c r="K84" s="13"/>
@@ -4019,18 +4008,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H65:H82"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="H49:H58"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="A65:A82"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="A49:A64"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A42:A48"/>
@@ -4041,6 +4018,18 @@
     <mergeCell ref="M39:M41"/>
     <mergeCell ref="K34:M34"/>
     <mergeCell ref="K37:M37"/>
+    <mergeCell ref="A65:A82"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A49:A64"/>
+    <mergeCell ref="H65:H82"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="H49:H58"/>
+    <mergeCell ref="H61:H64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4055,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD1356E-92C9-4E2F-94B4-6E67679BADF5}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H13"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4070,13 +4059,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="4" t="s">
@@ -4102,7 +4091,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="95" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4126,7 +4115,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="99"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4150,7 +4139,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="99"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -4175,7 +4164,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="99"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
@@ -4200,7 +4189,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="99"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
@@ -4226,7 +4215,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="99"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -4250,7 +4239,7 @@
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="99"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -4294,7 +4283,7 @@
       <c r="G11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="H11" s="114" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4316,7 +4305,7 @@
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="93"/>
+      <c r="H12" s="114"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="61"/>
@@ -4336,7 +4325,7 @@
       <c r="G13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="114"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="61"/>
@@ -4361,7 +4350,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="97" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -4385,12 +4374,12 @@
       <c r="G15" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="108" t="s">
+      <c r="H15" s="87" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="101"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="47" t="s">
         <v>74</v>
       </c>
@@ -4412,10 +4401,10 @@
       <c r="G16" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="109"/>
+      <c r="H16" s="88"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="101"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="47" t="s">
         <v>75</v>
       </c>
@@ -4437,10 +4426,10 @@
       <c r="G17" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="110"/>
+      <c r="H17" s="89"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="99" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -4466,7 +4455,7 @@
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="28.8">
-      <c r="A19" s="102"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="25" t="s">
         <v>76</v>
       </c>
@@ -4492,7 +4481,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="102"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="25" t="s">
         <v>79</v>
       </c>
@@ -4516,7 +4505,7 @@
       <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="102"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="25" t="s">
         <v>80</v>
       </c>
@@ -4540,7 +4529,7 @@
       <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="102"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="25" t="s">
         <v>86</v>
       </c>
@@ -4564,7 +4553,7 @@
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="102"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="25" t="s">
         <v>87</v>
       </c>
@@ -4588,7 +4577,7 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="102"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="25" t="s">
         <v>90</v>
       </c>
@@ -4612,7 +4601,7 @@
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="100" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -4636,7 +4625,7 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="104"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
@@ -4658,7 +4647,7 @@
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="104"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
@@ -4680,7 +4669,7 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="104"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
@@ -4702,7 +4691,7 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="104"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
@@ -4724,7 +4713,7 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="104"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
@@ -4746,7 +4735,7 @@
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="104"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="36" t="s">
         <v>16</v>
       </c>
@@ -4770,7 +4759,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="104"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="36" t="s">
         <v>17</v>
       </c>
@@ -4794,7 +4783,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="104"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="36" t="s">
         <v>18</v>
       </c>
@@ -4811,12 +4800,12 @@
       <c r="G33" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="111" t="s">
+      <c r="H33" s="90" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="104"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="36" t="s">
         <v>22</v>
       </c>
@@ -4833,10 +4822,10 @@
       <c r="G34" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="112"/>
+      <c r="H34" s="91"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="104"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="36" t="s">
         <v>19</v>
       </c>
@@ -4853,10 +4842,10 @@
       <c r="G35" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="112"/>
+      <c r="H35" s="91"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="104"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="36" t="s">
         <v>20</v>
       </c>
@@ -4873,10 +4862,10 @@
       <c r="G36" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="113"/>
+      <c r="H36" s="92"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="111" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -4900,12 +4889,12 @@
       <c r="G37" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="111" t="s">
+      <c r="H37" s="90" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="91"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="52" t="s">
         <v>27</v>
       </c>
@@ -4927,10 +4916,10 @@
       <c r="G38" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="112"/>
+      <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="91"/>
+      <c r="A39" s="112"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4952,10 +4941,10 @@
       <c r="G39" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H39" s="112"/>
+      <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="91"/>
+      <c r="A40" s="112"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4977,21 +4966,23 @@
       <c r="G40" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="113"/>
+      <c r="H40" s="92"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="92"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C41" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E41" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>167</v>
@@ -5002,7 +4993,7 @@
       <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="108" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -5030,7 +5021,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="88"/>
+      <c r="A43" s="109"/>
       <c r="B43" s="17" t="s">
         <v>33</v>
       </c>
@@ -5054,7 +5045,7 @@
       <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="88"/>
+      <c r="A44" s="109"/>
       <c r="B44" s="17" t="s">
         <v>34</v>
       </c>
@@ -5080,7 +5071,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="88"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="17" t="s">
         <v>35</v>
       </c>
@@ -5104,7 +5095,7 @@
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="88"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="17" t="s">
         <v>36</v>
       </c>
@@ -5128,7 +5119,7 @@
       <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="88"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="17" t="s">
         <v>37</v>
       </c>
@@ -5152,7 +5143,7 @@
       <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="89"/>
+      <c r="A48" s="110"/>
       <c r="B48" s="17" t="s">
         <v>151</v>
       </c>
@@ -5176,7 +5167,7 @@
       <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="102" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -5200,12 +5191,12 @@
       <c r="G49" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="H49" s="111" t="s">
+      <c r="H49" s="90" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="106"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="20" t="s">
         <v>171</v>
       </c>
@@ -5227,10 +5218,10 @@
       <c r="G50" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="112"/>
+      <c r="H50" s="91"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="106"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="20" t="s">
         <v>173</v>
       </c>
@@ -5252,10 +5243,10 @@
       <c r="G51" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H51" s="112"/>
+      <c r="H51" s="91"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="106"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="20" t="s">
         <v>225</v>
       </c>
@@ -5277,10 +5268,10 @@
       <c r="G52" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="112"/>
+      <c r="H52" s="91"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="106"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="20" t="s">
         <v>224</v>
       </c>
@@ -5302,10 +5293,10 @@
       <c r="G53" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H53" s="112"/>
+      <c r="H53" s="91"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="106"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="20" t="s">
         <v>229</v>
       </c>
@@ -5327,10 +5318,10 @@
       <c r="G54" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H54" s="112"/>
+      <c r="H54" s="91"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="106"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="20" t="s">
         <v>170</v>
       </c>
@@ -5351,10 +5342,10 @@
       <c r="G55" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H55" s="112"/>
+      <c r="H55" s="91"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="106"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="20" t="s">
         <v>174</v>
       </c>
@@ -5375,10 +5366,10 @@
       <c r="G56" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H56" s="112"/>
+      <c r="H56" s="91"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="106"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="23" t="s">
         <v>220</v>
       </c>
@@ -5400,10 +5391,10 @@
       <c r="G57" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H57" s="112"/>
+      <c r="H57" s="91"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="106"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="23" t="s">
         <v>221</v>
       </c>
@@ -5424,10 +5415,10 @@
       <c r="G58" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H58" s="113"/>
+      <c r="H58" s="92"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="106"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="23" t="s">
         <v>163</v>
       </c>
@@ -5453,7 +5444,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="106"/>
+      <c r="A60" s="103"/>
       <c r="B60" s="23" t="s">
         <v>164</v>
       </c>
@@ -5477,7 +5468,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="106"/>
+      <c r="A61" s="103"/>
       <c r="B61" s="42" t="s">
         <v>41</v>
       </c>
@@ -5499,12 +5490,12 @@
       <c r="G61" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="111" t="s">
+      <c r="H61" s="90" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="106"/>
+      <c r="A62" s="103"/>
       <c r="B62" s="42" t="s">
         <v>42</v>
       </c>
@@ -5526,10 +5517,10 @@
       <c r="G62" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="112"/>
+      <c r="H62" s="91"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="106"/>
+      <c r="A63" s="103"/>
       <c r="B63" s="42" t="s">
         <v>92</v>
       </c>
@@ -5551,10 +5542,10 @@
       <c r="G63" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="112"/>
+      <c r="H63" s="91"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="107"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="73" t="s">
         <v>93</v>
       </c>
@@ -5576,10 +5567,10 @@
       <c r="G64" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="113"/>
+      <c r="H64" s="92"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="93" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="56" t="s">
@@ -5592,12 +5583,12 @@
       <c r="G65" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="108" t="s">
+      <c r="H65" s="87" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="97"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="56" t="s">
         <v>59</v>
       </c>
@@ -5608,10 +5599,10 @@
       <c r="G66" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H66" s="109"/>
+      <c r="H66" s="88"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="97"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="56" t="s">
         <v>51</v>
       </c>
@@ -5622,10 +5613,10 @@
       <c r="G67" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="109"/>
+      <c r="H67" s="88"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="97"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="56" t="s">
         <v>52</v>
       </c>
@@ -5636,10 +5627,10 @@
       <c r="G68" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="109"/>
+      <c r="H68" s="88"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="97"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
@@ -5650,10 +5641,10 @@
       <c r="G69" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H69" s="109"/>
+      <c r="H69" s="88"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="97"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
@@ -5664,10 +5655,10 @@
       <c r="G70" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H70" s="109"/>
+      <c r="H70" s="88"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="97"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="56" t="s">
         <v>54</v>
       </c>
@@ -5678,10 +5669,10 @@
       <c r="G71" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="109"/>
+      <c r="H71" s="88"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="97"/>
+      <c r="A72" s="94"/>
       <c r="B72" s="56" t="s">
         <v>60</v>
       </c>
@@ -5692,10 +5683,10 @@
       <c r="G72" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="109"/>
+      <c r="H72" s="88"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="97"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="56" t="s">
         <v>55</v>
       </c>
@@ -5706,10 +5697,10 @@
       <c r="G73" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="109"/>
+      <c r="H73" s="88"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="97"/>
+      <c r="A74" s="94"/>
       <c r="B74" s="56" t="s">
         <v>56</v>
       </c>
@@ -5720,10 +5711,10 @@
       <c r="G74" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="109"/>
+      <c r="H74" s="88"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="97"/>
+      <c r="A75" s="94"/>
       <c r="B75" s="56" t="s">
         <v>57</v>
       </c>
@@ -5734,10 +5725,10 @@
       <c r="G75" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="109"/>
+      <c r="H75" s="88"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="97"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="56" t="s">
         <v>96</v>
       </c>
@@ -5748,10 +5739,10 @@
       <c r="G76" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H76" s="109"/>
+      <c r="H76" s="88"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="97"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="56" t="s">
         <v>58</v>
       </c>
@@ -5762,10 +5753,10 @@
       <c r="G77" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="109"/>
+      <c r="H77" s="88"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="97"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="56" t="s">
         <v>61</v>
       </c>
@@ -5776,10 +5767,10 @@
       <c r="G78" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="109"/>
+      <c r="H78" s="88"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="97"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="56" t="s">
         <v>62</v>
       </c>
@@ -5790,10 +5781,10 @@
       <c r="G79" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="109"/>
+      <c r="H79" s="88"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="97"/>
+      <c r="A80" s="94"/>
       <c r="B80" s="56" t="s">
         <v>63</v>
       </c>
@@ -5804,10 +5795,10 @@
       <c r="G80" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="109"/>
+      <c r="H80" s="88"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="97"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="56" t="s">
         <v>64</v>
       </c>
@@ -5818,10 +5809,10 @@
       <c r="G81" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H81" s="109"/>
+      <c r="H81" s="88"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="97"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="56" t="s">
         <v>95</v>
       </c>
@@ -5832,7 +5823,7 @@
       <c r="G82" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="110"/>
+      <c r="H82" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5863,12 +5854,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D2CC3865CED4124A9830BAAA78333A39" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="74fbc97153726fbf9f4b2acfe0ba4f2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="47151ffa-27c1-491d-bdc5-fff6d8a44614" xmlns:ns4="2a729546-cf4e-435c-aabc-21366d2421e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef40a5df47e7cf58b55af26490b848e0" ns3:_="" ns4:_="">
     <xsd:import namespace="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
@@ -6091,6 +6076,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6101,23 +6092,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145C285F-2FF3-4D38-95ED-9BA60F4E3C89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3D48284-4FE0-49DC-82DA-D80B72208958}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6136,6 +6110,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145C285F-2FF3-4D38-95ED-9BA60F4E3C89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9031FEDD-5FF8-4C9C-AF51-AEFA4BF396D5}">
   <ds:schemaRefs>

--- a/Data/Iris_inputs.xlsx
+++ b/Data/Iris_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giparoli\Documents\Projetos\AEco\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE42A0F-2C73-4A08-B413-3C9D66400435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F4338-861B-43AA-89E3-143E21D9233F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <author>tc={B5C3BFB3-019D-426D-A008-79A436013E7A}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{396ABCAF-54DB-4DB7-9877-C4D9CB0C752F}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{396ABCAF-54DB-4DB7-9877-C4D9CB0C752F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
     107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</t>
       </text>
     </comment>
-    <comment ref="C16" authorId="1" shapeId="0" xr:uid="{DB4559B8-B4D5-46B7-9443-71ECDC1325D0}">
+    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{DB4559B8-B4D5-46B7-9443-71ECDC1325D0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +59,7 @@
     190 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 0.38</t>
       </text>
     </comment>
-    <comment ref="C17" authorId="2" shapeId="0" xr:uid="{7E0439F0-61E6-4462-942E-D17301560662}">
+    <comment ref="C16" authorId="2" shapeId="0" xr:uid="{7E0439F0-61E6-4462-942E-D17301560662}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -67,7 +67,7 @@
     750 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 1.5</t>
       </text>
     </comment>
-    <comment ref="C37" authorId="3" shapeId="0" xr:uid="{0DC24375-CA62-42B7-82D8-58C5246FFD6F}">
+    <comment ref="C36" authorId="3" shapeId="0" xr:uid="{0DC24375-CA62-42B7-82D8-58C5246FFD6F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +75,7 @@
     80000 kWh/month @ G1360. Considering 18000 m², the average per m² is 4.44</t>
       </text>
     </comment>
-    <comment ref="C38" authorId="4" shapeId="0" xr:uid="{72D2B639-7D47-4D26-A14C-D414C3B25E87}">
+    <comment ref="C37" authorId="4" shapeId="0" xr:uid="{72D2B639-7D47-4D26-A14C-D414C3B25E87}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +83,7 @@
     80 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00444</t>
       </text>
     </comment>
-    <comment ref="C39" authorId="5" shapeId="0" xr:uid="{B1C3D0ED-7599-4C92-8848-AD9F3F4ACEF7}">
+    <comment ref="C38" authorId="5" shapeId="0" xr:uid="{B1C3D0ED-7599-4C92-8848-AD9F3F4ACEF7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +91,7 @@
     64 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00356</t>
       </text>
     </comment>
-    <comment ref="C40" authorId="6" shapeId="0" xr:uid="{B5C3BFB3-019D-426D-A008-79A436013E7A}">
+    <comment ref="C39" authorId="6" shapeId="0" xr:uid="{B5C3BFB3-019D-426D-A008-79A436013E7A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="243">
   <si>
     <t>nominal</t>
   </si>
@@ -899,6 +899,12 @@
   </si>
   <si>
     <t>0,000q</t>
+  </si>
+  <si>
+    <t>dilution</t>
+  </si>
+  <si>
+    <t>ratio of water:pesticide</t>
   </si>
 </sst>
 </file>
@@ -1312,9 +1318,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1372,6 +1375,78 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1390,81 +1465,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1752,25 +1756,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C15" dT="2019-12-31T13:50:55.89" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{396ABCAF-54DB-4DB7-9877-C4D9CB0C752F}">
+  <threadedComment ref="C14" dT="2019-12-31T13:50:55.89" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{396ABCAF-54DB-4DB7-9877-C4D9CB0C752F}">
     <text>107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</text>
   </threadedComment>
-  <threadedComment ref="C16" dT="2019-12-31T14:01:21.91" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{DB4559B8-B4D5-46B7-9443-71ECDC1325D0}">
+  <threadedComment ref="C15" dT="2019-12-31T14:01:21.91" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{DB4559B8-B4D5-46B7-9443-71ECDC1325D0}">
     <text>190 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 0.38</text>
   </threadedComment>
-  <threadedComment ref="C17" dT="2019-12-31T14:02:51.19" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{7E0439F0-61E6-4462-942E-D17301560662}">
+  <threadedComment ref="C16" dT="2019-12-31T14:02:51.19" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{7E0439F0-61E6-4462-942E-D17301560662}">
     <text>750 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 1.5</text>
   </threadedComment>
-  <threadedComment ref="C37" dT="2019-12-31T14:53:25.54" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{0DC24375-CA62-42B7-82D8-58C5246FFD6F}">
+  <threadedComment ref="C36" dT="2019-12-31T14:53:25.54" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{0DC24375-CA62-42B7-82D8-58C5246FFD6F}">
     <text>80000 kWh/month @ G1360. Considering 18000 m², the average per m² is 4.44</text>
   </threadedComment>
-  <threadedComment ref="C38" dT="2019-12-31T14:55:29.34" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{72D2B639-7D47-4D26-A14C-D414C3B25E87}">
+  <threadedComment ref="C37" dT="2019-12-31T14:55:29.34" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{72D2B639-7D47-4D26-A14C-D414C3B25E87}">
     <text>80 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00444</text>
   </threadedComment>
-  <threadedComment ref="C39" dT="2019-12-31T16:34:31.50" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{B1C3D0ED-7599-4C92-8848-AD9F3F4ACEF7}">
+  <threadedComment ref="C38" dT="2019-12-31T16:34:31.50" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{B1C3D0ED-7599-4C92-8848-AD9F3F4ACEF7}">
     <text>64 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00356</text>
   </threadedComment>
-  <threadedComment ref="C40" dT="2019-12-31T16:35:39.91" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{B5C3BFB3-019D-426D-A008-79A436013E7A}">
+  <threadedComment ref="C39" dT="2019-12-31T16:35:39.91" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{B5C3BFB3-019D-426D-A008-79A436013E7A}">
     <text>0.27 m³/month @ G1360. Considering 18000 m², the average per m² is 0.000015</text>
   </threadedComment>
 </ThreadedComments>
@@ -1807,8 +1811,8 @@
   <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1826,14 +1830,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="33"/>
@@ -1867,7 +1871,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="100" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1891,7 +1895,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="96"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1915,11 +1919,11 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="96"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="77">
         <f>ROUNDUP((500/C7),0)</f>
         <v>953</v>
       </c>
@@ -1938,14 +1942,14 @@
         <v>158</v>
       </c>
       <c r="H6" s="50"/>
-      <c r="I6" s="81"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="96"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="77">
         <f>31.5/60</f>
         <v>0.52500000000000002</v>
       </c>
@@ -1964,14 +1968,14 @@
         <v>101</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="81"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="96"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="77">
         <v>380</v>
       </c>
       <c r="D8" s="11">
@@ -1988,12 +1992,12 @@
       <c r="G8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="59" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="96"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -2017,7 +2021,7 @@
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="96"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -2045,20 +2049,20 @@
       <c r="B11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="83">
         <v>10</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="83">
         <v>8</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="83">
         <v>12</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="H11" s="95" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2067,406 +2071,404 @@
       <c r="B12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="83">
         <v>20</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="83">
         <v>16</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="83">
         <v>24</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="114"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="29"/>
       <c r="B13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="83">
         <v>70</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="83">
         <v>56</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="83">
         <v>84</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="114"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="59"/>
-      <c r="B14" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="79">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="40">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="40">
-        <f t="shared" ref="E14" si="2">1.2*C14</f>
-        <v>0.6</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="74" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="35" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A15" s="97" t="s">
+      <c r="H13" s="95"/>
+    </row>
+    <row r="14" spans="1:9" s="35" customFormat="1" ht="14.7" customHeight="1">
+      <c r="A14" s="102" t="s">
         <v>68</v>
       </c>
+      <c r="B14" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="48">
+        <f>214.17*$C$18</f>
+        <v>1499.1899999999998</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="0"/>
+        <v>1199.3519999999999</v>
+      </c>
+      <c r="E14" s="48">
+        <f t="shared" si="1"/>
+        <v>1799.0279999999998</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="74"/>
+    </row>
+    <row r="15" spans="1:9" s="35" customFormat="1">
+      <c r="A15" s="103"/>
       <c r="B15" s="47" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C15" s="48">
-        <f>214.17*$C$19</f>
-        <v>1499.1899999999998</v>
+        <f>0.38*$C$18</f>
+        <v>2.66</v>
       </c>
       <c r="D15" s="48">
         <f t="shared" si="0"/>
-        <v>1199.3519999999999</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="E15" s="48">
         <f t="shared" si="1"/>
-        <v>1799.0279999999998</v>
+        <v>3.1920000000000002</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="87" t="s">
-        <v>180</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="H15" s="111"/>
       <c r="I15" s="75"/>
     </row>
     <row r="16" spans="1:9" s="35" customFormat="1">
-      <c r="A16" s="98"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="48">
-        <f>0.38*$C$19</f>
-        <v>2.66</v>
+        <f>1.5*$C$18</f>
+        <v>10.5</v>
       </c>
       <c r="D16" s="48">
         <f t="shared" si="0"/>
-        <v>2.1280000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="E16" s="48">
         <f t="shared" si="1"/>
-        <v>3.1920000000000002</v>
+        <v>12.6</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>85</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="76"/>
-    </row>
-    <row r="17" spans="1:9" s="35" customFormat="1">
-      <c r="A17" s="98"/>
-      <c r="B17" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="48">
-        <f>1.5*$C$19</f>
-        <v>10.5</v>
-      </c>
-      <c r="D17" s="48">
-        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H16" s="112"/>
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="26">
+        <v>48</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="0"/>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="1"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:13" ht="28.8">
+      <c r="A18" s="104"/>
+      <c r="B18" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="28">
+        <v>7</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
-      <c r="E17" s="48">
-        <f t="shared" si="1"/>
-        <v>12.6</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="76"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="26">
-        <v>48</v>
-      </c>
-      <c r="D18" s="26">
-        <f t="shared" si="0"/>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="E18" s="26">
-        <f t="shared" si="1"/>
-        <v>57.599999999999994</v>
-      </c>
       <c r="F18" s="27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.8">
-      <c r="A19" s="99"/>
+        <v>77</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="104"/>
       <c r="B19" s="25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" s="28">
-        <v>7</v>
+        <v>2250</v>
       </c>
       <c r="D19" s="28">
         <f t="shared" si="0"/>
-        <v>5.6000000000000005</v>
+        <v>1800</v>
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>8.4</v>
+        <v>2700</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="77" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="99"/>
+        <v>82</v>
+      </c>
+      <c r="H19" s="50"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="104"/>
       <c r="B20" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="28">
-        <v>2250</v>
+        <v>10</v>
       </c>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>8</v>
       </c>
       <c r="E20" s="28">
         <f t="shared" si="1"/>
-        <v>2700</v>
+        <v>12</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="50"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="99"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="104"/>
       <c r="B21" s="25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C21" s="28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H21" s="50"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="99"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="104"/>
       <c r="B22" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="28">
-        <v>3</v>
+        <v>1E-4</v>
       </c>
       <c r="D22" s="28">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>1E-4</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999996</v>
+        <v>1E-4</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="99"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="104"/>
       <c r="B23" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C23" s="28">
-        <v>1E-4</v>
+        <v>100</v>
       </c>
       <c r="D23" s="28">
-        <v>1E-4</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E23" s="28">
-        <v>1E-4</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="99"/>
-      <c r="B24" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="28">
-        <v>100</v>
-      </c>
-      <c r="D24" s="28">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E24" s="28">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="27" t="s">
         <v>91</v>
       </c>
+      <c r="H23" s="50"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A24" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12">
+        <v>63</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="0"/>
+        <v>50.400000000000006</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="1"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="H24" s="50"/>
     </row>
-    <row r="25" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A25" s="100" t="s">
-        <v>45</v>
-      </c>
+    <row r="25" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A25" s="106"/>
       <c r="B25" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="12">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
-        <v>50.400000000000006</v>
+        <v>24.8</v>
       </c>
       <c r="E25" s="12">
         <f t="shared" si="1"/>
-        <v>75.599999999999994</v>
+        <v>37.199999999999996</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H25" s="50"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A26" s="101"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="106"/>
       <c r="B26" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="12">
-        <v>31</v>
+        <v>1E-4</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>24.8</v>
+        <v>1E-4</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" si="1"/>
-        <v>37.199999999999996</v>
+        <v>1E-4</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H26" s="50"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="101"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="106"/>
       <c r="B27" s="9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C27" s="12">
-        <v>1E-4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="12">
-        <v>1E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.8000000000000007</v>
       </c>
       <c r="E27" s="12">
-        <v>1E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H27" s="50"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="101"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="106"/>
       <c r="B28" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C28" s="12">
-        <v>6</v>
+        <v>1E-4</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
+        <v>1E-4</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
+        <v>1E-4</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H28" s="50"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="101"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="106"/>
       <c r="B29" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="12">
         <v>1E-4</v>
@@ -2479,34 +2481,38 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H29" s="50"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="101"/>
-      <c r="B30" s="9" t="s">
-        <v>15</v>
+    <row r="30" spans="1:13">
+      <c r="A30" s="106"/>
+      <c r="B30" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="C30" s="12">
-        <v>1E-4</v>
-      </c>
-      <c r="D30" s="12">
-        <v>1E-4</v>
-      </c>
-      <c r="E30" s="12">
-        <v>1E-4</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="50"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="101"/>
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="37">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="106"/>
       <c r="B31" s="36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="12">
         <v>1.25</v>
@@ -2521,96 +2527,101 @@
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H31" s="51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="101"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="106"/>
       <c r="B32" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="12">
-        <v>1.25</v>
+        <v>18</v>
+      </c>
+      <c r="C32" s="70">
+        <v>1</v>
       </c>
       <c r="D32" s="37">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E32" s="37">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>237</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H32" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="K32" s="86" t="s">
+        <v>213</v>
+      </c>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="101"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="71">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C33" s="70">
+        <v>1.2</v>
       </c>
       <c r="D33" s="37">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.96</v>
       </c>
       <c r="E33" s="37">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.44</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="K33" s="105" t="s">
-        <v>213</v>
-      </c>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
+        <v>115</v>
+      </c>
+      <c r="H33" s="114"/>
+      <c r="K33" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="101"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="71">
-        <v>1.2</v>
+        <v>19</v>
+      </c>
+      <c r="C34" s="70">
+        <v>1</v>
       </c>
       <c r="D34" s="37">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E34" s="37">
-        <f t="shared" si="1"/>
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="91"/>
-      <c r="K34" s="115" t="s">
-        <v>216</v>
-      </c>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
+        <v>116</v>
+      </c>
+      <c r="H34" s="114"/>
+      <c r="K34" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="L34" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="M34" s="50" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="101"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="71">
+        <v>20</v>
+      </c>
+      <c r="C35" s="70">
         <v>1</v>
       </c>
       <c r="D35" s="37">
@@ -2621,842 +2632,835 @@
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="91"/>
-      <c r="K35" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="115"/>
+      <c r="K35" s="50">
+        <v>0.33</v>
+      </c>
+      <c r="L35" s="50">
+        <v>8000</v>
+      </c>
+      <c r="M35" s="50">
+        <f>L35*K35</f>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="14.4" customHeight="1">
+      <c r="A36" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="53">
+        <f>4.44*$C$19</f>
+        <v>9990</v>
+      </c>
+      <c r="D36" s="53">
+        <f t="shared" si="0"/>
+        <v>7992</v>
+      </c>
+      <c r="E36" s="53">
+        <f t="shared" si="1"/>
+        <v>11988</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="75"/>
+      <c r="K36" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="93"/>
+      <c r="B37" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="53">
+        <f>0.00444*$C$19</f>
+        <v>9.99</v>
+      </c>
+      <c r="D37" s="53">
+        <f t="shared" si="0"/>
+        <v>7.9920000000000009</v>
+      </c>
+      <c r="E37" s="53">
+        <f t="shared" si="1"/>
+        <v>11.988</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="114"/>
+      <c r="I37" s="75"/>
+      <c r="K37" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="L35" s="50" t="s">
+      <c r="L37" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="M35" s="50" t="s">
+      <c r="M37" s="50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="101"/>
-      <c r="B36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="71">
-        <v>1</v>
-      </c>
-      <c r="D36" s="37">
-        <v>1</v>
-      </c>
-      <c r="E36" s="37">
-        <v>1</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="92"/>
-      <c r="K36" s="50">
-        <v>0.33</v>
-      </c>
-      <c r="L36" s="50">
-        <v>8000</v>
-      </c>
-      <c r="M36" s="50">
-        <f>L36*K36</f>
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A37" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="53">
-        <f>4.44*$C$20</f>
-        <v>9990</v>
-      </c>
-      <c r="D37" s="53">
-        <f t="shared" si="0"/>
-        <v>7992</v>
-      </c>
-      <c r="E37" s="53">
-        <f t="shared" si="1"/>
-        <v>11988</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="90" t="s">
-        <v>182</v>
-      </c>
-      <c r="I37" s="76"/>
-      <c r="K37" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-    </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="112"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38" s="53">
-        <f>0.00444*$C$20</f>
-        <v>9.99</v>
+        <f>0.00356*$C$19</f>
+        <v>8.01</v>
       </c>
       <c r="D38" s="53">
         <f t="shared" si="0"/>
-        <v>7.9920000000000009</v>
+        <v>6.4080000000000004</v>
       </c>
       <c r="E38" s="53">
         <f t="shared" si="1"/>
-        <v>11.988</v>
+        <v>9.6120000000000001</v>
       </c>
       <c r="F38" s="54" t="s">
         <v>85</v>
       </c>
       <c r="G38" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" s="91"/>
-      <c r="I38" s="76"/>
-      <c r="K38" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="L38" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="M38" s="50" t="s">
-        <v>212</v>
+        <v>120</v>
+      </c>
+      <c r="H38" s="114"/>
+      <c r="I38" s="75"/>
+      <c r="K38" s="65">
+        <v>0.33</v>
+      </c>
+      <c r="L38" s="50">
+        <v>1500</v>
+      </c>
+      <c r="M38" s="97">
+        <f>L38*K38+K39*L39+K40*L40</f>
+        <v>2805</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="112"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" s="53">
-        <f>0.00356*$C$20</f>
-        <v>8.01</v>
+        <f>0.000015*$C$19</f>
+        <v>3.3750000000000002E-2</v>
       </c>
       <c r="D39" s="53">
         <f t="shared" si="0"/>
-        <v>6.4080000000000004</v>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="E39" s="53">
         <f t="shared" si="1"/>
-        <v>9.6120000000000001</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="F39" s="54" t="s">
         <v>85</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="H39" s="91"/>
-      <c r="I39" s="76"/>
-      <c r="K39" s="66">
+        <v>121</v>
+      </c>
+      <c r="H39" s="115"/>
+      <c r="I39" s="75"/>
+      <c r="K39" s="65">
         <v>0.33</v>
       </c>
       <c r="L39" s="50">
-        <v>1500</v>
-      </c>
-      <c r="M39" s="116">
-        <f>L39*K39+K40*L40+K41*L41</f>
-        <v>2805</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="M39" s="97"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="112"/>
-      <c r="B40" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="53">
-        <f>0.000015*$C$20</f>
-        <v>3.3750000000000002E-2</v>
-      </c>
-      <c r="D40" s="53">
-        <f t="shared" si="0"/>
-        <v>2.7000000000000003E-2</v>
-      </c>
-      <c r="E40" s="53">
-        <f t="shared" si="1"/>
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="92"/>
-      <c r="I40" s="76"/>
-      <c r="K40" s="66">
+      <c r="A40" s="94"/>
+      <c r="B40" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="50"/>
+      <c r="K40" s="65">
         <v>0.33</v>
       </c>
       <c r="L40" s="50">
-        <v>6500</v>
-      </c>
-      <c r="M40" s="116"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="113"/>
-      <c r="B41" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D41" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E41" s="15">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="50"/>
-      <c r="K41" s="66">
-        <v>0.33</v>
-      </c>
-      <c r="L41" s="50">
         <v>500</v>
       </c>
-      <c r="M41" s="116"/>
-    </row>
-    <row r="42" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A42" s="108" t="s">
+      <c r="M40" s="97"/>
+    </row>
+    <row r="41" spans="1:14" ht="14.4" customHeight="1">
+      <c r="A41" s="89" t="s">
         <v>47</v>
       </c>
+      <c r="B41" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="18">
+        <v>330</v>
+      </c>
+      <c r="D41" s="18">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="90"/>
       <c r="B42" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C42" s="18">
-        <v>330</v>
+        <v>1E-4</v>
       </c>
       <c r="D42" s="18">
-        <f t="shared" si="0"/>
-        <v>264</v>
+        <v>1E-4</v>
       </c>
       <c r="E42" s="18">
-        <f t="shared" si="1"/>
-        <v>396</v>
+        <v>1E-4</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="50" t="s">
-        <v>218</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="H42" s="50"/>
+      <c r="K42" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="L42" s="96"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="109"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="18">
-        <v>1E-4</v>
+        <v>2805</v>
       </c>
       <c r="D43" s="18">
-        <v>1E-4</v>
+        <f t="shared" si="0"/>
+        <v>2244</v>
       </c>
       <c r="E43" s="18">
-        <v>1E-4</v>
+        <f t="shared" si="1"/>
+        <v>3366</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="50"/>
-      <c r="K43" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="L43" s="115"/>
+        <v>124</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="L43" s="50">
+        <v>116</v>
+      </c>
+      <c r="M43" s="65">
+        <f>L43/SUM($L$43:$L$45)</f>
+        <v>0.30526315789473685</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="109"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="18">
-        <v>2805</v>
+        <v>0.03</v>
       </c>
       <c r="D44" s="18">
         <f t="shared" si="0"/>
-        <v>2244</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E44" s="18">
         <f t="shared" si="1"/>
-        <v>3366</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>217</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H44" s="50"/>
       <c r="K44" s="50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L44" s="50">
-        <v>116</v>
-      </c>
-      <c r="M44" s="66">
-        <f>L44/SUM($L$44:$L$46)</f>
-        <v>0.30526315789473685</v>
+        <f>184+56</f>
+        <v>240</v>
+      </c>
+      <c r="M44" s="65">
+        <f t="shared" ref="M44:M45" si="2">L44/SUM($L$43:$L$45)</f>
+        <v>0.63157894736842102</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="109"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="18">
-        <v>0.03</v>
+        <v>1E-4</v>
       </c>
       <c r="D45" s="18">
-        <f t="shared" si="0"/>
-        <v>2.4E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="E45" s="18">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999997E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H45" s="50"/>
       <c r="K45" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L45" s="50">
-        <f>184+56</f>
-        <v>240</v>
-      </c>
-      <c r="M45" s="66">
-        <f t="shared" ref="M45:M46" si="3">L45/SUM($L$44:$L$46)</f>
-        <v>0.63157894736842102</v>
+        <f>0.1*L44</f>
+        <v>24</v>
+      </c>
+      <c r="M45" s="65">
+        <f t="shared" si="2"/>
+        <v>6.3157894736842107E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="109"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" s="18">
-        <v>1E-4</v>
+        <v>2.44</v>
       </c>
       <c r="D46" s="18">
-        <v>1E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.952</v>
       </c>
       <c r="E46" s="18">
-        <v>1E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.9279999999999999</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>38</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H46" s="50"/>
-      <c r="K46" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="L46" s="50">
-        <f>0.1*L45</f>
-        <v>24</v>
-      </c>
-      <c r="M46" s="66">
-        <f t="shared" si="3"/>
-        <v>6.3157894736842107E-2</v>
-      </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="109"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="17" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="C47" s="18">
-        <v>2.44</v>
+        <v>2805</v>
       </c>
       <c r="D47" s="18">
         <f t="shared" si="0"/>
-        <v>1.952</v>
+        <v>2244</v>
       </c>
       <c r="E47" s="18">
         <f t="shared" si="1"/>
-        <v>2.9279999999999999</v>
+        <v>3366</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="H47" s="50"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="110"/>
-      <c r="B48" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="18">
-        <v>2805</v>
-      </c>
-      <c r="D48" s="18">
-        <f t="shared" si="0"/>
-        <v>2244</v>
-      </c>
-      <c r="E48" s="18">
-        <f t="shared" si="1"/>
-        <v>3366</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H48" s="50"/>
-      <c r="K48" s="115" t="s">
+      <c r="K47" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="L48" s="115"/>
-      <c r="M48" s="115"/>
-      <c r="N48" s="115"/>
-    </row>
-    <row r="49" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A49" s="102" t="s">
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+    </row>
+    <row r="48" spans="1:14" ht="14.4" customHeight="1">
+      <c r="A48" s="107" t="s">
         <v>44</v>
       </c>
+      <c r="B48" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="32">
+        <f>34.5/C53</f>
+        <v>3.9115646258503403E-2</v>
+      </c>
+      <c r="D48" s="30">
+        <f t="shared" si="0"/>
+        <v>3.1292517006802724E-2</v>
+      </c>
+      <c r="E48" s="30">
+        <f t="shared" si="1"/>
+        <v>4.6938775510204082E-2</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H48" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="I48" s="79"/>
+      <c r="K48" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="L48" s="64">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="108"/>
       <c r="B49" s="20" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="C49" s="32">
-        <f>34.5/C54</f>
-        <v>3.9115646258503403E-2</v>
-      </c>
-      <c r="D49" s="30">
-        <f t="shared" si="0"/>
-        <v>3.1292517006802724E-2</v>
-      </c>
-      <c r="E49" s="30">
-        <f t="shared" si="1"/>
-        <v>4.6938775510204082E-2</v>
+        <f>23/C54</f>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="D49" s="21">
+        <f t="shared" si="0"/>
+        <v>0.6133333333333334</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="1"/>
+        <v>0.92</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="H49" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="I49" s="80"/>
-      <c r="K49" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="L49" s="65">
-        <v>418</v>
+        <v>132</v>
+      </c>
+      <c r="H49" s="114"/>
+      <c r="I49" s="79"/>
+      <c r="K49" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="L49" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="M49" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="N49" s="50" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="103"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="32">
-        <f>23/C55</f>
-        <v>0.76666666666666672</v>
+        <v>173</v>
+      </c>
+      <c r="C50" s="82">
+        <f>9/C55</f>
+        <v>0.15</v>
       </c>
       <c r="D50" s="21">
-        <f t="shared" si="0"/>
-        <v>0.6133333333333334</v>
+        <f>0.8*C50</f>
+        <v>0.12</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.18</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="91"/>
-      <c r="I50" s="80"/>
-      <c r="K50" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="L50" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="M50" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="N50" s="50" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="H50" s="114"/>
+      <c r="I50" s="79"/>
+      <c r="K50" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="L50" s="65">
+        <v>0.9</v>
+      </c>
+      <c r="M50" s="50">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="N50" s="62">
+        <f>M50/$L$48</f>
+        <v>2.3923444976076554E-3</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="103"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="83">
-        <f>9/C56</f>
-        <v>0.15</v>
+        <v>225</v>
+      </c>
+      <c r="C51" s="32">
+        <f>9.5/C56</f>
+        <v>0.15305300467214436</v>
       </c>
       <c r="D51" s="21">
         <f>0.8*C51</f>
-        <v>0.12</v>
+        <v>0.12244240373771549</v>
       </c>
       <c r="E51" s="21">
-        <f t="shared" si="1"/>
-        <v>0.18</v>
+        <f t="shared" ref="E51" si="3">1.2*C51</f>
+        <v>0.18366360560657322</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="H51" s="91"/>
-      <c r="I51" s="80"/>
-      <c r="K51" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="L51" s="66">
-        <v>0.9</v>
-      </c>
-      <c r="M51" s="50">
-        <f>5/5</f>
-        <v>1</v>
-      </c>
-      <c r="N51" s="63">
-        <f>M51/$L$49</f>
-        <v>2.3923444976076554E-3</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="H51" s="114"/>
+      <c r="I51" s="79"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="62"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="103"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" s="32">
-        <f>9.5/C57</f>
-        <v>0.15305300467214436</v>
+        <v>224</v>
+      </c>
+      <c r="C52" s="82">
+        <f>9/C57</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D52" s="21">
-        <f>0.8*C52</f>
-        <v>0.12244240373771549</v>
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
       </c>
       <c r="E52" s="21">
-        <f t="shared" ref="E52" si="4">1.2*C52</f>
-        <v>0.18366360560657322</v>
+        <f t="shared" si="1"/>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H52" s="91"/>
-      <c r="I52" s="80"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="63"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="103"/>
-      <c r="B53" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="83">
-        <f>9/C58</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D53" s="21">
-        <f t="shared" si="0"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="E53" s="21">
-        <f t="shared" si="1"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H53" s="91"/>
-      <c r="I53" s="80"/>
-      <c r="K53" s="50" t="s">
+      <c r="H52" s="114"/>
+      <c r="I52" s="79"/>
+      <c r="K52" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="L53" s="66">
+      <c r="L52" s="65">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M53" s="50">
+      <c r="M52" s="50">
         <f>29/5</f>
         <v>5.8</v>
       </c>
-      <c r="N53" s="63">
-        <f>M53/$L$49</f>
+      <c r="N52" s="62">
+        <f>M52/$L$48</f>
         <v>1.3875598086124402E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="103"/>
-      <c r="B54" s="20" t="s">
+    <row r="53" spans="1:14">
+      <c r="A53" s="108"/>
+      <c r="B53" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C54" s="83">
+      <c r="C53" s="82">
         <f>14.7*60</f>
         <v>882</v>
       </c>
+      <c r="D53" s="21">
+        <f t="shared" si="0"/>
+        <v>705.6</v>
+      </c>
+      <c r="E53" s="21">
+        <f t="shared" si="1"/>
+        <v>1058.3999999999999</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="H53" s="114"/>
+      <c r="I53" s="79"/>
+      <c r="K53" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="L53" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="M53" s="50">
+        <f>13/5</f>
+        <v>2.6</v>
+      </c>
+      <c r="N53" s="62">
+        <f>M53/$L$48</f>
+        <v>6.2200956937799043E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="108"/>
+      <c r="B54" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="82">
+        <v>30</v>
+      </c>
       <c r="D54" s="21">
         <f t="shared" si="0"/>
-        <v>705.6</v>
+        <v>24</v>
       </c>
       <c r="E54" s="21">
         <f t="shared" si="1"/>
-        <v>1058.3999999999999</v>
+        <v>36</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>175</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="H54" s="91"/>
-      <c r="I54" s="80"/>
-      <c r="K54" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="L54" s="66">
-        <v>0.3</v>
-      </c>
-      <c r="M54" s="50">
-        <f>13/5</f>
-        <v>2.6</v>
-      </c>
-      <c r="N54" s="63">
-        <f>M54/$L$49</f>
-        <v>6.2200956937799043E-3</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H54" s="114"/>
+      <c r="I54" s="79"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="103"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="83">
-        <v>30</v>
+        <v>174</v>
+      </c>
+      <c r="C55" s="82">
+        <v>60</v>
       </c>
       <c r="D55" s="21">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E55" s="21">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>175</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H55" s="91"/>
-      <c r="I55" s="80"/>
+        <v>176</v>
+      </c>
+      <c r="H55" s="114"/>
+      <c r="I55" s="79"/>
+      <c r="K55" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="L55" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="M55" s="50" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="103"/>
-      <c r="B56" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="83">
-        <v>60</v>
+      <c r="A56" s="108"/>
+      <c r="B56" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="82">
+        <f>60*1.0345</f>
+        <v>62.07</v>
       </c>
       <c r="D56" s="21">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49.656000000000006</v>
       </c>
       <c r="E56" s="21">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" ref="E56" si="4">1.2*C56</f>
+        <v>74.483999999999995</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>175</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56" s="91"/>
-      <c r="I56" s="80"/>
+        <v>223</v>
+      </c>
+      <c r="H56" s="114"/>
+      <c r="I56" s="79"/>
       <c r="K56" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="L56" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="M56" s="50" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="L56" s="66">
+        <v>40</v>
+      </c>
+      <c r="M56" s="50">
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="103"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C57" s="83">
-        <f>60*1.0345</f>
-        <v>62.07</v>
+        <v>221</v>
+      </c>
+      <c r="C57" s="82">
+        <v>600</v>
       </c>
       <c r="D57" s="21">
         <f t="shared" si="0"/>
-        <v>49.656000000000006</v>
+        <v>480</v>
       </c>
       <c r="E57" s="21">
-        <f t="shared" ref="E57" si="5">1.2*C57</f>
-        <v>74.483999999999995</v>
+        <f t="shared" si="1"/>
+        <v>720</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>175</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="H57" s="91"/>
-      <c r="I57" s="80"/>
-      <c r="K57" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="L57" s="67">
-        <v>40</v>
+        <v>222</v>
+      </c>
+      <c r="H57" s="115"/>
+      <c r="I57" s="79"/>
+      <c r="K57" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="L57" s="66">
+        <v>12</v>
       </c>
       <c r="M57" s="50">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="103"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" s="83">
-        <v>600</v>
+        <v>163</v>
+      </c>
+      <c r="C58" s="32">
+        <v>4.3</v>
       </c>
       <c r="D58" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>3.44</v>
       </c>
       <c r="E58" s="21">
         <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>175</v>
+        <v>5.1599999999999993</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="H58" s="92"/>
-      <c r="I58" s="80"/>
-      <c r="K58" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="L58" s="67">
-        <v>12</v>
+        <v>168</v>
+      </c>
+      <c r="H58" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="K58" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="L58" s="66">
+        <v>0.5</v>
       </c>
       <c r="M58" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="108"/>
+      <c r="B59" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="32">
+        <v>0.81</v>
+      </c>
+      <c r="D59" s="21">
+        <f t="shared" si="0"/>
+        <v>0.64800000000000013</v>
+      </c>
+      <c r="E59" s="21">
+        <f t="shared" si="1"/>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H59" s="81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="108"/>
+      <c r="B60" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="103"/>
-      <c r="B59" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="D59" s="21">
-        <f t="shared" si="0"/>
-        <v>3.44</v>
-      </c>
-      <c r="E59" s="21">
-        <f t="shared" si="1"/>
-        <v>5.1599999999999993</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H59" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="K59" s="69" t="s">
-        <v>209</v>
-      </c>
-      <c r="L59" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="M59" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="103"/>
-      <c r="B60" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="32">
-        <v>0.81</v>
-      </c>
       <c r="D60" s="21">
         <f t="shared" si="0"/>
-        <v>0.64800000000000013</v>
+        <v>1.6</v>
       </c>
       <c r="E60" s="21">
         <f t="shared" si="1"/>
-        <v>0.97199999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H60" s="82" t="s">
-        <v>235</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="H60" s="117"/>
     </row>
     <row r="61" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A61" s="103"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="42" t="s">
         <v>41</v>
       </c>
@@ -3478,7 +3482,7 @@
       <c r="G61" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="90" t="s">
+      <c r="H61" s="113" t="s">
         <v>185</v>
       </c>
       <c r="I61" t="s">
@@ -3487,13 +3491,13 @@
       <c r="K61" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="L61" s="68">
-        <f>N51*L51*L44 + L57/M57</f>
+      <c r="L61" s="67">
+        <f>N50*L50*L43 + L56/M56</f>
         <v>4.2497607655502394</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="103"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="42" t="s">
         <v>42</v>
       </c>
@@ -3515,17 +3519,17 @@
       <c r="G62" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="91"/>
+      <c r="H62" s="114"/>
       <c r="K62" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="L62" s="68">
-        <f>N53*L53*L45 +L59</f>
+      <c r="L62" s="67">
+        <f>N52*L52*L44 +L58</f>
         <v>2.3315789473684214</v>
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="103"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="42" t="s">
         <v>92</v>
       </c>
@@ -3547,18 +3551,18 @@
       <c r="G63" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="91"/>
+      <c r="H63" s="114"/>
       <c r="K63" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="L63" s="68">
-        <f>N54*L54*L46</f>
+      <c r="L63" s="67">
+        <f>N53*L53*L45</f>
         <v>4.4784688995215309E-2</v>
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="104"/>
-      <c r="B64" s="73" t="s">
+      <c r="A64" s="109"/>
+      <c r="B64" s="72" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="43">
@@ -3579,384 +3583,384 @@
       <c r="G64" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="92"/>
-      <c r="K64" s="62" t="s">
+      <c r="H64" s="115"/>
+      <c r="K64" s="61" t="s">
         <v>208</v>
       </c>
       <c r="L64" s="50">
-        <f>L58/M58</f>
+        <f>L57/M57</f>
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="98" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="85">
+      <c r="C65" s="84">
         <v>0.25</v>
       </c>
-      <c r="D65" s="85">
+      <c r="D65" s="84">
         <v>0.2</v>
       </c>
-      <c r="E65" s="85">
+      <c r="E65" s="84">
         <v>0.3</v>
       </c>
       <c r="F65" s="58"/>
       <c r="G65" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="87" t="s">
+      <c r="H65" s="110" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="94"/>
+      <c r="A66" s="99"/>
       <c r="B66" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="85">
+      <c r="C66" s="84">
         <v>0.2</v>
       </c>
-      <c r="D66" s="85">
+      <c r="D66" s="84">
         <v>0.16000000000000003</v>
       </c>
-      <c r="E66" s="85">
+      <c r="E66" s="84">
         <v>0.24</v>
       </c>
       <c r="F66" s="58"/>
       <c r="G66" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H66" s="88"/>
+      <c r="H66" s="111"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="94"/>
+      <c r="A67" s="99"/>
       <c r="B67" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="85">
+      <c r="C67" s="84">
         <v>0.2</v>
       </c>
-      <c r="D67" s="85">
+      <c r="D67" s="84">
         <v>0.16000000000000003</v>
       </c>
-      <c r="E67" s="85">
+      <c r="E67" s="84">
         <v>0.24</v>
       </c>
       <c r="F67" s="58"/>
       <c r="G67" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="88"/>
+      <c r="H67" s="111"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="94"/>
+      <c r="A68" s="99"/>
       <c r="B68" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="86">
+      <c r="C68" s="85">
         <v>0.2</v>
       </c>
-      <c r="D68" s="85">
+      <c r="D68" s="84">
         <v>0.16000000000000003</v>
       </c>
-      <c r="E68" s="85">
+      <c r="E68" s="84">
         <v>0.24</v>
       </c>
       <c r="F68" s="58"/>
       <c r="G68" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="88"/>
+      <c r="H68" s="111"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="94"/>
+      <c r="A69" s="99"/>
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="86">
+      <c r="C69" s="85">
         <v>0.5</v>
       </c>
-      <c r="D69" s="85">
+      <c r="D69" s="84">
         <v>0.4</v>
       </c>
-      <c r="E69" s="85">
+      <c r="E69" s="84">
         <v>0.6</v>
       </c>
       <c r="F69" s="58"/>
       <c r="G69" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H69" s="88"/>
+      <c r="H69" s="111"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="94"/>
+      <c r="A70" s="99"/>
       <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="86">
+      <c r="C70" s="85">
         <v>0.5</v>
       </c>
-      <c r="D70" s="85">
+      <c r="D70" s="84">
         <v>0.4</v>
       </c>
-      <c r="E70" s="85">
+      <c r="E70" s="84">
         <v>0.6</v>
       </c>
       <c r="F70" s="58"/>
       <c r="G70" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H70" s="88"/>
+      <c r="H70" s="111"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="94"/>
+      <c r="A71" s="99"/>
       <c r="B71" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="86">
+      <c r="C71" s="85">
         <v>0.25</v>
       </c>
-      <c r="D71" s="85">
+      <c r="D71" s="84">
         <v>0.2</v>
       </c>
-      <c r="E71" s="85">
+      <c r="E71" s="84">
         <v>0.3</v>
       </c>
       <c r="F71" s="58"/>
       <c r="G71" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="88"/>
+      <c r="H71" s="111"/>
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="94"/>
+      <c r="A72" s="99"/>
       <c r="B72" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="86">
+      <c r="C72" s="85">
         <v>0.1</v>
       </c>
-      <c r="D72" s="85">
+      <c r="D72" s="84">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="E72" s="85">
+      <c r="E72" s="84">
         <v>0.12</v>
       </c>
       <c r="F72" s="58"/>
       <c r="G72" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="88"/>
+      <c r="H72" s="111"/>
       <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="94"/>
+      <c r="A73" s="99"/>
       <c r="B73" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="86">
+      <c r="C73" s="85">
         <v>0.1</v>
       </c>
-      <c r="D73" s="85">
+      <c r="D73" s="84">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="E73" s="85">
+      <c r="E73" s="84">
         <v>0.12</v>
       </c>
       <c r="F73" s="58"/>
       <c r="G73" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="88"/>
+      <c r="H73" s="111"/>
       <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="94"/>
+      <c r="A74" s="99"/>
       <c r="B74" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="86">
+      <c r="C74" s="85">
         <v>0.1</v>
       </c>
-      <c r="D74" s="85">
+      <c r="D74" s="84">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="E74" s="85">
+      <c r="E74" s="84">
         <v>0.12</v>
       </c>
       <c r="F74" s="58"/>
       <c r="G74" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="88"/>
+      <c r="H74" s="111"/>
       <c r="K74" s="13"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="94"/>
+      <c r="A75" s="99"/>
       <c r="B75" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="86">
+      <c r="C75" s="85">
         <v>0.45</v>
       </c>
-      <c r="D75" s="85">
+      <c r="D75" s="84">
         <v>0.36000000000000004</v>
       </c>
-      <c r="E75" s="85">
+      <c r="E75" s="84">
         <v>0.54</v>
       </c>
       <c r="F75" s="58"/>
       <c r="G75" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="88"/>
+      <c r="H75" s="111"/>
       <c r="K75" s="13"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="94"/>
+      <c r="A76" s="99"/>
       <c r="B76" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="86">
+      <c r="C76" s="85">
         <v>0.45</v>
       </c>
-      <c r="D76" s="85">
+      <c r="D76" s="84">
         <v>0.36000000000000004</v>
       </c>
-      <c r="E76" s="85">
+      <c r="E76" s="84">
         <v>0.54</v>
       </c>
       <c r="F76" s="58"/>
       <c r="G76" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H76" s="88"/>
+      <c r="H76" s="111"/>
       <c r="K76" s="13"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="94"/>
+      <c r="A77" s="99"/>
       <c r="B77" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="86">
+      <c r="C77" s="85">
         <v>0.5</v>
       </c>
-      <c r="D77" s="85">
+      <c r="D77" s="84">
         <v>0.4</v>
       </c>
-      <c r="E77" s="85">
+      <c r="E77" s="84">
         <v>0.6</v>
       </c>
       <c r="F77" s="58"/>
       <c r="G77" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="88"/>
+      <c r="H77" s="111"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="94"/>
+      <c r="A78" s="99"/>
       <c r="B78" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="85">
+      <c r="C78" s="84">
         <v>0.7</v>
       </c>
-      <c r="D78" s="85">
+      <c r="D78" s="84">
         <v>0.55999999999999994</v>
       </c>
-      <c r="E78" s="85">
+      <c r="E78" s="84">
         <v>0.84</v>
       </c>
       <c r="F78" s="58"/>
       <c r="G78" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="88"/>
+      <c r="H78" s="111"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="94"/>
+      <c r="A79" s="99"/>
       <c r="B79" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="85">
+      <c r="C79" s="84">
         <v>0.7</v>
       </c>
-      <c r="D79" s="85">
+      <c r="D79" s="84">
         <v>0.55999999999999994</v>
       </c>
-      <c r="E79" s="85">
+      <c r="E79" s="84">
         <v>0.84</v>
       </c>
       <c r="F79" s="58"/>
       <c r="G79" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="88"/>
+      <c r="H79" s="111"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="94"/>
+      <c r="A80" s="99"/>
       <c r="B80" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="85">
+      <c r="C80" s="84">
         <v>0.7</v>
       </c>
-      <c r="D80" s="85">
+      <c r="D80" s="84">
         <v>0.55999999999999994</v>
       </c>
-      <c r="E80" s="85">
+      <c r="E80" s="84">
         <v>0.84</v>
       </c>
       <c r="F80" s="58"/>
       <c r="G80" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="88"/>
+      <c r="H80" s="111"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="94"/>
+      <c r="A81" s="99"/>
       <c r="B81" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="85">
+      <c r="C81" s="84">
         <v>0.05</v>
       </c>
-      <c r="D81" s="85">
+      <c r="D81" s="84">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="E81" s="85">
+      <c r="E81" s="84">
         <v>0.06</v>
       </c>
       <c r="F81" s="58"/>
       <c r="G81" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H81" s="88"/>
+      <c r="H81" s="111"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="94"/>
+      <c r="A82" s="99"/>
       <c r="B82" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="85">
+      <c r="C82" s="84">
         <v>0.05</v>
       </c>
-      <c r="D82" s="85">
+      <c r="D82" s="84">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="E82" s="85">
+      <c r="E82" s="84">
         <v>0.06</v>
       </c>
       <c r="F82" s="58"/>
       <c r="G82" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="89"/>
+      <c r="H82" s="112"/>
     </row>
     <row r="84" spans="1:11">
       <c r="K84" s="13"/>
@@ -4008,33 +4012,33 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H65:H82"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H48:H57"/>
+    <mergeCell ref="H61:H64"/>
     <mergeCell ref="A65:A82"/>
     <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="A49:A64"/>
-    <mergeCell ref="H65:H82"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="H49:H58"/>
-    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K36:M36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C52" formula="1"/>
+    <ignoredError sqref="C51" formula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4059,13 +4063,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="4" t="s">
@@ -4091,7 +4095,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="100" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4115,7 +4119,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="96"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4139,11 +4143,11 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="96"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="77">
         <f>ROUNDUP((500/C7),0)</f>
         <v>953</v>
       </c>
@@ -4164,11 +4168,11 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="96"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="77">
         <f>31.5/60</f>
         <v>0.52500000000000002</v>
       </c>
@@ -4189,11 +4193,11 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="96"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="77">
         <v>380</v>
       </c>
       <c r="D8" s="11">
@@ -4210,12 +4214,12 @@
       <c r="G8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="59" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="96"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -4239,7 +4243,7 @@
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="96"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -4266,11 +4270,11 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4283,16 +4287,16 @@
       <c r="G11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="H11" s="95" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4305,14 +4309,14 @@
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="114"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4325,14 +4329,14 @@
       <c r="G13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="114"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="61"/>
-      <c r="B14" s="70" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="78">
         <v>0.5</v>
       </c>
       <c r="D14" s="40">
@@ -4345,12 +4349,12 @@
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="73" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="102" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -4374,12 +4378,12 @@
       <c r="G15" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="110" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="98"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="47" t="s">
         <v>74</v>
       </c>
@@ -4401,10 +4405,10 @@
       <c r="G16" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="111"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="98"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="47" t="s">
         <v>75</v>
       </c>
@@ -4426,10 +4430,10 @@
       <c r="G17" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="89"/>
+      <c r="H17" s="112"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="104" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -4455,7 +4459,7 @@
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="28.8">
-      <c r="A19" s="99"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="25" t="s">
         <v>76</v>
       </c>
@@ -4476,12 +4480,12 @@
       <c r="G19" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="76" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="99"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="25" t="s">
         <v>79</v>
       </c>
@@ -4505,7 +4509,7 @@
       <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="99"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="25" t="s">
         <v>80</v>
       </c>
@@ -4529,7 +4533,7 @@
       <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="99"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="25" t="s">
         <v>86</v>
       </c>
@@ -4553,7 +4557,7 @@
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="99"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="25" t="s">
         <v>87</v>
       </c>
@@ -4577,7 +4581,7 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="99"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="25" t="s">
         <v>90</v>
       </c>
@@ -4601,7 +4605,7 @@
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="105" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -4625,7 +4629,7 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="101"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
@@ -4647,7 +4651,7 @@
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="101"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
@@ -4669,7 +4673,7 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="101"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
@@ -4691,7 +4695,7 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="101"/>
+      <c r="A29" s="106"/>
       <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
@@ -4713,7 +4717,7 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="101"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
@@ -4735,7 +4739,7 @@
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="101"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="36" t="s">
         <v>16</v>
       </c>
@@ -4759,7 +4763,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="101"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="36" t="s">
         <v>17</v>
       </c>
@@ -4783,11 +4787,11 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="101"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="71"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4800,16 +4804,16 @@
       <c r="G33" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="90" t="s">
+      <c r="H33" s="113" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="101"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="71"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4822,14 +4826,14 @@
       <c r="G34" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="91"/>
+      <c r="H34" s="114"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="101"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="71"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4842,14 +4846,14 @@
       <c r="G35" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="91"/>
+      <c r="H35" s="114"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="101"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="71"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4862,10 +4866,10 @@
       <c r="G36" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="92"/>
+      <c r="H36" s="115"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="111" t="s">
+      <c r="A37" s="92" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -4889,12 +4893,12 @@
       <c r="G37" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="90" t="s">
+      <c r="H37" s="113" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="112"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="52" t="s">
         <v>27</v>
       </c>
@@ -4916,10 +4920,10 @@
       <c r="G38" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="91"/>
+      <c r="H38" s="114"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="112"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4941,10 +4945,10 @@
       <c r="G39" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H39" s="91"/>
+      <c r="H39" s="114"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="112"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4966,10 +4970,10 @@
       <c r="G40" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="92"/>
+      <c r="H40" s="115"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="113"/>
+      <c r="A41" s="94"/>
       <c r="B41" s="14" t="s">
         <v>165</v>
       </c>
@@ -4993,7 +4997,7 @@
       <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="89" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -5021,7 +5025,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="109"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="17" t="s">
         <v>33</v>
       </c>
@@ -5045,7 +5049,7 @@
       <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="109"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="17" t="s">
         <v>34</v>
       </c>
@@ -5071,7 +5075,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="109"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="17" t="s">
         <v>35</v>
       </c>
@@ -5095,7 +5099,7 @@
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="109"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="17" t="s">
         <v>36</v>
       </c>
@@ -5119,7 +5123,7 @@
       <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="109"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="17" t="s">
         <v>37</v>
       </c>
@@ -5143,7 +5147,7 @@
       <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="110"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="17" t="s">
         <v>151</v>
       </c>
@@ -5167,7 +5171,7 @@
       <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="107" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -5191,12 +5195,12 @@
       <c r="G49" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="H49" s="90" t="s">
+      <c r="H49" s="113" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="103"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="20" t="s">
         <v>171</v>
       </c>
@@ -5218,14 +5222,14 @@
       <c r="G50" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="91"/>
+      <c r="H50" s="114"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="103"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="83">
+      <c r="C51" s="82">
         <f>(9/C56)*0.89</f>
         <v>0.13350000000000001</v>
       </c>
@@ -5243,10 +5247,10 @@
       <c r="G51" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H51" s="91"/>
+      <c r="H51" s="114"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="103"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="20" t="s">
         <v>225</v>
       </c>
@@ -5268,14 +5272,14 @@
       <c r="G52" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="91"/>
+      <c r="H52" s="114"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="103"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C53" s="83">
+      <c r="C53" s="82">
         <f>(9/C58)*0.89</f>
         <v>1.3349999999999999E-2</v>
       </c>
@@ -5293,14 +5297,14 @@
       <c r="G53" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H53" s="91"/>
+      <c r="H53" s="114"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="103"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C54" s="83">
+      <c r="C54" s="82">
         <f>14.7*60</f>
         <v>882</v>
       </c>
@@ -5318,14 +5322,14 @@
       <c r="G54" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H54" s="91"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="103"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="83">
+      <c r="C55" s="82">
         <v>30</v>
       </c>
       <c r="D55" s="21">
@@ -5342,14 +5346,14 @@
       <c r="G55" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H55" s="91"/>
+      <c r="H55" s="114"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="103"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="83">
+      <c r="C56" s="82">
         <v>60</v>
       </c>
       <c r="D56" s="21">
@@ -5366,14 +5370,14 @@
       <c r="G56" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H56" s="91"/>
+      <c r="H56" s="114"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="103"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="83">
+      <c r="C57" s="82">
         <f>60*1.0345</f>
         <v>62.07</v>
       </c>
@@ -5391,14 +5395,14 @@
       <c r="G57" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H57" s="91"/>
+      <c r="H57" s="114"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="103"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="C58" s="83">
+      <c r="C58" s="82">
         <v>600</v>
       </c>
       <c r="D58" s="21">
@@ -5415,10 +5419,10 @@
       <c r="G58" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H58" s="92"/>
+      <c r="H58" s="115"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="103"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="23" t="s">
         <v>163</v>
       </c>
@@ -5444,7 +5448,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="103"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="23" t="s">
         <v>164</v>
       </c>
@@ -5463,12 +5467,12 @@
       <c r="G60" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="H60" s="82" t="s">
+      <c r="H60" s="81" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="103"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="42" t="s">
         <v>41</v>
       </c>
@@ -5490,12 +5494,12 @@
       <c r="G61" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="90" t="s">
+      <c r="H61" s="113" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="103"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="42" t="s">
         <v>42</v>
       </c>
@@ -5517,10 +5521,10 @@
       <c r="G62" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="91"/>
+      <c r="H62" s="114"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="103"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="42" t="s">
         <v>92</v>
       </c>
@@ -5542,11 +5546,11 @@
       <c r="G63" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="91"/>
+      <c r="H63" s="114"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="104"/>
-      <c r="B64" s="73" t="s">
+      <c r="A64" s="109"/>
+      <c r="B64" s="72" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="43">
@@ -5567,263 +5571,263 @@
       <c r="G64" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="92"/>
+      <c r="H64" s="115"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="98" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="72"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="57"/>
       <c r="E65" s="57"/>
       <c r="F65" s="58"/>
       <c r="G65" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="87" t="s">
+      <c r="H65" s="110" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="94"/>
+      <c r="A66" s="99"/>
       <c r="B66" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="72"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="57"/>
       <c r="E66" s="57"/>
       <c r="F66" s="58"/>
       <c r="G66" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H66" s="88"/>
+      <c r="H66" s="111"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="94"/>
+      <c r="A67" s="99"/>
       <c r="B67" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="72"/>
+      <c r="C67" s="71"/>
       <c r="D67" s="57"/>
       <c r="E67" s="57"/>
       <c r="F67" s="58"/>
       <c r="G67" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="88"/>
+      <c r="H67" s="111"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="94"/>
+      <c r="A68" s="99"/>
       <c r="B68" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="71"/>
+      <c r="C68" s="70"/>
       <c r="D68" s="57"/>
       <c r="E68" s="57"/>
       <c r="F68" s="58"/>
       <c r="G68" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="88"/>
+      <c r="H68" s="111"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="94"/>
+      <c r="A69" s="99"/>
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="71"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="57"/>
       <c r="E69" s="57"/>
       <c r="F69" s="58"/>
       <c r="G69" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H69" s="88"/>
+      <c r="H69" s="111"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="94"/>
+      <c r="A70" s="99"/>
       <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="71"/>
+      <c r="C70" s="70"/>
       <c r="D70" s="57"/>
       <c r="E70" s="57"/>
       <c r="F70" s="58"/>
       <c r="G70" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H70" s="88"/>
+      <c r="H70" s="111"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="94"/>
+      <c r="A71" s="99"/>
       <c r="B71" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="71"/>
+      <c r="C71" s="70"/>
       <c r="D71" s="57"/>
       <c r="E71" s="57"/>
       <c r="F71" s="58"/>
       <c r="G71" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="88"/>
+      <c r="H71" s="111"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="94"/>
+      <c r="A72" s="99"/>
       <c r="B72" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="71"/>
+      <c r="C72" s="70"/>
       <c r="D72" s="57"/>
       <c r="E72" s="57"/>
       <c r="F72" s="58"/>
       <c r="G72" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="88"/>
+      <c r="H72" s="111"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="94"/>
+      <c r="A73" s="99"/>
       <c r="B73" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="71"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="57"/>
       <c r="E73" s="57"/>
       <c r="F73" s="58"/>
       <c r="G73" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="88"/>
+      <c r="H73" s="111"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="94"/>
+      <c r="A74" s="99"/>
       <c r="B74" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="71"/>
+      <c r="C74" s="70"/>
       <c r="D74" s="57"/>
       <c r="E74" s="57"/>
       <c r="F74" s="58"/>
       <c r="G74" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="88"/>
+      <c r="H74" s="111"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="94"/>
+      <c r="A75" s="99"/>
       <c r="B75" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="71"/>
+      <c r="C75" s="70"/>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
       <c r="F75" s="58"/>
       <c r="G75" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="88"/>
+      <c r="H75" s="111"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="94"/>
+      <c r="A76" s="99"/>
       <c r="B76" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="71"/>
+      <c r="C76" s="70"/>
       <c r="D76" s="57"/>
       <c r="E76" s="57"/>
       <c r="F76" s="58"/>
       <c r="G76" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H76" s="88"/>
+      <c r="H76" s="111"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="94"/>
+      <c r="A77" s="99"/>
       <c r="B77" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="71"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="57"/>
       <c r="E77" s="57"/>
       <c r="F77" s="58"/>
       <c r="G77" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="88"/>
+      <c r="H77" s="111"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="94"/>
+      <c r="A78" s="99"/>
       <c r="B78" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="72"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="57"/>
       <c r="E78" s="57"/>
       <c r="F78" s="58"/>
       <c r="G78" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="88"/>
+      <c r="H78" s="111"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="94"/>
+      <c r="A79" s="99"/>
       <c r="B79" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="72"/>
+      <c r="C79" s="71"/>
       <c r="D79" s="57"/>
       <c r="E79" s="57"/>
       <c r="F79" s="58"/>
       <c r="G79" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="88"/>
+      <c r="H79" s="111"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="94"/>
+      <c r="A80" s="99"/>
       <c r="B80" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="72"/>
+      <c r="C80" s="71"/>
       <c r="D80" s="57"/>
       <c r="E80" s="57"/>
       <c r="F80" s="58"/>
       <c r="G80" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="88"/>
+      <c r="H80" s="111"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="94"/>
+      <c r="A81" s="99"/>
       <c r="B81" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="72"/>
+      <c r="C81" s="71"/>
       <c r="D81" s="57"/>
       <c r="E81" s="57"/>
       <c r="F81" s="58"/>
       <c r="G81" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H81" s="88"/>
+      <c r="H81" s="111"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="94"/>
+      <c r="A82" s="99"/>
       <c r="B82" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="72"/>
+      <c r="C82" s="71"/>
       <c r="D82" s="57"/>
       <c r="E82" s="57"/>
       <c r="F82" s="58"/>
       <c r="G82" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="89"/>
+      <c r="H82" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5854,6 +5858,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D2CC3865CED4124A9830BAAA78333A39" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="74fbc97153726fbf9f4b2acfe0ba4f2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="47151ffa-27c1-491d-bdc5-fff6d8a44614" xmlns:ns4="2a729546-cf4e-435c-aabc-21366d2421e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef40a5df47e7cf58b55af26490b848e0" ns3:_="" ns4:_="">
     <xsd:import namespace="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
@@ -6076,12 +6086,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6092,6 +6096,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145C285F-2FF3-4D38-95ED-9BA60F4E3C89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3D48284-4FE0-49DC-82DA-D80B72208958}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6110,23 +6131,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145C285F-2FF3-4D38-95ED-9BA60F4E3C89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9031FEDD-5FF8-4C9C-AF51-AEFA4BF396D5}">
   <ds:schemaRefs>

--- a/Data/Iris_inputs.xlsx
+++ b/Data/Iris_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giparoli\Documents\Projetos\AEco\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F4338-861B-43AA-89E3-143E21D9233F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A9FA7-8409-4886-B723-02AD0D8D4DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1375,6 +1375,61 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1411,64 +1466,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1811,8 +1811,8 @@
   <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1830,14 +1830,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="33"/>
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="95" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1895,7 +1895,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="101"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="101"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="101"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="101"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
@@ -1997,7 +1997,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="101"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="101"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="G11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="114" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="95"/>
+      <c r="H12" s="114"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="29"/>
@@ -2104,10 +2104,10 @@
       <c r="G13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="95"/>
+      <c r="H13" s="114"/>
     </row>
     <row r="14" spans="1:9" s="35" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="97" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -2131,13 +2131,13 @@
       <c r="G14" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="110" t="s">
+      <c r="H14" s="87" t="s">
         <v>180</v>
       </c>
       <c r="I14" s="74"/>
     </row>
     <row r="15" spans="1:9" s="35" customFormat="1">
-      <c r="A15" s="103"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="47" t="s">
         <v>74</v>
       </c>
@@ -2159,11 +2159,11 @@
       <c r="G15" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="111"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="75"/>
     </row>
     <row r="16" spans="1:9" s="35" customFormat="1">
-      <c r="A16" s="103"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="47" t="s">
         <v>75</v>
       </c>
@@ -2185,11 +2185,11 @@
       <c r="G16" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="112"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="99" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -2215,7 +2215,7 @@
       <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:13" ht="28.8">
-      <c r="A18" s="104"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="25" t="s">
         <v>76</v>
       </c>
@@ -2241,7 +2241,7 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="104"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="25" t="s">
         <v>79</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="104"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="25" t="s">
         <v>80</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="104"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="25" t="s">
         <v>86</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="104"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="25" t="s">
         <v>87</v>
       </c>
@@ -2334,7 +2334,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="104"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="25" t="s">
         <v>90</v>
       </c>
@@ -2358,22 +2358,22 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="100" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="12">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
-        <v>50.400000000000006</v>
+        <v>0.504</v>
       </c>
       <c r="E24" s="12">
         <f t="shared" si="1"/>
-        <v>75.599999999999994</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -2382,20 +2382,20 @@
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A25" s="106"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="12">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
-        <v>24.8</v>
+        <v>0.248</v>
       </c>
       <c r="E25" s="12">
         <f t="shared" si="1"/>
-        <v>37.199999999999996</v>
+        <v>0.372</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -2404,7 +2404,7 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="106"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="9" t="s">
         <v>13</v>
       </c>
@@ -2424,20 +2424,20 @@
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="106"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="12">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E27" s="12">
         <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
@@ -2446,7 +2446,7 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="106"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="9" t="s">
         <v>14</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="106"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="9" t="s">
         <v>15</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="106"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="36" t="s">
         <v>16</v>
       </c>
@@ -2510,7 +2510,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="106"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="36" t="s">
         <v>17</v>
       </c>
@@ -2534,7 +2534,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="106"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="36" t="s">
         <v>18</v>
       </c>
@@ -2551,17 +2551,17 @@
       <c r="G32" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="H32" s="113" t="s">
+      <c r="H32" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="K32" s="86" t="s">
+      <c r="K32" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="106"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="36" t="s">
         <v>22</v>
       </c>
@@ -2580,15 +2580,15 @@
       <c r="G33" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="114"/>
-      <c r="K33" s="96" t="s">
+      <c r="H33" s="91"/>
+      <c r="K33" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="106"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="36" t="s">
         <v>19</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="G34" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="114"/>
+      <c r="H34" s="91"/>
       <c r="K34" s="50" t="s">
         <v>191</v>
       </c>
@@ -2617,7 +2617,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="106"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="36" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="G35" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="115"/>
+      <c r="H35" s="92"/>
       <c r="K35" s="50">
         <v>0.33</v>
       </c>
@@ -2647,7 +2647,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="111" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="52" t="s">
@@ -2671,18 +2671,18 @@
       <c r="G36" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="113" t="s">
+      <c r="H36" s="90" t="s">
         <v>182</v>
       </c>
       <c r="I36" s="75"/>
-      <c r="K36" s="96" t="s">
+      <c r="K36" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="93"/>
+      <c r="A37" s="112"/>
       <c r="B37" s="52" t="s">
         <v>27</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="G37" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="114"/>
+      <c r="H37" s="91"/>
       <c r="I37" s="75"/>
       <c r="K37" s="50" t="s">
         <v>191</v>
@@ -2717,7 +2717,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="93"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="52" t="s">
         <v>28</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="G38" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="114"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="75"/>
       <c r="K38" s="65">
         <v>0.33</v>
@@ -2747,13 +2747,13 @@
       <c r="L38" s="50">
         <v>1500</v>
       </c>
-      <c r="M38" s="97">
+      <c r="M38" s="116">
         <f>L38*K38+K39*L39+K40*L40</f>
         <v>2805</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="93"/>
+      <c r="A39" s="112"/>
       <c r="B39" s="52" t="s">
         <v>29</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="G39" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="115"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="75"/>
       <c r="K39" s="65">
         <v>0.33</v>
@@ -2783,10 +2783,10 @@
       <c r="L39" s="50">
         <v>6500</v>
       </c>
-      <c r="M39" s="97"/>
+      <c r="M39" s="116"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="94"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="14" t="s">
         <v>165</v>
       </c>
@@ -2812,10 +2812,10 @@
       <c r="L40" s="50">
         <v>500</v>
       </c>
-      <c r="M40" s="97"/>
+      <c r="M40" s="116"/>
     </row>
     <row r="41" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="108" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -2843,7 +2843,7 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="90"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="17" t="s">
         <v>33</v>
       </c>
@@ -2863,13 +2863,13 @@
         <v>123</v>
       </c>
       <c r="H42" s="50"/>
-      <c r="K42" s="96" t="s">
+      <c r="K42" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="L42" s="96"/>
+      <c r="L42" s="115"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="90"/>
+      <c r="A43" s="109"/>
       <c r="B43" s="17" t="s">
         <v>34</v>
       </c>
@@ -2905,7 +2905,7 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="90"/>
+      <c r="A44" s="109"/>
       <c r="B44" s="17" t="s">
         <v>35</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="90"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="17" t="s">
         <v>36</v>
       </c>
@@ -2973,7 +2973,7 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="90"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="17" t="s">
         <v>37</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="91"/>
+      <c r="A47" s="110"/>
       <c r="B47" s="17" t="s">
         <v>151</v>
       </c>
@@ -3019,15 +3019,15 @@
         <v>162</v>
       </c>
       <c r="H47" s="50"/>
-      <c r="K47" s="96" t="s">
+      <c r="K47" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
+      <c r="L47" s="115"/>
+      <c r="M47" s="115"/>
+      <c r="N47" s="115"/>
     </row>
     <row r="48" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="102" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -3051,7 +3051,7 @@
       <c r="G48" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="H48" s="113" t="s">
+      <c r="H48" s="90" t="s">
         <v>183</v>
       </c>
       <c r="I48" s="79"/>
@@ -3063,7 +3063,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="108"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="20" t="s">
         <v>171</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="G49" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H49" s="114"/>
+      <c r="H49" s="91"/>
       <c r="I49" s="79"/>
       <c r="K49" s="61" t="s">
         <v>189</v>
@@ -3101,7 +3101,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="108"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="20" t="s">
         <v>173</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="G50" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H50" s="114"/>
+      <c r="H50" s="91"/>
       <c r="I50" s="79"/>
       <c r="K50" s="50" t="s">
         <v>188</v>
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="108"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="20" t="s">
         <v>225</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="G51" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H51" s="114"/>
+      <c r="H51" s="91"/>
       <c r="I51" s="79"/>
       <c r="K51" s="50"/>
       <c r="L51" s="65"/>
@@ -3171,7 +3171,7 @@
       <c r="N51" s="62"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="108"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="20" t="s">
         <v>224</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="G52" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H52" s="114"/>
+      <c r="H52" s="91"/>
       <c r="I52" s="79"/>
       <c r="K52" s="50" t="s">
         <v>187</v>
@@ -3211,7 +3211,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="108"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="20" t="s">
         <v>229</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="G53" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H53" s="114"/>
+      <c r="H53" s="91"/>
       <c r="I53" s="79"/>
       <c r="K53" s="50" t="s">
         <v>200</v>
@@ -3251,7 +3251,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="108"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="20" t="s">
         <v>170</v>
       </c>
@@ -3272,11 +3272,11 @@
       <c r="G54" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H54" s="114"/>
+      <c r="H54" s="91"/>
       <c r="I54" s="79"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="108"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="20" t="s">
         <v>174</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="G55" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H55" s="114"/>
+      <c r="H55" s="91"/>
       <c r="I55" s="79"/>
       <c r="K55" s="50" t="s">
         <v>204</v>
@@ -3310,7 +3310,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="108"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="23" t="s">
         <v>220</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="G56" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H56" s="114"/>
+      <c r="H56" s="91"/>
       <c r="I56" s="79"/>
       <c r="K56" s="50" t="s">
         <v>207</v>
@@ -3345,7 +3345,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="108"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="23" t="s">
         <v>221</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="G57" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H57" s="115"/>
+      <c r="H57" s="92"/>
       <c r="I57" s="79"/>
       <c r="K57" s="68" t="s">
         <v>194</v>
@@ -3379,7 +3379,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="108"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="23" t="s">
         <v>163</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="108"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="23" t="s">
         <v>164</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="108"/>
+      <c r="A60" s="103"/>
       <c r="B60" s="23" t="s">
         <v>241</v>
       </c>
@@ -3457,10 +3457,10 @@
       <c r="G60" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H60" s="117"/>
+      <c r="H60" s="86"/>
     </row>
     <row r="61" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A61" s="108"/>
+      <c r="A61" s="103"/>
       <c r="B61" s="42" t="s">
         <v>41</v>
       </c>
@@ -3482,7 +3482,7 @@
       <c r="G61" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="113" t="s">
+      <c r="H61" s="90" t="s">
         <v>185</v>
       </c>
       <c r="I61" t="s">
@@ -3497,7 +3497,7 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="108"/>
+      <c r="A62" s="103"/>
       <c r="B62" s="42" t="s">
         <v>42</v>
       </c>
@@ -3519,7 +3519,7 @@
       <c r="G62" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="114"/>
+      <c r="H62" s="91"/>
       <c r="K62" s="50" t="s">
         <v>202</v>
       </c>
@@ -3529,7 +3529,7 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="108"/>
+      <c r="A63" s="103"/>
       <c r="B63" s="42" t="s">
         <v>92</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="G63" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="114"/>
+      <c r="H63" s="91"/>
       <c r="K63" s="50" t="s">
         <v>203</v>
       </c>
@@ -3561,7 +3561,7 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="109"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="72" t="s">
         <v>93</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="G64" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="115"/>
+      <c r="H64" s="92"/>
       <c r="K64" s="61" t="s">
         <v>208</v>
       </c>
@@ -3593,7 +3593,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="93" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="56" t="s">
@@ -3612,12 +3612,12 @@
       <c r="G65" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="110" t="s">
+      <c r="H65" s="87" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="99"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="56" t="s">
         <v>59</v>
       </c>
@@ -3634,10 +3634,10 @@
       <c r="G66" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H66" s="111"/>
+      <c r="H66" s="88"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="99"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="56" t="s">
         <v>51</v>
       </c>
@@ -3654,10 +3654,10 @@
       <c r="G67" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="111"/>
+      <c r="H67" s="88"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="99"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="56" t="s">
         <v>52</v>
       </c>
@@ -3674,10 +3674,10 @@
       <c r="G68" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="111"/>
+      <c r="H68" s="88"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="99"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
@@ -3694,10 +3694,10 @@
       <c r="G69" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H69" s="111"/>
+      <c r="H69" s="88"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="99"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
@@ -3714,10 +3714,10 @@
       <c r="G70" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H70" s="111"/>
+      <c r="H70" s="88"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="99"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="56" t="s">
         <v>54</v>
       </c>
@@ -3734,11 +3734,11 @@
       <c r="G71" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="111"/>
+      <c r="H71" s="88"/>
       <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="99"/>
+      <c r="A72" s="94"/>
       <c r="B72" s="56" t="s">
         <v>60</v>
       </c>
@@ -3755,11 +3755,11 @@
       <c r="G72" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="111"/>
+      <c r="H72" s="88"/>
       <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="99"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="56" t="s">
         <v>55</v>
       </c>
@@ -3776,11 +3776,11 @@
       <c r="G73" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="111"/>
+      <c r="H73" s="88"/>
       <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="99"/>
+      <c r="A74" s="94"/>
       <c r="B74" s="56" t="s">
         <v>56</v>
       </c>
@@ -3797,11 +3797,11 @@
       <c r="G74" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="111"/>
+      <c r="H74" s="88"/>
       <c r="K74" s="13"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="99"/>
+      <c r="A75" s="94"/>
       <c r="B75" s="56" t="s">
         <v>57</v>
       </c>
@@ -3818,11 +3818,11 @@
       <c r="G75" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="111"/>
+      <c r="H75" s="88"/>
       <c r="K75" s="13"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="99"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="56" t="s">
         <v>96</v>
       </c>
@@ -3839,11 +3839,11 @@
       <c r="G76" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H76" s="111"/>
+      <c r="H76" s="88"/>
       <c r="K76" s="13"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="99"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="56" t="s">
         <v>58</v>
       </c>
@@ -3860,10 +3860,10 @@
       <c r="G77" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="111"/>
+      <c r="H77" s="88"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="99"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="56" t="s">
         <v>61</v>
       </c>
@@ -3880,10 +3880,10 @@
       <c r="G78" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="111"/>
+      <c r="H78" s="88"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="99"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="56" t="s">
         <v>62</v>
       </c>
@@ -3900,10 +3900,10 @@
       <c r="G79" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="111"/>
+      <c r="H79" s="88"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="99"/>
+      <c r="A80" s="94"/>
       <c r="B80" s="56" t="s">
         <v>63</v>
       </c>
@@ -3920,10 +3920,10 @@
       <c r="G80" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="111"/>
+      <c r="H80" s="88"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="99"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="56" t="s">
         <v>64</v>
       </c>
@@ -3940,10 +3940,10 @@
       <c r="G81" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H81" s="111"/>
+      <c r="H81" s="88"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="99"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="56" t="s">
         <v>95</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="G82" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="112"/>
+      <c r="H82" s="89"/>
     </row>
     <row r="84" spans="1:11">
       <c r="K84" s="13"/>
@@ -4012,18 +4012,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H65:H82"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H48:H57"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="A65:A82"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="A48:A64"/>
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A41:A47"/>
@@ -4034,6 +4022,18 @@
     <mergeCell ref="M38:M40"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="K36:M36"/>
+    <mergeCell ref="A65:A82"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="H65:H82"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H48:H57"/>
+    <mergeCell ref="H61:H64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4063,13 +4063,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="4" t="s">
@@ -4095,7 +4095,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="95" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4119,7 +4119,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="101"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="101"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="101"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="101"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
@@ -4219,7 +4219,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="101"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="101"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -4287,7 +4287,7 @@
       <c r="G11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="114" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="95"/>
+      <c r="H12" s="114"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="60"/>
@@ -4329,7 +4329,7 @@
       <c r="G13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="95"/>
+      <c r="H13" s="114"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="60"/>
@@ -4354,7 +4354,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="97" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -4378,12 +4378,12 @@
       <c r="G15" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="110" t="s">
+      <c r="H15" s="87" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="103"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="47" t="s">
         <v>74</v>
       </c>
@@ -4405,10 +4405,10 @@
       <c r="G16" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="111"/>
+      <c r="H16" s="88"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="103"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="47" t="s">
         <v>75</v>
       </c>
@@ -4430,10 +4430,10 @@
       <c r="G17" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="112"/>
+      <c r="H17" s="89"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="99" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -4459,7 +4459,7 @@
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="28.8">
-      <c r="A19" s="104"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="25" t="s">
         <v>76</v>
       </c>
@@ -4485,7 +4485,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="104"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="25" t="s">
         <v>79</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="104"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="25" t="s">
         <v>80</v>
       </c>
@@ -4533,7 +4533,7 @@
       <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="104"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="25" t="s">
         <v>86</v>
       </c>
@@ -4557,7 +4557,7 @@
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="104"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="25" t="s">
         <v>87</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="104"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="25" t="s">
         <v>90</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="100" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -4629,7 +4629,7 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="106"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="106"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="106"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="106"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="106"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="106"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="36" t="s">
         <v>16</v>
       </c>
@@ -4763,7 +4763,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="106"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="36" t="s">
         <v>17</v>
       </c>
@@ -4787,7 +4787,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="106"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="36" t="s">
         <v>18</v>
       </c>
@@ -4804,12 +4804,12 @@
       <c r="G33" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="113" t="s">
+      <c r="H33" s="90" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="106"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="36" t="s">
         <v>22</v>
       </c>
@@ -4826,10 +4826,10 @@
       <c r="G34" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="114"/>
+      <c r="H34" s="91"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="106"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="36" t="s">
         <v>19</v>
       </c>
@@ -4846,10 +4846,10 @@
       <c r="G35" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="114"/>
+      <c r="H35" s="91"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="106"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="36" t="s">
         <v>20</v>
       </c>
@@ -4866,10 +4866,10 @@
       <c r="G36" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="115"/>
+      <c r="H36" s="92"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="111" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -4893,12 +4893,12 @@
       <c r="G37" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="113" t="s">
+      <c r="H37" s="90" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="93"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="52" t="s">
         <v>27</v>
       </c>
@@ -4920,10 +4920,10 @@
       <c r="G38" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="114"/>
+      <c r="H38" s="91"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="93"/>
+      <c r="A39" s="112"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4945,10 +4945,10 @@
       <c r="G39" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H39" s="114"/>
+      <c r="H39" s="91"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="93"/>
+      <c r="A40" s="112"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4970,10 +4970,10 @@
       <c r="G40" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="115"/>
+      <c r="H40" s="92"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="94"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="14" t="s">
         <v>165</v>
       </c>
@@ -4997,7 +4997,7 @@
       <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="108" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -5025,7 +5025,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="90"/>
+      <c r="A43" s="109"/>
       <c r="B43" s="17" t="s">
         <v>33</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="90"/>
+      <c r="A44" s="109"/>
       <c r="B44" s="17" t="s">
         <v>34</v>
       </c>
@@ -5075,7 +5075,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="90"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="17" t="s">
         <v>35</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="90"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="17" t="s">
         <v>36</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="90"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="17" t="s">
         <v>37</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="91"/>
+      <c r="A48" s="110"/>
       <c r="B48" s="17" t="s">
         <v>151</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="102" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -5195,12 +5195,12 @@
       <c r="G49" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="H49" s="113" t="s">
+      <c r="H49" s="90" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="108"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="20" t="s">
         <v>171</v>
       </c>
@@ -5222,10 +5222,10 @@
       <c r="G50" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="114"/>
+      <c r="H50" s="91"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="108"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="20" t="s">
         <v>173</v>
       </c>
@@ -5247,10 +5247,10 @@
       <c r="G51" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H51" s="114"/>
+      <c r="H51" s="91"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="108"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="20" t="s">
         <v>225</v>
       </c>
@@ -5272,10 +5272,10 @@
       <c r="G52" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="114"/>
+      <c r="H52" s="91"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="108"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="20" t="s">
         <v>224</v>
       </c>
@@ -5297,10 +5297,10 @@
       <c r="G53" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H53" s="114"/>
+      <c r="H53" s="91"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="108"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="20" t="s">
         <v>229</v>
       </c>
@@ -5322,10 +5322,10 @@
       <c r="G54" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H54" s="114"/>
+      <c r="H54" s="91"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="108"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="20" t="s">
         <v>170</v>
       </c>
@@ -5346,10 +5346,10 @@
       <c r="G55" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H55" s="114"/>
+      <c r="H55" s="91"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="108"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="20" t="s">
         <v>174</v>
       </c>
@@ -5370,10 +5370,10 @@
       <c r="G56" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H56" s="114"/>
+      <c r="H56" s="91"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="108"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="23" t="s">
         <v>220</v>
       </c>
@@ -5395,10 +5395,10 @@
       <c r="G57" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H57" s="114"/>
+      <c r="H57" s="91"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="108"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="23" t="s">
         <v>221</v>
       </c>
@@ -5419,10 +5419,10 @@
       <c r="G58" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H58" s="115"/>
+      <c r="H58" s="92"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="108"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="23" t="s">
         <v>163</v>
       </c>
@@ -5448,7 +5448,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="108"/>
+      <c r="A60" s="103"/>
       <c r="B60" s="23" t="s">
         <v>164</v>
       </c>
@@ -5472,7 +5472,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="108"/>
+      <c r="A61" s="103"/>
       <c r="B61" s="42" t="s">
         <v>41</v>
       </c>
@@ -5494,12 +5494,12 @@
       <c r="G61" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="113" t="s">
+      <c r="H61" s="90" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="108"/>
+      <c r="A62" s="103"/>
       <c r="B62" s="42" t="s">
         <v>42</v>
       </c>
@@ -5521,10 +5521,10 @@
       <c r="G62" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="114"/>
+      <c r="H62" s="91"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="108"/>
+      <c r="A63" s="103"/>
       <c r="B63" s="42" t="s">
         <v>92</v>
       </c>
@@ -5546,10 +5546,10 @@
       <c r="G63" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="114"/>
+      <c r="H63" s="91"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="109"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="72" t="s">
         <v>93</v>
       </c>
@@ -5571,10 +5571,10 @@
       <c r="G64" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="115"/>
+      <c r="H64" s="92"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="93" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="56" t="s">
@@ -5587,12 +5587,12 @@
       <c r="G65" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="110" t="s">
+      <c r="H65" s="87" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="99"/>
+      <c r="A66" s="94"/>
       <c r="B66" s="56" t="s">
         <v>59</v>
       </c>
@@ -5603,10 +5603,10 @@
       <c r="G66" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H66" s="111"/>
+      <c r="H66" s="88"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="99"/>
+      <c r="A67" s="94"/>
       <c r="B67" s="56" t="s">
         <v>51</v>
       </c>
@@ -5617,10 +5617,10 @@
       <c r="G67" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="111"/>
+      <c r="H67" s="88"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="99"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="56" t="s">
         <v>52</v>
       </c>
@@ -5631,10 +5631,10 @@
       <c r="G68" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="111"/>
+      <c r="H68" s="88"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="99"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
@@ -5645,10 +5645,10 @@
       <c r="G69" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H69" s="111"/>
+      <c r="H69" s="88"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="99"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
@@ -5659,10 +5659,10 @@
       <c r="G70" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H70" s="111"/>
+      <c r="H70" s="88"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="99"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="56" t="s">
         <v>54</v>
       </c>
@@ -5673,10 +5673,10 @@
       <c r="G71" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="111"/>
+      <c r="H71" s="88"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="99"/>
+      <c r="A72" s="94"/>
       <c r="B72" s="56" t="s">
         <v>60</v>
       </c>
@@ -5687,10 +5687,10 @@
       <c r="G72" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="111"/>
+      <c r="H72" s="88"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="99"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="56" t="s">
         <v>55</v>
       </c>
@@ -5701,10 +5701,10 @@
       <c r="G73" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="111"/>
+      <c r="H73" s="88"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="99"/>
+      <c r="A74" s="94"/>
       <c r="B74" s="56" t="s">
         <v>56</v>
       </c>
@@ -5715,10 +5715,10 @@
       <c r="G74" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="111"/>
+      <c r="H74" s="88"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="99"/>
+      <c r="A75" s="94"/>
       <c r="B75" s="56" t="s">
         <v>57</v>
       </c>
@@ -5729,10 +5729,10 @@
       <c r="G75" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="111"/>
+      <c r="H75" s="88"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="99"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="56" t="s">
         <v>96</v>
       </c>
@@ -5743,10 +5743,10 @@
       <c r="G76" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H76" s="111"/>
+      <c r="H76" s="88"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="99"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="56" t="s">
         <v>58</v>
       </c>
@@ -5757,10 +5757,10 @@
       <c r="G77" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="111"/>
+      <c r="H77" s="88"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="99"/>
+      <c r="A78" s="94"/>
       <c r="B78" s="56" t="s">
         <v>61</v>
       </c>
@@ -5771,10 +5771,10 @@
       <c r="G78" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="111"/>
+      <c r="H78" s="88"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="99"/>
+      <c r="A79" s="94"/>
       <c r="B79" s="56" t="s">
         <v>62</v>
       </c>
@@ -5785,10 +5785,10 @@
       <c r="G79" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="111"/>
+      <c r="H79" s="88"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="99"/>
+      <c r="A80" s="94"/>
       <c r="B80" s="56" t="s">
         <v>63</v>
       </c>
@@ -5799,10 +5799,10 @@
       <c r="G80" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="111"/>
+      <c r="H80" s="88"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="99"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="56" t="s">
         <v>64</v>
       </c>
@@ -5813,10 +5813,10 @@
       <c r="G81" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H81" s="111"/>
+      <c r="H81" s="88"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="99"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="56" t="s">
         <v>95</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="G82" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="112"/>
+      <c r="H82" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5858,12 +5858,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D2CC3865CED4124A9830BAAA78333A39" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="74fbc97153726fbf9f4b2acfe0ba4f2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="47151ffa-27c1-491d-bdc5-fff6d8a44614" xmlns:ns4="2a729546-cf4e-435c-aabc-21366d2421e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef40a5df47e7cf58b55af26490b848e0" ns3:_="" ns4:_="">
     <xsd:import namespace="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
@@ -6086,6 +6080,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6096,23 +6096,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145C285F-2FF3-4D38-95ED-9BA60F4E3C89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3D48284-4FE0-49DC-82DA-D80B72208958}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6131,6 +6114,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145C285F-2FF3-4D38-95ED-9BA60F4E3C89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9031FEDD-5FF8-4C9C-AF51-AEFA4BF396D5}">
   <ds:schemaRefs>

--- a/Data/Iris_inputs.xlsx
+++ b/Data/Iris_inputs.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giparoli\Documents\Projetos\AEco\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7A9FA7-8409-4886-B723-02AD0D8D4DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC637004-49A0-42F1-BDAA-463AF2ED7900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="0" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iris" sheetId="2" r:id="rId1"/>
-    <sheet name="Midllife update" sheetId="3" r:id="rId2"/>
+    <sheet name="Midlife update" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="243">
   <si>
     <t>nominal</t>
   </si>
@@ -1182,7 +1182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1375,7 +1375,78 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1393,78 +1464,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1808,11 +1807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A343C1D2-27D8-41D6-8DB5-6D491E89BAF3}">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1822,24 +1821,23 @@
     <col min="3" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="106" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -1847,7 +1845,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1866,12 +1864,9 @@
       <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A4" s="95" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1">
+      <c r="A4" s="100" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1892,10 +1887,9 @@
       <c r="G4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="96"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="101"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1916,10 +1910,9 @@
       <c r="G5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="50"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="96"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="101"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -1941,11 +1934,10 @@
       <c r="G6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="80"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="96"/>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="101"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
@@ -1967,11 +1959,10 @@
       <c r="G7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="80"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="96"/>
+      <c r="H7" s="80"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="101"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
@@ -1992,12 +1983,9 @@
       <c r="G8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="59" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="96"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="101"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -2018,10 +2006,9 @@
       <c r="G9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="55"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="96"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="101"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -2042,9 +2029,8 @@
       <c r="G10" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="55"/>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="29"/>
       <c r="B11" s="39" t="s">
         <v>24</v>
@@ -2062,11 +2048,8 @@
       <c r="G11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="114" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="29"/>
       <c r="B12" s="39" t="s">
         <v>25</v>
@@ -2084,9 +2067,8 @@
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="114"/>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="29"/>
       <c r="B13" s="39" t="s">
         <v>26</v>
@@ -2104,10 +2086,9 @@
       <c r="G13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="114"/>
-    </row>
-    <row r="14" spans="1:9" s="35" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A14" s="97" t="s">
+    </row>
+    <row r="14" spans="1:8" s="35" customFormat="1" ht="14.7" customHeight="1">
+      <c r="A14" s="102" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -2131,13 +2112,10 @@
       <c r="G14" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="I14" s="74"/>
-    </row>
-    <row r="15" spans="1:9" s="35" customFormat="1">
-      <c r="A15" s="98"/>
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="1:8" s="35" customFormat="1">
+      <c r="A15" s="103"/>
       <c r="B15" s="47" t="s">
         <v>74</v>
       </c>
@@ -2159,11 +2137,10 @@
       <c r="G15" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="75"/>
-    </row>
-    <row r="16" spans="1:9" s="35" customFormat="1">
-      <c r="A16" s="98"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" s="35" customFormat="1">
+      <c r="A16" s="103"/>
       <c r="B16" s="47" t="s">
         <v>75</v>
       </c>
@@ -2185,11 +2162,10 @@
       <c r="G16" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="75"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="99" t="s">
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="104" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -2212,10 +2188,9 @@
       <c r="G17" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="50"/>
-    </row>
-    <row r="18" spans="1:13" ht="28.8">
-      <c r="A18" s="99"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="104"/>
       <c r="B18" s="25" t="s">
         <v>76</v>
       </c>
@@ -2236,12 +2211,9 @@
       <c r="G18" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="99"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="104"/>
       <c r="B19" s="25" t="s">
         <v>79</v>
       </c>
@@ -2262,10 +2234,9 @@
       <c r="G19" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="99"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="104"/>
       <c r="B20" s="25" t="s">
         <v>80</v>
       </c>
@@ -2286,10 +2257,9 @@
       <c r="G20" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="99"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="104"/>
       <c r="B21" s="25" t="s">
         <v>86</v>
       </c>
@@ -2310,10 +2280,9 @@
       <c r="G21" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="99"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="104"/>
       <c r="B22" s="25" t="s">
         <v>87</v>
       </c>
@@ -2333,8 +2302,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="99"/>
+    <row r="23" spans="1:12">
+      <c r="A23" s="104"/>
       <c r="B23" s="25" t="s">
         <v>90</v>
       </c>
@@ -2355,10 +2324,9 @@
       <c r="G23" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A24" s="100" t="s">
+    </row>
+    <row r="24" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A24" s="105" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -2379,10 +2347,9 @@
       <c r="G24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="50"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A25" s="101"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" customHeight="1">
+      <c r="A25" s="106"/>
       <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
@@ -2401,10 +2368,9 @@
       <c r="G25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="50"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="101"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="106"/>
       <c r="B26" s="9" t="s">
         <v>13</v>
       </c>
@@ -2421,10 +2387,9 @@
       <c r="G26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="101"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="106"/>
       <c r="B27" s="9" t="s">
         <v>21</v>
       </c>
@@ -2443,10 +2408,9 @@
       <c r="G27" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="50"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="101"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="106"/>
       <c r="B28" s="9" t="s">
         <v>14</v>
       </c>
@@ -2463,10 +2427,9 @@
       <c r="G28" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="101"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="106"/>
       <c r="B29" s="9" t="s">
         <v>15</v>
       </c>
@@ -2483,10 +2446,9 @@
       <c r="G29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="101"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="106"/>
       <c r="B30" s="36" t="s">
         <v>16</v>
       </c>
@@ -2505,12 +2467,9 @@
       <c r="G30" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="101"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="106"/>
       <c r="B31" s="36" t="s">
         <v>17</v>
       </c>
@@ -2529,12 +2488,9 @@
       <c r="G31" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="51" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="101"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="106"/>
       <c r="B32" s="36" t="s">
         <v>18</v>
       </c>
@@ -2551,17 +2507,14 @@
       <c r="G32" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="H32" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="K32" s="105" t="s">
+      <c r="J32" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="101"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="106"/>
       <c r="B33" s="36" t="s">
         <v>22</v>
       </c>
@@ -2580,15 +2533,14 @@
       <c r="G33" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="91"/>
-      <c r="K33" s="115" t="s">
+      <c r="J33" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="101"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="106"/>
       <c r="B34" s="36" t="s">
         <v>19</v>
       </c>
@@ -2605,19 +2557,18 @@
       <c r="G34" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="91"/>
+      <c r="J34" s="50" t="s">
+        <v>191</v>
+      </c>
       <c r="K34" s="50" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L34" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="M34" s="50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="101"/>
+    <row r="35" spans="1:13">
+      <c r="A35" s="106"/>
       <c r="B35" s="36" t="s">
         <v>20</v>
       </c>
@@ -2634,20 +2585,19 @@
       <c r="G35" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="92"/>
+      <c r="J35" s="50">
+        <v>0.33</v>
+      </c>
       <c r="K35" s="50">
-        <v>0.33</v>
+        <v>8000</v>
       </c>
       <c r="L35" s="50">
-        <v>8000</v>
-      </c>
-      <c r="M35" s="50">
-        <f>L35*K35</f>
+        <f>K35*J35</f>
         <v>2640</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A36" s="111" t="s">
+    <row r="36" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A36" s="92" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="52" t="s">
@@ -2671,18 +2621,15 @@
       <c r="G36" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="90" t="s">
-        <v>182</v>
-      </c>
-      <c r="I36" s="75"/>
-      <c r="K36" s="115" t="s">
+      <c r="H36" s="75"/>
+      <c r="J36" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="112"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>27</v>
       </c>
@@ -2704,20 +2651,19 @@
       <c r="G37" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="91"/>
-      <c r="I37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="J37" s="50" t="s">
+        <v>191</v>
+      </c>
       <c r="K37" s="50" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L37" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="M37" s="50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="112"/>
+    <row r="38" spans="1:13">
+      <c r="A38" s="93"/>
       <c r="B38" s="52" t="s">
         <v>28</v>
       </c>
@@ -2739,21 +2685,20 @@
       <c r="G38" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="91"/>
-      <c r="I38" s="75"/>
-      <c r="K38" s="65">
+      <c r="H38" s="75"/>
+      <c r="J38" s="65">
         <v>0.33</v>
       </c>
-      <c r="L38" s="50">
+      <c r="K38" s="50">
         <v>1500</v>
       </c>
-      <c r="M38" s="116">
-        <f>L38*K38+K39*L39+K40*L40</f>
+      <c r="L38" s="97">
+        <f>K38*J38+J39*K39+J40*K40</f>
         <v>2805</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="112"/>
+    <row r="39" spans="1:13">
+      <c r="A39" s="93"/>
       <c r="B39" s="52" t="s">
         <v>29</v>
       </c>
@@ -2775,18 +2720,17 @@
       <c r="G39" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="92"/>
-      <c r="I39" s="75"/>
-      <c r="K39" s="65">
+      <c r="H39" s="75"/>
+      <c r="J39" s="65">
         <v>0.33</v>
       </c>
-      <c r="L39" s="50">
+      <c r="K39" s="50">
         <v>6500</v>
       </c>
-      <c r="M39" s="116"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="113"/>
+      <c r="L39" s="97"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="94"/>
       <c r="B40" s="14" t="s">
         <v>165</v>
       </c>
@@ -2805,17 +2749,16 @@
       <c r="G40" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="H40" s="50"/>
-      <c r="K40" s="65">
+      <c r="J40" s="65">
         <v>0.33</v>
       </c>
-      <c r="L40" s="50">
+      <c r="K40" s="50">
         <v>500</v>
       </c>
-      <c r="M40" s="116"/>
-    </row>
-    <row r="41" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A41" s="108" t="s">
+      <c r="L40" s="97"/>
+    </row>
+    <row r="41" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A41" s="89" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -2838,12 +2781,9 @@
       <c r="G41" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="109"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="90"/>
       <c r="B42" s="17" t="s">
         <v>33</v>
       </c>
@@ -2862,14 +2802,13 @@
       <c r="G42" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="H42" s="50"/>
-      <c r="K42" s="115" t="s">
+      <c r="J42" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="L42" s="115"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="109"/>
+      <c r="K42" s="96"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="90"/>
       <c r="B43" s="17" t="s">
         <v>34</v>
       </c>
@@ -2890,22 +2829,19 @@
       <c r="G43" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H43" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="K43" s="50" t="s">
+      <c r="J43" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="L43" s="50">
+      <c r="K43" s="50">
         <v>116</v>
       </c>
-      <c r="M43" s="65">
-        <f>L43/SUM($L$43:$L$45)</f>
+      <c r="L43" s="65">
+        <f>K43/SUM($K$43:$K$45)</f>
         <v>0.30526315789473685</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="109"/>
+    <row r="44" spans="1:13">
+      <c r="A44" s="90"/>
       <c r="B44" s="17" t="s">
         <v>35</v>
       </c>
@@ -2926,21 +2862,20 @@
       <c r="G44" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="K44" s="50" t="s">
+      <c r="J44" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="L44" s="50">
+      <c r="K44" s="50">
         <f>184+56</f>
         <v>240</v>
       </c>
-      <c r="M44" s="65">
-        <f t="shared" ref="M44:M45" si="2">L44/SUM($L$43:$L$45)</f>
+      <c r="L44" s="65">
+        <f t="shared" ref="L44:L45" si="2">K44/SUM($K$43:$K$45)</f>
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="109"/>
+    <row r="45" spans="1:13">
+      <c r="A45" s="90"/>
       <c r="B45" s="17" t="s">
         <v>36</v>
       </c>
@@ -2959,21 +2894,20 @@
       <c r="G45" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="K45" s="50" t="s">
+      <c r="J45" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="L45" s="50">
-        <f>0.1*L44</f>
+      <c r="K45" s="50">
+        <f>0.1*K44</f>
         <v>24</v>
       </c>
-      <c r="M45" s="65">
+      <c r="L45" s="65">
         <f t="shared" si="2"/>
         <v>6.3157894736842107E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="109"/>
+    <row r="46" spans="1:13">
+      <c r="A46" s="90"/>
       <c r="B46" s="17" t="s">
         <v>37</v>
       </c>
@@ -2994,10 +2928,9 @@
       <c r="G46" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="H46" s="50"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="110"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="91"/>
       <c r="B47" s="17" t="s">
         <v>151</v>
       </c>
@@ -3018,16 +2951,15 @@
       <c r="G47" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="H47" s="50"/>
-      <c r="K47" s="115" t="s">
+      <c r="J47" s="96" t="s">
         <v>199</v>
       </c>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="115"/>
-    </row>
-    <row r="48" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A48" s="102" t="s">
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A48" s="107" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -3051,19 +2983,16 @@
       <c r="G48" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="H48" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="I48" s="79"/>
-      <c r="K48" s="63" t="s">
+      <c r="H48" s="79"/>
+      <c r="J48" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="L48" s="64">
+      <c r="K48" s="64">
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="103"/>
+    <row r="49" spans="1:13">
+      <c r="A49" s="108"/>
       <c r="B49" s="20" t="s">
         <v>171</v>
       </c>
@@ -3085,23 +3014,22 @@
       <c r="G49" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H49" s="91"/>
-      <c r="I49" s="79"/>
-      <c r="K49" s="61" t="s">
+      <c r="H49" s="79"/>
+      <c r="J49" s="61" t="s">
         <v>189</v>
       </c>
+      <c r="K49" s="50" t="s">
+        <v>190</v>
+      </c>
       <c r="L49" s="50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M49" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="N49" s="50" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="103"/>
+    <row r="50" spans="1:13">
+      <c r="A50" s="108"/>
       <c r="B50" s="20" t="s">
         <v>173</v>
       </c>
@@ -3123,25 +3051,24 @@
       <c r="G50" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H50" s="91"/>
-      <c r="I50" s="79"/>
-      <c r="K50" s="50" t="s">
+      <c r="H50" s="79"/>
+      <c r="J50" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="L50" s="65">
+      <c r="K50" s="65">
         <v>0.9</v>
       </c>
-      <c r="M50" s="50">
+      <c r="L50" s="50">
         <f>5/5</f>
         <v>1</v>
       </c>
-      <c r="N50" s="62">
-        <f>M50/$L$48</f>
+      <c r="M50" s="62">
+        <f>L50/$K$48</f>
         <v>2.3923444976076554E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="103"/>
+    <row r="51" spans="1:13">
+      <c r="A51" s="108"/>
       <c r="B51" s="20" t="s">
         <v>225</v>
       </c>
@@ -3163,15 +3090,14 @@
       <c r="G51" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H51" s="91"/>
-      <c r="I51" s="79"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="62"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="103"/>
+      <c r="H51" s="79"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="62"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="108"/>
       <c r="B52" s="20" t="s">
         <v>224</v>
       </c>
@@ -3193,25 +3119,24 @@
       <c r="G52" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H52" s="91"/>
-      <c r="I52" s="79"/>
-      <c r="K52" s="50" t="s">
+      <c r="H52" s="79"/>
+      <c r="J52" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="L52" s="65">
+      <c r="K52" s="65">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M52" s="50">
+      <c r="L52" s="50">
         <f>29/5</f>
         <v>5.8</v>
       </c>
-      <c r="N52" s="62">
-        <f>M52/$L$48</f>
+      <c r="M52" s="62">
+        <f>L52/$K$48</f>
         <v>1.3875598086124402E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="103"/>
+    <row r="53" spans="1:13">
+      <c r="A53" s="108"/>
       <c r="B53" s="20" t="s">
         <v>229</v>
       </c>
@@ -3233,25 +3158,24 @@
       <c r="G53" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H53" s="91"/>
-      <c r="I53" s="79"/>
-      <c r="K53" s="50" t="s">
+      <c r="H53" s="79"/>
+      <c r="J53" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="L53" s="65">
+      <c r="K53" s="65">
         <v>0.3</v>
       </c>
-      <c r="M53" s="50">
+      <c r="L53" s="50">
         <f>13/5</f>
         <v>2.6</v>
       </c>
-      <c r="N53" s="62">
-        <f>M53/$L$48</f>
+      <c r="M53" s="62">
+        <f>L53/$K$48</f>
         <v>6.2200956937799043E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="103"/>
+    <row r="54" spans="1:13">
+      <c r="A54" s="108"/>
       <c r="B54" s="20" t="s">
         <v>170</v>
       </c>
@@ -3272,11 +3196,10 @@
       <c r="G54" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H54" s="91"/>
-      <c r="I54" s="79"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="103"/>
+      <c r="H54" s="79"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="108"/>
       <c r="B55" s="20" t="s">
         <v>174</v>
       </c>
@@ -3297,20 +3220,19 @@
       <c r="G55" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H55" s="91"/>
-      <c r="I55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="J55" s="50" t="s">
+        <v>204</v>
+      </c>
       <c r="K55" s="50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L55" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="M55" s="50" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="103"/>
+    <row r="56" spans="1:13">
+      <c r="A56" s="108"/>
       <c r="B56" s="23" t="s">
         <v>220</v>
       </c>
@@ -3332,20 +3254,19 @@
       <c r="G56" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H56" s="91"/>
-      <c r="I56" s="79"/>
-      <c r="K56" s="50" t="s">
+      <c r="H56" s="79"/>
+      <c r="J56" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="L56" s="66">
+      <c r="K56" s="66">
         <v>40</v>
       </c>
-      <c r="M56" s="50">
+      <c r="L56" s="50">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="103"/>
+    <row r="57" spans="1:13">
+      <c r="A57" s="108"/>
       <c r="B57" s="23" t="s">
         <v>221</v>
       </c>
@@ -3366,20 +3287,19 @@
       <c r="G57" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H57" s="92"/>
-      <c r="I57" s="79"/>
-      <c r="K57" s="68" t="s">
+      <c r="H57" s="79"/>
+      <c r="J57" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="L57" s="66">
+      <c r="K57" s="66">
         <v>12</v>
       </c>
-      <c r="M57" s="50">
+      <c r="L57" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="103"/>
+    <row r="58" spans="1:13">
+      <c r="A58" s="108"/>
       <c r="B58" s="23" t="s">
         <v>163</v>
       </c>
@@ -3400,21 +3320,18 @@
       <c r="G58" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="H58" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="K58" s="68" t="s">
+      <c r="J58" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="L58" s="66">
+      <c r="K58" s="66">
         <v>0.5</v>
       </c>
-      <c r="M58" s="50">
+      <c r="L58" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="103"/>
+    <row r="59" spans="1:13">
+      <c r="A59" s="108"/>
       <c r="B59" s="23" t="s">
         <v>164</v>
       </c>
@@ -3433,12 +3350,9 @@
       <c r="G59" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="H59" s="81" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="103"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="108"/>
       <c r="B60" s="23" t="s">
         <v>241</v>
       </c>
@@ -3457,15 +3371,14 @@
       <c r="G60" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H60" s="86"/>
-    </row>
-    <row r="61" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A61" s="103"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A61" s="108"/>
       <c r="B61" s="42" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="43">
-        <f>L62</f>
+        <f>K62</f>
         <v>2.3315789473684214</v>
       </c>
       <c r="D61" s="43">
@@ -3482,27 +3395,24 @@
       <c r="G61" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="90" t="s">
-        <v>185</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="H61" t="s">
         <v>214</v>
       </c>
-      <c r="K61" s="50" t="s">
+      <c r="J61" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="L61" s="67">
-        <f>N50*L50*L43 + L56/M56</f>
+      <c r="K61" s="67">
+        <f>M50*K50*K43 + K56/L56</f>
         <v>4.2497607655502394</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="103"/>
+    <row r="62" spans="1:13">
+      <c r="A62" s="108"/>
       <c r="B62" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C62" s="43">
-        <f>L63</f>
+        <f>K63</f>
         <v>4.4784688995215309E-2</v>
       </c>
       <c r="D62" s="43">
@@ -3519,22 +3429,21 @@
       <c r="G62" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="91"/>
-      <c r="K62" s="50" t="s">
+      <c r="J62" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="L62" s="67">
-        <f>N52*L52*L44 +L58</f>
+      <c r="K62" s="67">
+        <f>M52*K52*K44 +K58</f>
         <v>2.3315789473684214</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="103"/>
+    <row r="63" spans="1:13">
+      <c r="A63" s="108"/>
       <c r="B63" s="42" t="s">
         <v>92</v>
       </c>
       <c r="C63" s="43">
-        <f>L61</f>
+        <f>K61</f>
         <v>4.2497607655502394</v>
       </c>
       <c r="D63" s="43">
@@ -3551,22 +3460,21 @@
       <c r="G63" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="91"/>
-      <c r="K63" s="50" t="s">
+      <c r="J63" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="L63" s="67">
-        <f>N53*L53*L45</f>
+      <c r="K63" s="67">
+        <f>M53*K53*K45</f>
         <v>4.4784688995215309E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="104"/>
+    <row r="64" spans="1:13">
+      <c r="A64" s="109"/>
       <c r="B64" s="72" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="43">
-        <f>L64</f>
+        <f>K64</f>
         <v>6</v>
       </c>
       <c r="D64" s="43">
@@ -3583,17 +3491,16 @@
       <c r="G64" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="92"/>
-      <c r="K64" s="61" t="s">
+      <c r="J64" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="L64" s="50">
-        <f>L57/M57</f>
+      <c r="K64" s="50">
+        <f>K57/L57</f>
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A65" s="93" t="s">
+    <row r="65" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A65" s="98" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="56" t="s">
@@ -3612,12 +3519,9 @@
       <c r="G65" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="87" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="94"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="99"/>
       <c r="B66" s="56" t="s">
         <v>59</v>
       </c>
@@ -3634,10 +3538,9 @@
       <c r="G66" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H66" s="88"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="94"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="99"/>
       <c r="B67" s="56" t="s">
         <v>51</v>
       </c>
@@ -3654,10 +3557,9 @@
       <c r="G67" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="88"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="94"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="99"/>
       <c r="B68" s="56" t="s">
         <v>52</v>
       </c>
@@ -3674,10 +3576,9 @@
       <c r="G68" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="88"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="94"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="99"/>
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
@@ -3694,10 +3595,9 @@
       <c r="G69" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H69" s="88"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="94"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="99"/>
       <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
@@ -3714,10 +3614,9 @@
       <c r="G70" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H70" s="88"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="94"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="99"/>
       <c r="B71" s="56" t="s">
         <v>54</v>
       </c>
@@ -3734,11 +3633,10 @@
       <c r="G71" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="88"/>
-      <c r="K71" s="13"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="94"/>
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="99"/>
       <c r="B72" s="56" t="s">
         <v>60</v>
       </c>
@@ -3755,11 +3653,10 @@
       <c r="G72" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="88"/>
-      <c r="K72" s="13"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="94"/>
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="99"/>
       <c r="B73" s="56" t="s">
         <v>55</v>
       </c>
@@ -3776,11 +3673,10 @@
       <c r="G73" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="88"/>
-      <c r="K73" s="13"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="94"/>
+      <c r="J73" s="13"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="99"/>
       <c r="B74" s="56" t="s">
         <v>56</v>
       </c>
@@ -3797,11 +3693,10 @@
       <c r="G74" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="88"/>
-      <c r="K74" s="13"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="94"/>
+      <c r="J74" s="13"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="99"/>
       <c r="B75" s="56" t="s">
         <v>57</v>
       </c>
@@ -3818,11 +3713,10 @@
       <c r="G75" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="88"/>
-      <c r="K75" s="13"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="94"/>
+      <c r="J75" s="13"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="99"/>
       <c r="B76" s="56" t="s">
         <v>96</v>
       </c>
@@ -3839,11 +3733,10 @@
       <c r="G76" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H76" s="88"/>
-      <c r="K76" s="13"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="94"/>
+      <c r="J76" s="13"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="99"/>
       <c r="B77" s="56" t="s">
         <v>58</v>
       </c>
@@ -3860,10 +3753,9 @@
       <c r="G77" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="88"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="94"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="99"/>
       <c r="B78" s="56" t="s">
         <v>61</v>
       </c>
@@ -3880,10 +3772,9 @@
       <c r="G78" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="88"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="94"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="99"/>
       <c r="B79" s="56" t="s">
         <v>62</v>
       </c>
@@ -3900,10 +3791,9 @@
       <c r="G79" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="88"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="94"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="99"/>
       <c r="B80" s="56" t="s">
         <v>63</v>
       </c>
@@ -3920,10 +3810,9 @@
       <c r="G80" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="88"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="94"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="99"/>
       <c r="B81" s="56" t="s">
         <v>64</v>
       </c>
@@ -3940,10 +3829,9 @@
       <c r="G81" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H81" s="88"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="94"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="99"/>
       <c r="B82" s="56" t="s">
         <v>95</v>
       </c>
@@ -3960,80 +3848,72 @@
       <c r="G82" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="89"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="K84" s="13"/>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102" s="13"/>
-    </row>
-    <row r="106" spans="11:11">
-      <c r="K106" s="13"/>
-    </row>
-    <row r="107" spans="11:11">
-      <c r="K107" s="13"/>
-    </row>
-    <row r="108" spans="11:11">
-      <c r="K108" s="13"/>
-    </row>
-    <row r="109" spans="11:11">
-      <c r="K109" s="13"/>
-    </row>
-    <row r="110" spans="11:11">
-      <c r="K110" s="13"/>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111" s="13"/>
-    </row>
-    <row r="112" spans="11:11">
-      <c r="K112" s="13"/>
-    </row>
-    <row r="113" spans="11:11">
-      <c r="K113" s="13"/>
-    </row>
-    <row r="114" spans="11:11">
-      <c r="K114" s="13"/>
-    </row>
-    <row r="115" spans="11:11">
-      <c r="K115" s="13"/>
-    </row>
-    <row r="116" spans="11:11">
-      <c r="K116" s="13"/>
-    </row>
-    <row r="117" spans="11:11">
-      <c r="K117" s="13"/>
-    </row>
-    <row r="118" spans="11:11">
-      <c r="K118" s="13"/>
-    </row>
-    <row r="120" spans="11:11">
-      <c r="K120" s="13"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="J84" s="13"/>
+    </row>
+    <row r="102" spans="10:10">
+      <c r="J102" s="13"/>
+    </row>
+    <row r="106" spans="10:10">
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="10:10">
+      <c r="J107" s="13"/>
+    </row>
+    <row r="108" spans="10:10">
+      <c r="J108" s="13"/>
+    </row>
+    <row r="109" spans="10:10">
+      <c r="J109" s="13"/>
+    </row>
+    <row r="110" spans="10:10">
+      <c r="J110" s="13"/>
+    </row>
+    <row r="111" spans="10:10">
+      <c r="J111" s="13"/>
+    </row>
+    <row r="112" spans="10:10">
+      <c r="J112" s="13"/>
+    </row>
+    <row r="113" spans="10:10">
+      <c r="J113" s="13"/>
+    </row>
+    <row r="114" spans="10:10">
+      <c r="J114" s="13"/>
+    </row>
+    <row r="115" spans="10:10">
+      <c r="J115" s="13"/>
+    </row>
+    <row r="116" spans="10:10">
+      <c r="J116" s="13"/>
+    </row>
+    <row r="117" spans="10:10">
+      <c r="J117" s="13"/>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118" s="13"/>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K36:M36"/>
+  <mergeCells count="15">
     <mergeCell ref="A65:A82"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A24:A35"/>
     <mergeCell ref="A48:A64"/>
-    <mergeCell ref="H65:H82"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H48:H57"/>
-    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4063,13 +3943,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="4" t="s">
@@ -4095,7 +3975,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="100" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4119,7 +3999,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="96"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4143,7 +4023,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="96"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -4168,7 +4048,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="96"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
@@ -4193,7 +4073,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="96"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
@@ -4219,7 +4099,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="96"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -4243,7 +4123,7 @@
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="96"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -4287,7 +4167,7 @@
       <c r="G11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="H11" s="95" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4309,7 +4189,7 @@
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="114"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="60"/>
@@ -4329,7 +4209,7 @@
       <c r="G13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="114"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="60"/>
@@ -4354,7 +4234,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="102" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -4378,12 +4258,12 @@
       <c r="G15" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="110" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="98"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="47" t="s">
         <v>74</v>
       </c>
@@ -4405,10 +4285,10 @@
       <c r="G16" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="111"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="98"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="47" t="s">
         <v>75</v>
       </c>
@@ -4430,10 +4310,10 @@
       <c r="G17" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="89"/>
+      <c r="H17" s="112"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="104" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -4459,7 +4339,7 @@
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="28.8">
-      <c r="A19" s="99"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="25" t="s">
         <v>76</v>
       </c>
@@ -4485,7 +4365,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="99"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="25" t="s">
         <v>79</v>
       </c>
@@ -4509,7 +4389,7 @@
       <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="99"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="25" t="s">
         <v>80</v>
       </c>
@@ -4533,7 +4413,7 @@
       <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="99"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="25" t="s">
         <v>86</v>
       </c>
@@ -4557,7 +4437,7 @@
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="99"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="25" t="s">
         <v>87</v>
       </c>
@@ -4581,7 +4461,7 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="99"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="25" t="s">
         <v>90</v>
       </c>
@@ -4605,7 +4485,7 @@
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="105" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -4629,7 +4509,7 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="101"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
@@ -4651,7 +4531,7 @@
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="101"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
@@ -4673,7 +4553,7 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="101"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
@@ -4695,7 +4575,7 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="101"/>
+      <c r="A29" s="106"/>
       <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
@@ -4717,7 +4597,7 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="101"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
@@ -4739,7 +4619,7 @@
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="101"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="36" t="s">
         <v>16</v>
       </c>
@@ -4763,7 +4643,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="101"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="36" t="s">
         <v>17</v>
       </c>
@@ -4787,7 +4667,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="101"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="36" t="s">
         <v>18</v>
       </c>
@@ -4804,12 +4684,12 @@
       <c r="G33" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="90" t="s">
+      <c r="H33" s="113" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="101"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="36" t="s">
         <v>22</v>
       </c>
@@ -4826,10 +4706,10 @@
       <c r="G34" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="91"/>
+      <c r="H34" s="114"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="101"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="36" t="s">
         <v>19</v>
       </c>
@@ -4846,10 +4726,10 @@
       <c r="G35" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="91"/>
+      <c r="H35" s="114"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="101"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="36" t="s">
         <v>20</v>
       </c>
@@ -4866,10 +4746,10 @@
       <c r="G36" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="H36" s="92"/>
+      <c r="H36" s="115"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="111" t="s">
+      <c r="A37" s="92" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -4893,12 +4773,12 @@
       <c r="G37" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="90" t="s">
+      <c r="H37" s="113" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="112"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="52" t="s">
         <v>27</v>
       </c>
@@ -4920,10 +4800,10 @@
       <c r="G38" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="91"/>
+      <c r="H38" s="114"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="112"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4945,10 +4825,10 @@
       <c r="G39" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H39" s="91"/>
+      <c r="H39" s="114"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="112"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4970,10 +4850,10 @@
       <c r="G40" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="92"/>
+      <c r="H40" s="115"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="113"/>
+      <c r="A41" s="94"/>
       <c r="B41" s="14" t="s">
         <v>165</v>
       </c>
@@ -4997,7 +4877,7 @@
       <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="89" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -5025,7 +4905,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="109"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="17" t="s">
         <v>33</v>
       </c>
@@ -5049,7 +4929,7 @@
       <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="109"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="17" t="s">
         <v>34</v>
       </c>
@@ -5075,7 +4955,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="109"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="17" t="s">
         <v>35</v>
       </c>
@@ -5099,7 +4979,7 @@
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="109"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="17" t="s">
         <v>36</v>
       </c>
@@ -5123,7 +5003,7 @@
       <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="109"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="17" t="s">
         <v>37</v>
       </c>
@@ -5147,7 +5027,7 @@
       <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="110"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="17" t="s">
         <v>151</v>
       </c>
@@ -5171,7 +5051,7 @@
       <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="107" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -5195,12 +5075,12 @@
       <c r="G49" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="H49" s="90" t="s">
+      <c r="H49" s="113" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="103"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="20" t="s">
         <v>171</v>
       </c>
@@ -5222,10 +5102,10 @@
       <c r="G50" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="91"/>
+      <c r="H50" s="114"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="103"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="20" t="s">
         <v>173</v>
       </c>
@@ -5247,10 +5127,10 @@
       <c r="G51" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H51" s="91"/>
+      <c r="H51" s="114"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="103"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="20" t="s">
         <v>225</v>
       </c>
@@ -5272,10 +5152,10 @@
       <c r="G52" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="91"/>
+      <c r="H52" s="114"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="103"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="20" t="s">
         <v>224</v>
       </c>
@@ -5297,10 +5177,10 @@
       <c r="G53" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H53" s="91"/>
+      <c r="H53" s="114"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="103"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="20" t="s">
         <v>229</v>
       </c>
@@ -5322,10 +5202,10 @@
       <c r="G54" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="H54" s="91"/>
+      <c r="H54" s="114"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="103"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="20" t="s">
         <v>170</v>
       </c>
@@ -5346,10 +5226,10 @@
       <c r="G55" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H55" s="91"/>
+      <c r="H55" s="114"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="103"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="20" t="s">
         <v>174</v>
       </c>
@@ -5370,10 +5250,10 @@
       <c r="G56" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H56" s="91"/>
+      <c r="H56" s="114"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="103"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="23" t="s">
         <v>220</v>
       </c>
@@ -5395,10 +5275,10 @@
       <c r="G57" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="H57" s="91"/>
+      <c r="H57" s="114"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="103"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="23" t="s">
         <v>221</v>
       </c>
@@ -5419,10 +5299,10 @@
       <c r="G58" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="H58" s="92"/>
+      <c r="H58" s="115"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="103"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="23" t="s">
         <v>163</v>
       </c>
@@ -5448,7 +5328,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="103"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="23" t="s">
         <v>164</v>
       </c>
@@ -5472,7 +5352,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="103"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="42" t="s">
         <v>41</v>
       </c>
@@ -5494,12 +5374,12 @@
       <c r="G61" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="90" t="s">
+      <c r="H61" s="113" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="103"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="42" t="s">
         <v>42</v>
       </c>
@@ -5521,10 +5401,10 @@
       <c r="G62" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H62" s="91"/>
+      <c r="H62" s="114"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="103"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="42" t="s">
         <v>92</v>
       </c>
@@ -5546,10 +5426,10 @@
       <c r="G63" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="91"/>
+      <c r="H63" s="114"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="104"/>
+      <c r="A64" s="109"/>
       <c r="B64" s="72" t="s">
         <v>93</v>
       </c>
@@ -5571,10 +5451,10 @@
       <c r="G64" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="92"/>
+      <c r="H64" s="115"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="98" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="56" t="s">
@@ -5587,12 +5467,12 @@
       <c r="G65" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="87" t="s">
+      <c r="H65" s="110" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="94"/>
+      <c r="A66" s="99"/>
       <c r="B66" s="56" t="s">
         <v>59</v>
       </c>
@@ -5603,10 +5483,10 @@
       <c r="G66" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H66" s="88"/>
+      <c r="H66" s="111"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="94"/>
+      <c r="A67" s="99"/>
       <c r="B67" s="56" t="s">
         <v>51</v>
       </c>
@@ -5617,10 +5497,10 @@
       <c r="G67" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="88"/>
+      <c r="H67" s="111"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="94"/>
+      <c r="A68" s="99"/>
       <c r="B68" s="56" t="s">
         <v>52</v>
       </c>
@@ -5631,10 +5511,10 @@
       <c r="G68" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="88"/>
+      <c r="H68" s="111"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="94"/>
+      <c r="A69" s="99"/>
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
@@ -5645,10 +5525,10 @@
       <c r="G69" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H69" s="88"/>
+      <c r="H69" s="111"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="94"/>
+      <c r="A70" s="99"/>
       <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
@@ -5659,10 +5539,10 @@
       <c r="G70" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H70" s="88"/>
+      <c r="H70" s="111"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="94"/>
+      <c r="A71" s="99"/>
       <c r="B71" s="56" t="s">
         <v>54</v>
       </c>
@@ -5673,10 +5553,10 @@
       <c r="G71" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="88"/>
+      <c r="H71" s="111"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="94"/>
+      <c r="A72" s="99"/>
       <c r="B72" s="56" t="s">
         <v>60</v>
       </c>
@@ -5687,10 +5567,10 @@
       <c r="G72" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="88"/>
+      <c r="H72" s="111"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="94"/>
+      <c r="A73" s="99"/>
       <c r="B73" s="56" t="s">
         <v>55</v>
       </c>
@@ -5701,10 +5581,10 @@
       <c r="G73" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="88"/>
+      <c r="H73" s="111"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="94"/>
+      <c r="A74" s="99"/>
       <c r="B74" s="56" t="s">
         <v>56</v>
       </c>
@@ -5715,10 +5595,10 @@
       <c r="G74" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="88"/>
+      <c r="H74" s="111"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="94"/>
+      <c r="A75" s="99"/>
       <c r="B75" s="56" t="s">
         <v>57</v>
       </c>
@@ -5729,10 +5609,10 @@
       <c r="G75" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="88"/>
+      <c r="H75" s="111"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="94"/>
+      <c r="A76" s="99"/>
       <c r="B76" s="56" t="s">
         <v>96</v>
       </c>
@@ -5743,10 +5623,10 @@
       <c r="G76" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H76" s="88"/>
+      <c r="H76" s="111"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="94"/>
+      <c r="A77" s="99"/>
       <c r="B77" s="56" t="s">
         <v>58</v>
       </c>
@@ -5757,10 +5637,10 @@
       <c r="G77" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="88"/>
+      <c r="H77" s="111"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="94"/>
+      <c r="A78" s="99"/>
       <c r="B78" s="56" t="s">
         <v>61</v>
       </c>
@@ -5771,10 +5651,10 @@
       <c r="G78" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="88"/>
+      <c r="H78" s="111"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="94"/>
+      <c r="A79" s="99"/>
       <c r="B79" s="56" t="s">
         <v>62</v>
       </c>
@@ -5785,10 +5665,10 @@
       <c r="G79" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="88"/>
+      <c r="H79" s="111"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="94"/>
+      <c r="A80" s="99"/>
       <c r="B80" s="56" t="s">
         <v>63</v>
       </c>
@@ -5799,10 +5679,10 @@
       <c r="G80" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="88"/>
+      <c r="H80" s="111"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="94"/>
+      <c r="A81" s="99"/>
       <c r="B81" s="56" t="s">
         <v>64</v>
       </c>
@@ -5813,10 +5693,10 @@
       <c r="G81" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H81" s="88"/>
+      <c r="H81" s="111"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="94"/>
+      <c r="A82" s="99"/>
       <c r="B82" s="56" t="s">
         <v>95</v>
       </c>
@@ -5827,7 +5707,7 @@
       <c r="G82" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="89"/>
+      <c r="H82" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5858,6 +5738,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D2CC3865CED4124A9830BAAA78333A39" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="74fbc97153726fbf9f4b2acfe0ba4f2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="47151ffa-27c1-491d-bdc5-fff6d8a44614" xmlns:ns4="2a729546-cf4e-435c-aabc-21366d2421e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef40a5df47e7cf58b55af26490b848e0" ns3:_="" ns4:_="">
     <xsd:import namespace="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
@@ -6080,12 +5966,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6096,6 +5976,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145C285F-2FF3-4D38-95ED-9BA60F4E3C89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3D48284-4FE0-49DC-82DA-D80B72208958}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6114,23 +6011,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145C285F-2FF3-4D38-95ED-9BA60F4E3C89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9031FEDD-5FF8-4C9C-AF51-AEFA4BF396D5}">
   <ds:schemaRefs>

--- a/Data/Iris_inputs.xlsx
+++ b/Data/Iris_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giparoli\Documents\Projetos\AEco\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC637004-49A0-42F1-BDAA-463AF2ED7900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34DF225-6814-4D53-93E0-1C876AA74E46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="0" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iris" sheetId="2" r:id="rId1"/>
@@ -1375,6 +1375,42 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1402,71 +1438,35 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1811,7 +1811,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1828,14 +1828,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="33"/>
@@ -1866,7 +1866,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="88" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1889,7 +1889,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="101"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1897,12 +1897,12 @@
         <v>2044</v>
       </c>
       <c r="D5" s="31">
-        <f>0.8*C5</f>
-        <v>1635.2</v>
+        <f>0.9*C5</f>
+        <v>1839.6000000000001</v>
       </c>
       <c r="E5" s="31">
-        <f>1.2*C5</f>
-        <v>2452.7999999999997</v>
+        <f>1.1*C5</f>
+        <v>2248.4</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="101"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -1920,13 +1920,13 @@
         <f>ROUNDUP((500/C7),0)</f>
         <v>953</v>
       </c>
-      <c r="D6" s="11">
-        <f t="shared" ref="D6:D64" si="0">0.8*C6</f>
-        <v>762.40000000000009</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" ref="E6:E64" si="1">1.2*C6</f>
-        <v>1143.5999999999999</v>
+      <c r="D6" s="31">
+        <f t="shared" ref="D6:D69" si="0">0.9*C6</f>
+        <v>857.7</v>
+      </c>
+      <c r="E6" s="31">
+        <f t="shared" ref="E6:E13" si="1">1.1*C6</f>
+        <v>1048.3000000000002</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>157</v>
@@ -1937,7 +1937,7 @@
       <c r="H6" s="80"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="101"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
@@ -1945,13 +1945,13 @@
         <f>31.5/60</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="1"/>
-        <v>0.63</v>
+      <c r="D7" s="31">
+        <f t="shared" si="0"/>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="E7" s="31">
+        <f t="shared" si="1"/>
+        <v>0.57750000000000012</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>156</v>
@@ -1962,20 +1962,20 @@
       <c r="H7" s="80"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="101"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C8" s="77">
         <v>380</v>
       </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
-        <v>304</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="1"/>
-        <v>456</v>
+      <c r="D8" s="31">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="1"/>
+        <v>418.00000000000006</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>155</v>
@@ -1985,20 +1985,20 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="101"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="11">
         <v>30</v>
       </c>
-      <c r="D9" s="11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="1"/>
-        <v>36</v>
+      <c r="D9" s="31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E9" s="31">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>9</v>
@@ -2008,20 +2008,20 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="101"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="45">
         <v>421</v>
       </c>
-      <c r="D10" s="45">
-        <f t="shared" si="0"/>
-        <v>336.8</v>
-      </c>
-      <c r="E10" s="45">
-        <f t="shared" si="1"/>
-        <v>505.2</v>
+      <c r="D10" s="31">
+        <f t="shared" si="0"/>
+        <v>378.90000000000003</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="1"/>
+        <v>463.1</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>6</v>
@@ -2038,11 +2038,13 @@
       <c r="C11" s="83">
         <v>10</v>
       </c>
-      <c r="D11" s="83">
-        <v>8</v>
-      </c>
-      <c r="E11" s="83">
-        <v>12</v>
+      <c r="D11" s="31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="31">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41" t="s">
@@ -2057,11 +2059,13 @@
       <c r="C12" s="83">
         <v>20</v>
       </c>
-      <c r="D12" s="83">
-        <v>16</v>
-      </c>
-      <c r="E12" s="83">
-        <v>24</v>
+      <c r="D12" s="31">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E12" s="31">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41" t="s">
@@ -2076,11 +2080,13 @@
       <c r="C13" s="83">
         <v>70</v>
       </c>
-      <c r="D13" s="83">
-        <v>56</v>
-      </c>
-      <c r="E13" s="83">
-        <v>84</v>
+      <c r="D13" s="31">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E13" s="31">
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41" t="s">
@@ -2088,7 +2094,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="35" customFormat="1" ht="14.7" customHeight="1">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="90" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -2100,11 +2106,11 @@
       </c>
       <c r="D14" s="48">
         <f t="shared" si="0"/>
-        <v>1199.3519999999999</v>
+        <v>1349.271</v>
       </c>
       <c r="E14" s="48">
-        <f t="shared" si="1"/>
-        <v>1799.0279999999998</v>
+        <f t="shared" ref="E14:E64" si="2">1.1*C14</f>
+        <v>1649.1089999999999</v>
       </c>
       <c r="F14" s="49" t="s">
         <v>67</v>
@@ -2115,7 +2121,7 @@
       <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" s="35" customFormat="1">
-      <c r="A15" s="103"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="47" t="s">
         <v>74</v>
       </c>
@@ -2125,11 +2131,11 @@
       </c>
       <c r="D15" s="48">
         <f t="shared" si="0"/>
-        <v>2.1280000000000001</v>
+        <v>2.3940000000000001</v>
       </c>
       <c r="E15" s="48">
-        <f t="shared" si="1"/>
-        <v>3.1920000000000002</v>
+        <f t="shared" si="2"/>
+        <v>2.9260000000000006</v>
       </c>
       <c r="F15" s="49" t="s">
         <v>85</v>
@@ -2140,7 +2146,7 @@
       <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:8" s="35" customFormat="1">
-      <c r="A16" s="103"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="47" t="s">
         <v>75</v>
       </c>
@@ -2150,11 +2156,11 @@
       </c>
       <c r="D16" s="48">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>9.4500000000000011</v>
       </c>
       <c r="E16" s="48">
-        <f t="shared" si="1"/>
-        <v>12.6</v>
+        <f t="shared" si="2"/>
+        <v>11.55</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>85</v>
@@ -2165,7 +2171,7 @@
       <c r="H16" s="75"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="92" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -2176,11 +2182,11 @@
       </c>
       <c r="D17" s="26">
         <f t="shared" si="0"/>
-        <v>38.400000000000006</v>
+        <v>43.2</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="1"/>
-        <v>57.599999999999994</v>
+        <f t="shared" si="2"/>
+        <v>52.800000000000004</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>73</v>
@@ -2190,7 +2196,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="104"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="25" t="s">
         <v>76</v>
       </c>
@@ -2199,11 +2205,11 @@
       </c>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>5.6000000000000005</v>
+        <v>6.3</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="1"/>
-        <v>8.4</v>
+        <f t="shared" si="2"/>
+        <v>7.7000000000000011</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>78</v>
@@ -2213,7 +2219,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="104"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="25" t="s">
         <v>79</v>
       </c>
@@ -2222,11 +2228,11 @@
       </c>
       <c r="D19" s="28">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>2025</v>
       </c>
       <c r="E19" s="28">
-        <f t="shared" si="1"/>
-        <v>2700</v>
+        <f t="shared" si="2"/>
+        <v>2475</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>83</v>
@@ -2236,7 +2242,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="104"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="25" t="s">
         <v>80</v>
       </c>
@@ -2245,11 +2251,11 @@
       </c>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>84</v>
@@ -2259,7 +2265,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="104"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="25" t="s">
         <v>86</v>
       </c>
@@ -2268,11 +2274,11 @@
       </c>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999996</v>
+        <f t="shared" si="2"/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>84</v>
@@ -2282,7 +2288,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="104"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="25" t="s">
         <v>87</v>
       </c>
@@ -2290,10 +2296,12 @@
         <v>1E-4</v>
       </c>
       <c r="D22" s="28">
-        <v>1E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="E22" s="28">
-        <v>1E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000002E-4</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>84</v>
@@ -2303,7 +2311,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="104"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="25" t="s">
         <v>90</v>
       </c>
@@ -2312,11 +2320,11 @@
       </c>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f t="shared" si="2"/>
+        <v>110.00000000000001</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>8</v>
@@ -2326,7 +2334,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="93" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -2337,11 +2345,11 @@
       </c>
       <c r="D24" s="12">
         <f t="shared" si="0"/>
-        <v>0.504</v>
+        <v>0.56700000000000006</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" si="1"/>
-        <v>0.75600000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.69300000000000006</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -2349,7 +2357,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.4" customHeight="1">
-      <c r="A25" s="106"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="9" t="s">
         <v>12</v>
       </c>
@@ -2358,11 +2366,11 @@
       </c>
       <c r="D25" s="12">
         <f t="shared" si="0"/>
-        <v>0.248</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E25" s="12">
-        <f t="shared" si="1"/>
-        <v>0.372</v>
+        <f t="shared" si="2"/>
+        <v>0.34100000000000003</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
@@ -2370,7 +2378,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="106"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="9" t="s">
         <v>13</v>
       </c>
@@ -2378,10 +2386,12 @@
         <v>1E-4</v>
       </c>
       <c r="D26" s="12">
-        <v>1E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="E26" s="12">
-        <v>1E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000002E-4</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
@@ -2389,7 +2399,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="106"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="9" t="s">
         <v>21</v>
       </c>
@@ -2398,11 +2408,11 @@
       </c>
       <c r="D27" s="12">
         <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="1"/>
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
@@ -2410,7 +2420,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="106"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="9" t="s">
         <v>14</v>
       </c>
@@ -2418,10 +2428,12 @@
         <v>1E-4</v>
       </c>
       <c r="D28" s="12">
-        <v>1E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="E28" s="12">
-        <v>1E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000002E-4</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
@@ -2429,7 +2441,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="106"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="9" t="s">
         <v>15</v>
       </c>
@@ -2437,10 +2449,12 @@
         <v>1E-4</v>
       </c>
       <c r="D29" s="12">
-        <v>1E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="E29" s="12">
-        <v>1E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000002E-4</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
@@ -2448,7 +2462,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="106"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="36" t="s">
         <v>16</v>
       </c>
@@ -2457,11 +2471,11 @@
       </c>
       <c r="D30" s="37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="E30" s="37">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.375</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38" t="s">
@@ -2469,7 +2483,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="106"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="36" t="s">
         <v>17</v>
       </c>
@@ -2478,11 +2492,11 @@
       </c>
       <c r="D31" s="37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="E31" s="37">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.375</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38" t="s">
@@ -2490,7 +2504,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="106"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="36" t="s">
         <v>18</v>
       </c>
@@ -2498,23 +2512,25 @@
         <v>1</v>
       </c>
       <c r="D32" s="37">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.9</v>
       </c>
       <c r="E32" s="37">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="86" t="s">
+      <c r="J32" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="106"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="36" t="s">
         <v>22</v>
       </c>
@@ -2523,24 +2539,24 @@
       </c>
       <c r="D33" s="37">
         <f t="shared" si="0"/>
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="E33" s="37">
-        <f t="shared" si="1"/>
-        <v>1.44</v>
+        <f t="shared" si="2"/>
+        <v>1.32</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="96" t="s">
+      <c r="J33" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="106"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="36" t="s">
         <v>19</v>
       </c>
@@ -2548,10 +2564,12 @@
         <v>1</v>
       </c>
       <c r="D34" s="37">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.9</v>
       </c>
       <c r="E34" s="37">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38" t="s">
@@ -2568,7 +2586,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="106"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="36" t="s">
         <v>20</v>
       </c>
@@ -2576,10 +2594,12 @@
         <v>1</v>
       </c>
       <c r="D35" s="37">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.9</v>
       </c>
       <c r="E35" s="37">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38" t="s">
@@ -2597,7 +2617,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="104" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="52" t="s">
@@ -2609,11 +2629,11 @@
       </c>
       <c r="D36" s="53">
         <f t="shared" si="0"/>
-        <v>7992</v>
+        <v>8991</v>
       </c>
       <c r="E36" s="53">
-        <f t="shared" si="1"/>
-        <v>11988</v>
+        <f t="shared" si="2"/>
+        <v>10989</v>
       </c>
       <c r="F36" s="54" t="s">
         <v>67</v>
@@ -2622,14 +2642,14 @@
         <v>118</v>
       </c>
       <c r="H36" s="75"/>
-      <c r="J36" s="96" t="s">
+      <c r="J36" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="93"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="52" t="s">
         <v>27</v>
       </c>
@@ -2639,11 +2659,11 @@
       </c>
       <c r="D37" s="53">
         <f t="shared" si="0"/>
-        <v>7.9920000000000009</v>
+        <v>8.9909999999999997</v>
       </c>
       <c r="E37" s="53">
-        <f t="shared" si="1"/>
-        <v>11.988</v>
+        <f t="shared" si="2"/>
+        <v>10.989000000000001</v>
       </c>
       <c r="F37" s="54" t="s">
         <v>85</v>
@@ -2663,7 +2683,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="93"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="52" t="s">
         <v>28</v>
       </c>
@@ -2673,11 +2693,11 @@
       </c>
       <c r="D38" s="53">
         <f t="shared" si="0"/>
-        <v>6.4080000000000004</v>
+        <v>7.2089999999999996</v>
       </c>
       <c r="E38" s="53">
-        <f t="shared" si="1"/>
-        <v>9.6120000000000001</v>
+        <f t="shared" si="2"/>
+        <v>8.8109999999999999</v>
       </c>
       <c r="F38" s="54" t="s">
         <v>85</v>
@@ -2692,13 +2712,13 @@
       <c r="K38" s="50">
         <v>1500</v>
       </c>
-      <c r="L38" s="97">
+      <c r="L38" s="108">
         <f>K38*J38+J39*K39+J40*K40</f>
         <v>2805</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="93"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="52" t="s">
         <v>29</v>
       </c>
@@ -2708,11 +2728,11 @@
       </c>
       <c r="D39" s="53">
         <f t="shared" si="0"/>
-        <v>2.7000000000000003E-2</v>
+        <v>3.0375000000000003E-2</v>
       </c>
       <c r="E39" s="53">
-        <f t="shared" si="1"/>
-        <v>4.0500000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.7125000000000005E-2</v>
       </c>
       <c r="F39" s="54" t="s">
         <v>85</v>
@@ -2727,10 +2747,10 @@
       <c r="K39" s="50">
         <v>6500</v>
       </c>
-      <c r="L39" s="97"/>
+      <c r="L39" s="108"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="94"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="14" t="s">
         <v>165</v>
       </c>
@@ -2738,10 +2758,12 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D40" s="15">
-        <v>1.0000000000000001E-5</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="E40" s="15">
-        <v>1.0000000000000001E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001E-5</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>167</v>
@@ -2755,10 +2777,10 @@
       <c r="K40" s="50">
         <v>500</v>
       </c>
-      <c r="L40" s="97"/>
+      <c r="L40" s="108"/>
     </row>
     <row r="41" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="101" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -2769,11 +2791,11 @@
       </c>
       <c r="D41" s="18">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="E41" s="18">
-        <f t="shared" si="1"/>
-        <v>396</v>
+        <f t="shared" si="2"/>
+        <v>363.00000000000006</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>7</v>
@@ -2783,7 +2805,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="90"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="17" t="s">
         <v>33</v>
       </c>
@@ -2791,10 +2813,12 @@
         <v>1E-4</v>
       </c>
       <c r="D42" s="18">
-        <v>1E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="E42" s="18">
-        <v>1E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000002E-4</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>7</v>
@@ -2802,13 +2826,13 @@
       <c r="G42" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J42" s="96" t="s">
+      <c r="J42" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="K42" s="96"/>
+      <c r="K42" s="107"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="90"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="17" t="s">
         <v>34</v>
       </c>
@@ -2817,11 +2841,11 @@
       </c>
       <c r="D43" s="18">
         <f t="shared" si="0"/>
-        <v>2244</v>
+        <v>2524.5</v>
       </c>
       <c r="E43" s="18">
-        <f t="shared" si="1"/>
-        <v>3366</v>
+        <f t="shared" si="2"/>
+        <v>3085.5000000000005</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>7</v>
@@ -2841,7 +2865,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="90"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="17" t="s">
         <v>35</v>
       </c>
@@ -2850,11 +2874,11 @@
       </c>
       <c r="D44" s="18">
         <f t="shared" si="0"/>
-        <v>2.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E44" s="18">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999997E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>38</v>
@@ -2870,12 +2894,12 @@
         <v>240</v>
       </c>
       <c r="L44" s="65">
-        <f t="shared" ref="L44:L45" si="2">K44/SUM($K$43:$K$45)</f>
+        <f t="shared" ref="L44:L45" si="3">K44/SUM($K$43:$K$45)</f>
         <v>0.63157894736842102</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="90"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="17" t="s">
         <v>36</v>
       </c>
@@ -2883,10 +2907,12 @@
         <v>1E-4</v>
       </c>
       <c r="D45" s="18">
-        <v>1E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="E45" s="18">
-        <v>1E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000002E-4</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>38</v>
@@ -2902,12 +2928,12 @@
         <v>24</v>
       </c>
       <c r="L45" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3157894736842107E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="90"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="17" t="s">
         <v>37</v>
       </c>
@@ -2916,11 +2942,11 @@
       </c>
       <c r="D46" s="18">
         <f t="shared" si="0"/>
-        <v>1.952</v>
+        <v>2.1960000000000002</v>
       </c>
       <c r="E46" s="18">
-        <f t="shared" si="1"/>
-        <v>2.9279999999999999</v>
+        <f t="shared" si="2"/>
+        <v>2.6840000000000002</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>38</v>
@@ -2930,7 +2956,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="91"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="17" t="s">
         <v>151</v>
       </c>
@@ -2939,11 +2965,11 @@
       </c>
       <c r="D47" s="18">
         <f t="shared" si="0"/>
-        <v>2244</v>
+        <v>2524.5</v>
       </c>
       <c r="E47" s="18">
-        <f t="shared" si="1"/>
-        <v>3366</v>
+        <f t="shared" si="2"/>
+        <v>3085.5000000000005</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>8</v>
@@ -2951,15 +2977,15 @@
       <c r="G47" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="J47" s="96" t="s">
+      <c r="J47" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="107"/>
     </row>
     <row r="48" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="95" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -2971,11 +2997,11 @@
       </c>
       <c r="D48" s="30">
         <f t="shared" si="0"/>
-        <v>3.1292517006802724E-2</v>
+        <v>3.5204081632653067E-2</v>
       </c>
       <c r="E48" s="30">
-        <f t="shared" si="1"/>
-        <v>4.6938775510204082E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.3027210884353746E-2</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>10</v>
@@ -2992,7 +3018,7 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="108"/>
+      <c r="A49" s="96"/>
       <c r="B49" s="20" t="s">
         <v>171</v>
       </c>
@@ -3002,11 +3028,11 @@
       </c>
       <c r="D49" s="21">
         <f t="shared" si="0"/>
-        <v>0.6133333333333334</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="E49" s="21">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
+        <f t="shared" si="2"/>
+        <v>0.84333333333333349</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>10</v>
@@ -3029,7 +3055,7 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="108"/>
+      <c r="A50" s="96"/>
       <c r="B50" s="20" t="s">
         <v>173</v>
       </c>
@@ -3038,12 +3064,12 @@
         <v>0.15</v>
       </c>
       <c r="D50" s="21">
-        <f>0.8*C50</f>
-        <v>0.12</v>
+        <f t="shared" si="0"/>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E50" s="21">
-        <f t="shared" si="1"/>
-        <v>0.18</v>
+        <f t="shared" si="2"/>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>10</v>
@@ -3068,7 +3094,7 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="108"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="20" t="s">
         <v>225</v>
       </c>
@@ -3077,12 +3103,12 @@
         <v>0.15305300467214436</v>
       </c>
       <c r="D51" s="21">
-        <f>0.8*C51</f>
-        <v>0.12244240373771549</v>
+        <f t="shared" si="0"/>
+        <v>0.13774770420492993</v>
       </c>
       <c r="E51" s="21">
-        <f t="shared" ref="E51" si="3">1.2*C51</f>
-        <v>0.18366360560657322</v>
+        <f t="shared" si="2"/>
+        <v>0.16835830513935882</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>10</v>
@@ -3097,7 +3123,7 @@
       <c r="M51" s="62"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="108"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="20" t="s">
         <v>224</v>
       </c>
@@ -3107,11 +3133,11 @@
       </c>
       <c r="D52" s="21">
         <f t="shared" si="0"/>
-        <v>1.2E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="E52" s="21">
-        <f t="shared" si="1"/>
-        <v>1.7999999999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>10</v>
@@ -3136,7 +3162,7 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="108"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="20" t="s">
         <v>229</v>
       </c>
@@ -3146,11 +3172,11 @@
       </c>
       <c r="D53" s="21">
         <f t="shared" si="0"/>
-        <v>705.6</v>
+        <v>793.80000000000007</v>
       </c>
       <c r="E53" s="21">
-        <f t="shared" si="1"/>
-        <v>1058.3999999999999</v>
+        <f t="shared" si="2"/>
+        <v>970.2</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>175</v>
@@ -3175,7 +3201,7 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="108"/>
+      <c r="A54" s="96"/>
       <c r="B54" s="20" t="s">
         <v>170</v>
       </c>
@@ -3184,11 +3210,11 @@
       </c>
       <c r="D54" s="21">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E54" s="21">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>175</v>
@@ -3199,7 +3225,7 @@
       <c r="H54" s="79"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="108"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="20" t="s">
         <v>174</v>
       </c>
@@ -3208,11 +3234,11 @@
       </c>
       <c r="D55" s="21">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E55" s="21">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>66</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>175</v>
@@ -3232,7 +3258,7 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="108"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="23" t="s">
         <v>220</v>
       </c>
@@ -3242,11 +3268,11 @@
       </c>
       <c r="D56" s="21">
         <f t="shared" si="0"/>
-        <v>49.656000000000006</v>
+        <v>55.863</v>
       </c>
       <c r="E56" s="21">
-        <f t="shared" ref="E56" si="4">1.2*C56</f>
-        <v>74.483999999999995</v>
+        <f t="shared" si="2"/>
+        <v>68.277000000000001</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>175</v>
@@ -3266,7 +3292,7 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="108"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="23" t="s">
         <v>221</v>
       </c>
@@ -3275,11 +3301,11 @@
       </c>
       <c r="D57" s="21">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="E57" s="21">
-        <f t="shared" si="1"/>
-        <v>720</v>
+        <f t="shared" si="2"/>
+        <v>660</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>175</v>
@@ -3299,7 +3325,7 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="108"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="23" t="s">
         <v>163</v>
       </c>
@@ -3308,11 +3334,11 @@
       </c>
       <c r="D58" s="21">
         <f t="shared" si="0"/>
-        <v>3.44</v>
+        <v>3.87</v>
       </c>
       <c r="E58" s="21">
-        <f t="shared" si="1"/>
-        <v>5.1599999999999993</v>
+        <f t="shared" si="2"/>
+        <v>4.7300000000000004</v>
       </c>
       <c r="F58" s="24" t="s">
         <v>169</v>
@@ -3331,7 +3357,7 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="108"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="23" t="s">
         <v>164</v>
       </c>
@@ -3340,11 +3366,11 @@
       </c>
       <c r="D59" s="21">
         <f t="shared" si="0"/>
-        <v>0.64800000000000013</v>
+        <v>0.72900000000000009</v>
       </c>
       <c r="E59" s="21">
-        <f t="shared" si="1"/>
-        <v>0.97199999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.89100000000000013</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="22" t="s">
@@ -3352,20 +3378,20 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="108"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="23" t="s">
         <v>241</v>
       </c>
       <c r="C60" s="32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D60" s="21">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="E60" s="21">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="22" t="s">
@@ -3373,7 +3399,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A61" s="108"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="42" t="s">
         <v>41</v>
       </c>
@@ -3383,11 +3409,11 @@
       </c>
       <c r="D61" s="43">
         <f t="shared" si="0"/>
-        <v>1.8652631578947372</v>
+        <v>2.0984210526315792</v>
       </c>
       <c r="E61" s="43">
-        <f t="shared" si="1"/>
-        <v>2.7978947368421054</v>
+        <f t="shared" si="2"/>
+        <v>2.5647368421052636</v>
       </c>
       <c r="F61" s="44" t="s">
         <v>43</v>
@@ -3407,7 +3433,7 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="108"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="42" t="s">
         <v>42</v>
       </c>
@@ -3417,11 +3443,11 @@
       </c>
       <c r="D62" s="43">
         <f t="shared" si="0"/>
-        <v>3.582775119617225E-2</v>
+        <v>4.0306220095693776E-2</v>
       </c>
       <c r="E62" s="43">
-        <f t="shared" si="1"/>
-        <v>5.3741626794258368E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.9263157894736842E-2</v>
       </c>
       <c r="F62" s="44" t="s">
         <v>43</v>
@@ -3438,7 +3464,7 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="108"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="42" t="s">
         <v>92</v>
       </c>
@@ -3448,11 +3474,11 @@
       </c>
       <c r="D63" s="43">
         <f t="shared" si="0"/>
-        <v>3.3998086124401916</v>
+        <v>3.8247846889952157</v>
       </c>
       <c r="E63" s="43">
-        <f t="shared" si="1"/>
-        <v>5.0997129186602868</v>
+        <f t="shared" si="2"/>
+        <v>4.674736842105264</v>
       </c>
       <c r="F63" s="44" t="s">
         <v>43</v>
@@ -3469,7 +3495,7 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="109"/>
+      <c r="A64" s="97"/>
       <c r="B64" s="72" t="s">
         <v>93</v>
       </c>
@@ -3479,11 +3505,11 @@
       </c>
       <c r="D64" s="43">
         <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
+        <v>5.4</v>
       </c>
       <c r="E64" s="43">
-        <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="2"/>
+        <v>6.6000000000000005</v>
       </c>
       <c r="F64" s="44" t="s">
         <v>43</v>
@@ -3500,7 +3526,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="86" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="56" t="s">
@@ -3510,10 +3536,12 @@
         <v>0.25</v>
       </c>
       <c r="D65" s="84">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E65" s="84">
-        <v>0.3</v>
+        <f t="shared" ref="E65:E82" si="4">1.1*C65</f>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F65" s="58"/>
       <c r="G65" s="58" t="s">
@@ -3521,7 +3549,7 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="99"/>
+      <c r="A66" s="87"/>
       <c r="B66" s="56" t="s">
         <v>59</v>
       </c>
@@ -3529,10 +3557,12 @@
         <v>0.2</v>
       </c>
       <c r="D66" s="84">
-        <v>0.16000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
       </c>
       <c r="E66" s="84">
-        <v>0.24</v>
+        <f t="shared" si="4"/>
+        <v>0.22000000000000003</v>
       </c>
       <c r="F66" s="58"/>
       <c r="G66" s="58" t="s">
@@ -3540,7 +3570,7 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="99"/>
+      <c r="A67" s="87"/>
       <c r="B67" s="56" t="s">
         <v>51</v>
       </c>
@@ -3548,10 +3578,12 @@
         <v>0.2</v>
       </c>
       <c r="D67" s="84">
-        <v>0.16000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
       </c>
       <c r="E67" s="84">
-        <v>0.24</v>
+        <f t="shared" si="4"/>
+        <v>0.22000000000000003</v>
       </c>
       <c r="F67" s="58"/>
       <c r="G67" s="58" t="s">
@@ -3559,7 +3591,7 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="99"/>
+      <c r="A68" s="87"/>
       <c r="B68" s="56" t="s">
         <v>52</v>
       </c>
@@ -3567,10 +3599,12 @@
         <v>0.2</v>
       </c>
       <c r="D68" s="84">
-        <v>0.16000000000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
       </c>
       <c r="E68" s="84">
-        <v>0.24</v>
+        <f t="shared" si="4"/>
+        <v>0.22000000000000003</v>
       </c>
       <c r="F68" s="58"/>
       <c r="G68" s="58" t="s">
@@ -3578,7 +3612,7 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="99"/>
+      <c r="A69" s="87"/>
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
@@ -3586,10 +3620,12 @@
         <v>0.5</v>
       </c>
       <c r="D69" s="84">
-        <v>0.4</v>
+        <f t="shared" si="0"/>
+        <v>0.45</v>
       </c>
       <c r="E69" s="84">
-        <v>0.6</v>
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F69" s="58"/>
       <c r="G69" s="58" t="s">
@@ -3597,7 +3633,7 @@
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="99"/>
+      <c r="A70" s="87"/>
       <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
@@ -3605,10 +3641,12 @@
         <v>0.5</v>
       </c>
       <c r="D70" s="84">
-        <v>0.4</v>
+        <f t="shared" ref="D70:D82" si="5">0.9*C70</f>
+        <v>0.45</v>
       </c>
       <c r="E70" s="84">
-        <v>0.6</v>
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F70" s="58"/>
       <c r="G70" s="58" t="s">
@@ -3616,7 +3654,7 @@
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="99"/>
+      <c r="A71" s="87"/>
       <c r="B71" s="56" t="s">
         <v>54</v>
       </c>
@@ -3624,10 +3662,12 @@
         <v>0.25</v>
       </c>
       <c r="D71" s="84">
-        <v>0.2</v>
+        <f t="shared" si="5"/>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E71" s="84">
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F71" s="58"/>
       <c r="G71" s="58" t="s">
@@ -3636,7 +3676,7 @@
       <c r="J71" s="13"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="99"/>
+      <c r="A72" s="87"/>
       <c r="B72" s="56" t="s">
         <v>60</v>
       </c>
@@ -3644,10 +3684,12 @@
         <v>0.1</v>
       </c>
       <c r="D72" s="84">
-        <v>8.0000000000000016E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="E72" s="84">
-        <v>0.12</v>
+        <f t="shared" si="4"/>
+        <v>0.11000000000000001</v>
       </c>
       <c r="F72" s="58"/>
       <c r="G72" s="58" t="s">
@@ -3656,7 +3698,7 @@
       <c r="J72" s="13"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="99"/>
+      <c r="A73" s="87"/>
       <c r="B73" s="56" t="s">
         <v>55</v>
       </c>
@@ -3664,10 +3706,12 @@
         <v>0.1</v>
       </c>
       <c r="D73" s="84">
-        <v>8.0000000000000016E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="E73" s="84">
-        <v>0.12</v>
+        <f t="shared" si="4"/>
+        <v>0.11000000000000001</v>
       </c>
       <c r="F73" s="58"/>
       <c r="G73" s="58" t="s">
@@ -3676,7 +3720,7 @@
       <c r="J73" s="13"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="99"/>
+      <c r="A74" s="87"/>
       <c r="B74" s="56" t="s">
         <v>56</v>
       </c>
@@ -3684,10 +3728,12 @@
         <v>0.1</v>
       </c>
       <c r="D74" s="84">
-        <v>8.0000000000000016E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="E74" s="84">
-        <v>0.12</v>
+        <f t="shared" si="4"/>
+        <v>0.11000000000000001</v>
       </c>
       <c r="F74" s="58"/>
       <c r="G74" s="58" t="s">
@@ -3696,7 +3742,7 @@
       <c r="J74" s="13"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="99"/>
+      <c r="A75" s="87"/>
       <c r="B75" s="56" t="s">
         <v>57</v>
       </c>
@@ -3704,10 +3750,12 @@
         <v>0.45</v>
       </c>
       <c r="D75" s="84">
-        <v>0.36000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.40500000000000003</v>
       </c>
       <c r="E75" s="84">
-        <v>0.54</v>
+        <f t="shared" si="4"/>
+        <v>0.49500000000000005</v>
       </c>
       <c r="F75" s="58"/>
       <c r="G75" s="58" t="s">
@@ -3716,7 +3764,7 @@
       <c r="J75" s="13"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="99"/>
+      <c r="A76" s="87"/>
       <c r="B76" s="56" t="s">
         <v>96</v>
       </c>
@@ -3724,10 +3772,12 @@
         <v>0.45</v>
       </c>
       <c r="D76" s="84">
-        <v>0.36000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>0.40500000000000003</v>
       </c>
       <c r="E76" s="84">
-        <v>0.54</v>
+        <f t="shared" si="4"/>
+        <v>0.49500000000000005</v>
       </c>
       <c r="F76" s="58"/>
       <c r="G76" s="58" t="s">
@@ -3736,7 +3786,7 @@
       <c r="J76" s="13"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="99"/>
+      <c r="A77" s="87"/>
       <c r="B77" s="56" t="s">
         <v>58</v>
       </c>
@@ -3744,10 +3794,12 @@
         <v>0.5</v>
       </c>
       <c r="D77" s="84">
-        <v>0.4</v>
+        <f t="shared" si="5"/>
+        <v>0.45</v>
       </c>
       <c r="E77" s="84">
-        <v>0.6</v>
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F77" s="58"/>
       <c r="G77" s="58" t="s">
@@ -3755,7 +3807,7 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="99"/>
+      <c r="A78" s="87"/>
       <c r="B78" s="56" t="s">
         <v>61</v>
       </c>
@@ -3763,10 +3815,12 @@
         <v>0.7</v>
       </c>
       <c r="D78" s="84">
-        <v>0.55999999999999994</v>
+        <f t="shared" si="5"/>
+        <v>0.63</v>
       </c>
       <c r="E78" s="84">
-        <v>0.84</v>
+        <f t="shared" si="4"/>
+        <v>0.77</v>
       </c>
       <c r="F78" s="58"/>
       <c r="G78" s="58" t="s">
@@ -3774,7 +3828,7 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="99"/>
+      <c r="A79" s="87"/>
       <c r="B79" s="56" t="s">
         <v>62</v>
       </c>
@@ -3782,10 +3836,12 @@
         <v>0.7</v>
       </c>
       <c r="D79" s="84">
-        <v>0.55999999999999994</v>
+        <f t="shared" si="5"/>
+        <v>0.63</v>
       </c>
       <c r="E79" s="84">
-        <v>0.84</v>
+        <f t="shared" si="4"/>
+        <v>0.77</v>
       </c>
       <c r="F79" s="58"/>
       <c r="G79" s="58" t="s">
@@ -3793,7 +3849,7 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="99"/>
+      <c r="A80" s="87"/>
       <c r="B80" s="56" t="s">
         <v>63</v>
       </c>
@@ -3801,10 +3857,12 @@
         <v>0.7</v>
       </c>
       <c r="D80" s="84">
-        <v>0.55999999999999994</v>
+        <f t="shared" si="5"/>
+        <v>0.63</v>
       </c>
       <c r="E80" s="84">
-        <v>0.84</v>
+        <f t="shared" si="4"/>
+        <v>0.77</v>
       </c>
       <c r="F80" s="58"/>
       <c r="G80" s="58" t="s">
@@ -3812,7 +3870,7 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="99"/>
+      <c r="A81" s="87"/>
       <c r="B81" s="56" t="s">
         <v>64</v>
       </c>
@@ -3820,10 +3878,12 @@
         <v>0.05</v>
       </c>
       <c r="D81" s="84">
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="E81" s="84">
-        <v>0.06</v>
+        <f t="shared" si="4"/>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="F81" s="58"/>
       <c r="G81" s="58" t="s">
@@ -3831,7 +3891,7 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="99"/>
+      <c r="A82" s="87"/>
       <c r="B82" s="56" t="s">
         <v>95</v>
       </c>
@@ -3839,10 +3899,12 @@
         <v>0.05</v>
       </c>
       <c r="D82" s="84">
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.5000000000000005E-2</v>
       </c>
       <c r="E82" s="84">
-        <v>0.06</v>
+        <f t="shared" si="4"/>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="F82" s="58"/>
       <c r="G82" s="58" t="s">
@@ -3899,12 +3961,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A65:A82"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A35"/>
-    <mergeCell ref="A48:A64"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A41:A47"/>
@@ -3914,6 +3970,12 @@
     <mergeCell ref="L38:L40"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A65:A82"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A35"/>
+    <mergeCell ref="A48:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3943,13 +4005,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="4" t="s">
@@ -3975,7 +4037,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="88" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3999,7 +4061,7 @@
       <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="101"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4023,7 +4085,7 @@
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="101"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
@@ -4048,7 +4110,7 @@
       <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="101"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
@@ -4073,7 +4135,7 @@
       <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="101"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
@@ -4099,7 +4161,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="101"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -4123,7 +4185,7 @@
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="101"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -4167,7 +4229,7 @@
       <c r="G11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="H11" s="116" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4189,7 +4251,7 @@
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="95"/>
+      <c r="H12" s="116"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="60"/>
@@ -4209,7 +4271,7 @@
       <c r="G13" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="95"/>
+      <c r="H13" s="116"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="60"/>
@@ -4234,7 +4296,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="90" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="47" t="s">
@@ -4258,12 +4320,12 @@
       <c r="G15" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="110" t="s">
+      <c r="H15" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="103"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="47" t="s">
         <v>74</v>
       </c>
@@ -4285,10 +4347,10 @@
       <c r="G16" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="111"/>
+      <c r="H16" s="110"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="103"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="47" t="s">
         <v>75</v>
       </c>
@@ -4310,10 +4372,10 @@
       <c r="G17" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="112"/>
+      <c r="H17" s="111"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="92" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -4339,7 +4401,7 @@
       <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="28.8">
-      <c r="A19" s="104"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="25" t="s">
         <v>76</v>
       </c>
@@ -4365,7 +4427,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="104"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="25" t="s">
         <v>79</v>
       </c>
@@ -4389,7 +4451,7 @@
       <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="104"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="25" t="s">
         <v>80</v>
       </c>
@@ -4413,7 +4475,7 @@
       <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="104"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="25" t="s">
         <v>86</v>
       </c>
@@ -4437,7 +4499,7 @@
       <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="104"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="25" t="s">
         <v>87</v>
       </c>
@@ -4461,7 +4523,7 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="104"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="25" t="s">
         <v>90</v>
       </c>
@@ -4485,7 +4547,7 @@
       <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="93" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -4509,7 +4571,7 @@
       <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="106"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
@@ -4531,7 +4593,7 @@
       <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="106"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
@@ -4553,7 +4615,7 @@
       <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="106"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
@@ -4575,7 +4637,7 @@
       <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="106"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="9" t="s">
         <v>14</v>
       </c>
@@ -4597,7 +4659,7 @@
       <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="106"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
@@ -4619,7 +4681,7 @@
       <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="106"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="36" t="s">
         <v>16</v>
       </c>
@@ -4643,7 +4705,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="106"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="36" t="s">
         <v>17</v>
       </c>
@@ -4667,7 +4729,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="106"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="36" t="s">
         <v>18</v>
       </c>
@@ -4689,7 +4751,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="106"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="36" t="s">
         <v>22</v>
       </c>
@@ -4709,7 +4771,7 @@
       <c r="H34" s="114"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="106"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="36" t="s">
         <v>19</v>
       </c>
@@ -4729,7 +4791,7 @@
       <c r="H35" s="114"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="106"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="36" t="s">
         <v>20</v>
       </c>
@@ -4749,7 +4811,7 @@
       <c r="H36" s="115"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="104" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -4778,7 +4840,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="93"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="52" t="s">
         <v>27</v>
       </c>
@@ -4803,7 +4865,7 @@
       <c r="H38" s="114"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="93"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -4828,7 +4890,7 @@
       <c r="H39" s="114"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="93"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -4853,7 +4915,7 @@
       <c r="H40" s="115"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="94"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="14" t="s">
         <v>165</v>
       </c>
@@ -4877,7 +4939,7 @@
       <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="101" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -4905,7 +4967,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="90"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="17" t="s">
         <v>33</v>
       </c>
@@ -4929,7 +4991,7 @@
       <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="90"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="17" t="s">
         <v>34</v>
       </c>
@@ -4955,7 +5017,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="90"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="17" t="s">
         <v>35</v>
       </c>
@@ -4979,7 +5041,7 @@
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="90"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="17" t="s">
         <v>36</v>
       </c>
@@ -5003,7 +5065,7 @@
       <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="90"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="17" t="s">
         <v>37</v>
       </c>
@@ -5027,7 +5089,7 @@
       <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="91"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="17" t="s">
         <v>151</v>
       </c>
@@ -5051,7 +5113,7 @@
       <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="95" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -5080,7 +5142,7 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="108"/>
+      <c r="A50" s="96"/>
       <c r="B50" s="20" t="s">
         <v>171</v>
       </c>
@@ -5105,7 +5167,7 @@
       <c r="H50" s="114"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="108"/>
+      <c r="A51" s="96"/>
       <c r="B51" s="20" t="s">
         <v>173</v>
       </c>
@@ -5130,7 +5192,7 @@
       <c r="H51" s="114"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="108"/>
+      <c r="A52" s="96"/>
       <c r="B52" s="20" t="s">
         <v>225</v>
       </c>
@@ -5155,7 +5217,7 @@
       <c r="H52" s="114"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="108"/>
+      <c r="A53" s="96"/>
       <c r="B53" s="20" t="s">
         <v>224</v>
       </c>
@@ -5180,7 +5242,7 @@
       <c r="H53" s="114"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="108"/>
+      <c r="A54" s="96"/>
       <c r="B54" s="20" t="s">
         <v>229</v>
       </c>
@@ -5205,7 +5267,7 @@
       <c r="H54" s="114"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="108"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="20" t="s">
         <v>170</v>
       </c>
@@ -5229,7 +5291,7 @@
       <c r="H55" s="114"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="108"/>
+      <c r="A56" s="96"/>
       <c r="B56" s="20" t="s">
         <v>174</v>
       </c>
@@ -5253,7 +5315,7 @@
       <c r="H56" s="114"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="108"/>
+      <c r="A57" s="96"/>
       <c r="B57" s="23" t="s">
         <v>220</v>
       </c>
@@ -5278,7 +5340,7 @@
       <c r="H57" s="114"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="108"/>
+      <c r="A58" s="96"/>
       <c r="B58" s="23" t="s">
         <v>221</v>
       </c>
@@ -5302,7 +5364,7 @@
       <c r="H58" s="115"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="108"/>
+      <c r="A59" s="96"/>
       <c r="B59" s="23" t="s">
         <v>163</v>
       </c>
@@ -5328,7 +5390,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="108"/>
+      <c r="A60" s="96"/>
       <c r="B60" s="23" t="s">
         <v>164</v>
       </c>
@@ -5352,7 +5414,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="108"/>
+      <c r="A61" s="96"/>
       <c r="B61" s="42" t="s">
         <v>41</v>
       </c>
@@ -5379,7 +5441,7 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="108"/>
+      <c r="A62" s="96"/>
       <c r="B62" s="42" t="s">
         <v>42</v>
       </c>
@@ -5404,7 +5466,7 @@
       <c r="H62" s="114"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="108"/>
+      <c r="A63" s="96"/>
       <c r="B63" s="42" t="s">
         <v>92</v>
       </c>
@@ -5429,7 +5491,7 @@
       <c r="H63" s="114"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="109"/>
+      <c r="A64" s="97"/>
       <c r="B64" s="72" t="s">
         <v>93</v>
       </c>
@@ -5454,7 +5516,7 @@
       <c r="H64" s="115"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="86" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="56" t="s">
@@ -5467,12 +5529,12 @@
       <c r="G65" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="110" t="s">
+      <c r="H65" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="99"/>
+      <c r="A66" s="87"/>
       <c r="B66" s="56" t="s">
         <v>59</v>
       </c>
@@ -5483,10 +5545,10 @@
       <c r="G66" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="H66" s="111"/>
+      <c r="H66" s="110"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="99"/>
+      <c r="A67" s="87"/>
       <c r="B67" s="56" t="s">
         <v>51</v>
       </c>
@@ -5497,10 +5559,10 @@
       <c r="G67" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="H67" s="111"/>
+      <c r="H67" s="110"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="99"/>
+      <c r="A68" s="87"/>
       <c r="B68" s="56" t="s">
         <v>52</v>
       </c>
@@ -5511,10 +5573,10 @@
       <c r="G68" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="111"/>
+      <c r="H68" s="110"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="99"/>
+      <c r="A69" s="87"/>
       <c r="B69" s="56" t="s">
         <v>53</v>
       </c>
@@ -5525,10 +5587,10 @@
       <c r="G69" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H69" s="111"/>
+      <c r="H69" s="110"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="99"/>
+      <c r="A70" s="87"/>
       <c r="B70" s="56" t="s">
         <v>94</v>
       </c>
@@ -5539,10 +5601,10 @@
       <c r="G70" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="H70" s="111"/>
+      <c r="H70" s="110"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="99"/>
+      <c r="A71" s="87"/>
       <c r="B71" s="56" t="s">
         <v>54</v>
       </c>
@@ -5553,10 +5615,10 @@
       <c r="G71" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="111"/>
+      <c r="H71" s="110"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="99"/>
+      <c r="A72" s="87"/>
       <c r="B72" s="56" t="s">
         <v>60</v>
       </c>
@@ -5567,10 +5629,10 @@
       <c r="G72" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="111"/>
+      <c r="H72" s="110"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="99"/>
+      <c r="A73" s="87"/>
       <c r="B73" s="56" t="s">
         <v>55</v>
       </c>
@@ -5581,10 +5643,10 @@
       <c r="G73" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="111"/>
+      <c r="H73" s="110"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="99"/>
+      <c r="A74" s="87"/>
       <c r="B74" s="56" t="s">
         <v>56</v>
       </c>
@@ -5595,10 +5657,10 @@
       <c r="G74" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="111"/>
+      <c r="H74" s="110"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="99"/>
+      <c r="A75" s="87"/>
       <c r="B75" s="56" t="s">
         <v>57</v>
       </c>
@@ -5609,10 +5671,10 @@
       <c r="G75" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="111"/>
+      <c r="H75" s="110"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="99"/>
+      <c r="A76" s="87"/>
       <c r="B76" s="56" t="s">
         <v>96</v>
       </c>
@@ -5623,10 +5685,10 @@
       <c r="G76" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H76" s="111"/>
+      <c r="H76" s="110"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="99"/>
+      <c r="A77" s="87"/>
       <c r="B77" s="56" t="s">
         <v>58</v>
       </c>
@@ -5637,10 +5699,10 @@
       <c r="G77" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H77" s="111"/>
+      <c r="H77" s="110"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="99"/>
+      <c r="A78" s="87"/>
       <c r="B78" s="56" t="s">
         <v>61</v>
       </c>
@@ -5651,10 +5713,10 @@
       <c r="G78" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H78" s="111"/>
+      <c r="H78" s="110"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="99"/>
+      <c r="A79" s="87"/>
       <c r="B79" s="56" t="s">
         <v>62</v>
       </c>
@@ -5665,10 +5727,10 @@
       <c r="G79" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="H79" s="111"/>
+      <c r="H79" s="110"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="99"/>
+      <c r="A80" s="87"/>
       <c r="B80" s="56" t="s">
         <v>63</v>
       </c>
@@ -5679,10 +5741,10 @@
       <c r="G80" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H80" s="111"/>
+      <c r="H80" s="110"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="99"/>
+      <c r="A81" s="87"/>
       <c r="B81" s="56" t="s">
         <v>64</v>
       </c>
@@ -5693,10 +5755,10 @@
       <c r="G81" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H81" s="111"/>
+      <c r="H81" s="110"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="99"/>
+      <c r="A82" s="87"/>
       <c r="B82" s="56" t="s">
         <v>95</v>
       </c>
@@ -5707,7 +5769,7 @@
       <c r="G82" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="112"/>
+      <c r="H82" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5738,12 +5800,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D2CC3865CED4124A9830BAAA78333A39" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="74fbc97153726fbf9f4b2acfe0ba4f2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="47151ffa-27c1-491d-bdc5-fff6d8a44614" xmlns:ns4="2a729546-cf4e-435c-aabc-21366d2421e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef40a5df47e7cf58b55af26490b848e0" ns3:_="" ns4:_="">
     <xsd:import namespace="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
@@ -5966,6 +6022,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5976,23 +6038,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145C285F-2FF3-4D38-95ED-9BA60F4E3C89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3D48284-4FE0-49DC-82DA-D80B72208958}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6011,6 +6056,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145C285F-2FF3-4D38-95ED-9BA60F4E3C89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9031FEDD-5FF8-4C9C-AF51-AEFA4BF396D5}">
   <ds:schemaRefs>

--- a/Data/Iris_inputs.xlsx
+++ b/Data/Iris_inputs.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giparoli\Documents\Projetos\AEco\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34DF225-6814-4D53-93E0-1C876AA74E46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1813A119-6940-4CF4-B7A1-7AA5DE7FEF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iris" sheetId="2" r:id="rId1"/>
-    <sheet name="Midlife update" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,80 +102,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={396ABCAF-54DB-4DB8-9877-C4D9CB0C752F}</author>
-    <author>tc={DB4559B8-B4D5-46B8-9443-71ECDC1325D0}</author>
-    <author>tc={7E0439F0-61E6-4463-942E-D17301560662}</author>
-    <author>tc={0DC24375-CA62-42B8-82D8-58C5246FFD6F}</author>
-    <author>tc={72D2B639-7D47-4D27-A14C-D414C3B25E87}</author>
-    <author>tc={B1C3D0ED-7599-4C93-8848-AD9F3F4ACEF7}</author>
-    <author>tc={B5C3BFB3-019D-426E-A008-79A436013E7A}</author>
-  </authors>
-  <commentList>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{B0FAE540-3A07-4FDE-869E-4C3DC7F651F1}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</t>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="1" shapeId="0" xr:uid="{E4DC639F-5C75-4465-854E-5184B171EB5B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    190 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 0.38</t>
-      </text>
-    </comment>
-    <comment ref="C17" authorId="2" shapeId="0" xr:uid="{894B4380-C59A-453B-87C1-327ED3FCFE15}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    750 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 1.5</t>
-      </text>
-    </comment>
-    <comment ref="C37" authorId="3" shapeId="0" xr:uid="{BA95484E-61F4-4F05-ABE4-1E70EBA85B5A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    80000 kWh/month @ G1360. Considering 18000 m², the average per m² is 4.44</t>
-      </text>
-    </comment>
-    <comment ref="C38" authorId="4" shapeId="0" xr:uid="{D544D5CF-DAB5-41BB-8658-1BD200A7B57B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    80 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00444</t>
-      </text>
-    </comment>
-    <comment ref="C39" authorId="5" shapeId="0" xr:uid="{03305B98-666D-41AA-830C-D48054D9AD69}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    64 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00356</t>
-      </text>
-    </comment>
-    <comment ref="C40" authorId="6" shapeId="0" xr:uid="{45BC3BEA-D1F1-493B-8904-3AA8EE6213A8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    0.27 m³/month @ G1360. Considering 18000 m², the average per m² is 0.000015</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="223">
   <si>
     <t>nominal</t>
   </si>
@@ -715,30 +642,9 @@
     <t>Comentário</t>
   </si>
   <si>
-    <t>Preenchimento opcional. Posso utilizar a estimativa que já possuo.</t>
-  </si>
-  <si>
-    <t>Nos comentários da célula "nominal" tem uma estimativa de consumo  por engenheiro</t>
-  </si>
-  <si>
-    <t>Pode ser por ciclo também - alterem a unidade</t>
-  </si>
-  <si>
-    <t>Nos comentários da célula "nominal" tem uma estimativa de consumo por área</t>
-  </si>
-  <si>
-    <t>Fiquem a vontade para alterar essas linhas (acrescentar/deletar) - só preciso que sempre exista o par consumo (ff_) x tempo (t_)</t>
-  </si>
-  <si>
     <t xml:space="preserve">pesticide use efficiency </t>
   </si>
   <si>
-    <t>Preenchimento opcional. Se não souberem essas informações, vou ignorar esse impacto</t>
-  </si>
-  <si>
-    <t>Preenchimento opcional. Preciso, no mínimo, saber o país onde será a produção</t>
-  </si>
-  <si>
     <t>Substancial</t>
   </si>
   <si>
@@ -808,9 +714,6 @@
     <t>Revestimentos - reparos gerais</t>
   </si>
   <si>
-    <t>Load_factor</t>
-  </si>
-  <si>
     <t>Distancia média (km)</t>
   </si>
   <si>
@@ -820,24 +723,12 @@
     <t>Ferry de entrega</t>
   </si>
   <si>
-    <t>Equipe</t>
-  </si>
-  <si>
     <t>Por voo</t>
   </si>
   <si>
     <t>Por Navio</t>
   </si>
   <si>
-    <t>Entregas de avião feitas por mar</t>
-  </si>
-  <si>
-    <t>Entrega de compósitos SJK-BOT</t>
-  </si>
-  <si>
-    <t>50.500 HH de desenvolvimento divididos pelos meses e pela carga de trabalho usual de uma pessoa</t>
-  </si>
-  <si>
     <t>t_ferry</t>
   </si>
   <si>
@@ -874,31 +765,7 @@
     <t>fuel consumption per second on spraying</t>
   </si>
   <si>
-    <t>Hopper esvazia durante a missão - média de 50% da carga útil durante a missão</t>
-  </si>
-  <si>
     <t>IRIS: metallic truss fuselage, metallic wing, cradle-to-grave, focus on half-life update, maybe comparison with AT</t>
-  </si>
-  <si>
-    <t>Média plantações Brasil 2015 - repositório ipea</t>
-  </si>
-  <si>
-    <t>19% de perdas na aplicação aerea: http://dx.doi.org/10.11606/issn.2316-9044.v15i3p18-45</t>
-  </si>
-  <si>
-    <t>Sheet metal forming (stamping, calendering, stretching). Ref.: https://slideplayer.com/slide/6993957/</t>
-  </si>
-  <si>
-    <t>Estimation for tube cutting and welding.</t>
-  </si>
-  <si>
-    <t>Midlife update in 2035 - reduction of 11% in fuel consumption by adding a FADEC</t>
-  </si>
-  <si>
-    <t>Mindlife update in 2035</t>
-  </si>
-  <si>
-    <t>0,000q</t>
   </si>
   <si>
     <t>dilution</t>
@@ -983,7 +850,7 @@
       <name val="FranklinGothic-Book"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1044,20 +911,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1177,12 +1032,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1275,9 +1167,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1313,16 +1202,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1332,14 +1215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1353,9 +1228,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1375,6 +1247,30 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1411,62 +1307,54 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1779,39 +1667,13 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C15" dT="2019-12-31T13:50:55.89" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{396ABCAF-54DB-4DB8-9877-C4D9CB0C752F}">
-    <text>107087 kWh/month @ G1170. Considering 500 workers in the building, the average per worker is 214.17.</text>
-  </threadedComment>
-  <threadedComment ref="C16" dT="2019-12-31T14:01:21.91" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{DB4559B8-B4D5-46B8-9443-71ECDC1325D0}">
-    <text>190 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 0.38</text>
-  </threadedComment>
-  <threadedComment ref="C17" dT="2019-12-31T14:02:51.19" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{7E0439F0-61E6-4463-942E-D17301560662}">
-    <text>750 m³/month @ G1170. Considering 500 workers in the building, the average per worker is 1.5</text>
-  </threadedComment>
-  <threadedComment ref="C37" dT="2019-12-31T14:53:25.54" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{0DC24375-CA62-42B8-82D8-58C5246FFD6F}">
-    <text>80000 kWh/month @ G1360. Considering 18000 m², the average per m² is 4.44</text>
-  </threadedComment>
-  <threadedComment ref="C38" dT="2019-12-31T14:55:29.34" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{72D2B639-7D47-4D27-A14C-D414C3B25E87}">
-    <text>80 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00444</text>
-  </threadedComment>
-  <threadedComment ref="C39" dT="2019-12-31T16:34:31.50" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{B1C3D0ED-7599-4C93-8848-AD9F3F4ACEF7}">
-    <text>64 m³/month @ G1360. Considering 18000 m², the average per m² is 0.00356</text>
-  </threadedComment>
-  <threadedComment ref="C40" dT="2019-12-31T16:35:39.91" personId="{6499F404-6823-40DC-996D-949B978ABBF0}" id="{B5C3BFB3-019D-426E-A008-79A436013E7A}">
-    <text>0.27 m³/month @ G1360. Considering 18000 m², the average per m² is 0.000015</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A343C1D2-27D8-41D6-8DB5-6D491E89BAF3}">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1821,23 +1683,24 @@
     <col min="3" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="73.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:9">
+      <c r="B1" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -1845,7 +1708,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1864,8 +1727,11 @@
       <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1">
+      <c r="H3" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" customHeight="1">
       <c r="A4" s="88" t="s">
         <v>48</v>
       </c>
@@ -1887,8 +1753,9 @@
       <c r="G4" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="89"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -1910,13 +1777,15 @@
       <c r="G5" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="49"/>
+      <c r="I5" s="98"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="89"/>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="70">
         <f>ROUNDUP((500/C7),0)</f>
         <v>953</v>
       </c>
@@ -1934,14 +1803,15 @@
       <c r="G6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="80"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="49"/>
+      <c r="I6" s="72"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="89"/>
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="70">
         <f>31.5/60</f>
         <v>0.52500000000000002</v>
       </c>
@@ -1959,14 +1829,15 @@
       <c r="G7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="80"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="49"/>
+      <c r="I7" s="72"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="89"/>
       <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="70">
         <v>380</v>
       </c>
       <c r="D8" s="31">
@@ -1983,8 +1854,9 @@
       <c r="G8" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="57"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="89"/>
       <c r="B9" s="8" t="s">
         <v>65</v>
@@ -2006,13 +1878,14 @@
       <c r="G9" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="89"/>
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="44">
         <v>421</v>
       </c>
       <c r="D10" s="31">
@@ -2023,19 +1896,20 @@
         <f t="shared" si="1"/>
         <v>463.1</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="29"/>
       <c r="B11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="75">
         <v>10</v>
       </c>
       <c r="D11" s="31">
@@ -2046,17 +1920,18 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="105"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="29"/>
       <c r="B12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="75">
         <v>20</v>
       </c>
       <c r="D12" s="31">
@@ -2067,17 +1942,18 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="105"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="29"/>
       <c r="B13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="75">
         <v>70</v>
       </c>
       <c r="D13" s="31">
@@ -2088,89 +1964,93 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="35" customFormat="1" ht="14.7" customHeight="1">
+      <c r="H13" s="105"/>
+    </row>
+    <row r="14" spans="1:9" s="35" customFormat="1" ht="14.7" customHeight="1">
       <c r="A14" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="47">
         <f>214.17*$C$18</f>
         <v>1499.1899999999998</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="47">
         <f t="shared" si="0"/>
         <v>1349.271</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="47">
         <f t="shared" ref="E14:E64" si="2">1.1*C14</f>
         <v>1649.1089999999999</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="74"/>
-    </row>
-    <row r="15" spans="1:8" s="35" customFormat="1">
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+    </row>
+    <row r="15" spans="1:9" s="35" customFormat="1">
       <c r="A15" s="91"/>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="47">
         <f>0.38*$C$18</f>
         <v>2.66</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="47">
         <f t="shared" si="0"/>
         <v>2.3940000000000001</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="47">
         <f t="shared" si="2"/>
         <v>2.9260000000000006</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="75"/>
-    </row>
-    <row r="16" spans="1:8" s="35" customFormat="1">
+      <c r="H15" s="102"/>
+      <c r="I15" s="68"/>
+    </row>
+    <row r="16" spans="1:9" s="35" customFormat="1">
       <c r="A16" s="91"/>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="47">
         <f>1.5*$C$18</f>
         <v>10.5</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="47">
         <f t="shared" si="0"/>
         <v>9.4500000000000011</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="47">
         <f t="shared" si="2"/>
         <v>11.55</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="75"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="H16" s="103"/>
+      <c r="I16" s="68"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="92" t="s">
         <v>70</v>
       </c>
@@ -2194,8 +2074,9 @@
       <c r="G17" s="27" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="H17" s="104"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="92"/>
       <c r="B18" s="25" t="s">
         <v>76</v>
@@ -2217,8 +2098,9 @@
       <c r="G18" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="92"/>
       <c r="B19" s="25" t="s">
         <v>79</v>
@@ -2240,8 +2122,9 @@
       <c r="G19" s="27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="H19" s="69"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="92"/>
       <c r="B20" s="25" t="s">
         <v>80</v>
@@ -2263,8 +2146,9 @@
       <c r="G20" s="27" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="92"/>
       <c r="B21" s="25" t="s">
         <v>86</v>
@@ -2286,8 +2170,9 @@
       <c r="G21" s="27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="92"/>
       <c r="B22" s="25" t="s">
         <v>87</v>
@@ -2309,8 +2194,9 @@
       <c r="G22" s="27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="92"/>
       <c r="B23" s="25" t="s">
         <v>90</v>
@@ -2332,8 +2218,9 @@
       <c r="G23" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.4" customHeight="1">
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.4" customHeight="1">
       <c r="A24" s="93" t="s">
         <v>45</v>
       </c>
@@ -2355,8 +2242,9 @@
       <c r="G24" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.4" customHeight="1">
+      <c r="H24" s="49"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.4" customHeight="1">
       <c r="A25" s="94"/>
       <c r="B25" s="9" t="s">
         <v>12</v>
@@ -2376,8 +2264,9 @@
       <c r="G25" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="H25" s="49"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="94"/>
       <c r="B26" s="9" t="s">
         <v>13</v>
@@ -2397,8 +2286,9 @@
       <c r="G26" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="H26" s="49"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="94"/>
       <c r="B27" s="9" t="s">
         <v>21</v>
@@ -2418,8 +2308,9 @@
       <c r="G27" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="H27" s="49"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="94"/>
       <c r="B28" s="9" t="s">
         <v>14</v>
@@ -2439,8 +2330,9 @@
       <c r="G28" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="H28" s="49"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="94"/>
       <c r="B29" s="9" t="s">
         <v>15</v>
@@ -2460,8 +2352,9 @@
       <c r="G29" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="H29" s="49"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="94"/>
       <c r="B30" s="36" t="s">
         <v>16</v>
@@ -2481,8 +2374,9 @@
       <c r="G30" s="38" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="H30" s="49"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="94"/>
       <c r="B31" s="36" t="s">
         <v>17</v>
@@ -2502,13 +2396,14 @@
       <c r="G31" s="38" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="H31" s="50"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="94"/>
       <c r="B32" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="12">
         <v>1</v>
       </c>
       <c r="D32" s="37">
@@ -2523,18 +2418,19 @@
       <c r="G32" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="H32" s="50"/>
+      <c r="K32" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" s="113"/>
+      <c r="M32" s="114"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="94"/>
       <c r="B33" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="12">
         <v>1.2</v>
       </c>
       <c r="D33" s="37">
@@ -2549,18 +2445,19 @@
       <c r="G33" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="107" t="s">
-        <v>216</v>
-      </c>
-      <c r="K33" s="107"/>
+      <c r="H33" s="99"/>
+      <c r="K33" s="106" t="s">
+        <v>207</v>
+      </c>
       <c r="L33" s="107"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33" s="108"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="94"/>
       <c r="B34" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="12">
         <v>1</v>
       </c>
       <c r="D34" s="37">
@@ -2575,22 +2472,23 @@
       <c r="G34" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J34" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="K34" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="L34" s="50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="H34" s="100"/>
+      <c r="K34" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="L34" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="M34" s="49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="94"/>
       <c r="B35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="12">
         <v>1</v>
       </c>
       <c r="D35" s="37">
@@ -2605,152 +2503,157 @@
       <c r="G35" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="50">
+      <c r="H35" s="100"/>
+      <c r="K35" s="49">
         <v>0.33</v>
       </c>
-      <c r="K35" s="50">
+      <c r="L35" s="49">
         <v>8000</v>
       </c>
-      <c r="L35" s="50">
-        <f>K35*J35</f>
+      <c r="M35" s="49">
+        <f>L35*K35</f>
         <v>2640</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A36" s="104" t="s">
+    <row r="36" spans="1:14" ht="14.4" customHeight="1">
+      <c r="A36" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="52">
         <f>4.44*$C$19</f>
         <v>9990</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="52">
         <f t="shared" si="0"/>
         <v>8991</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="52">
         <f t="shared" si="2"/>
         <v>10989</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="54" t="s">
+      <c r="G36" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="75"/>
-      <c r="J36" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="K36" s="107"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="68"/>
+      <c r="K36" s="106" t="s">
+        <v>206</v>
+      </c>
       <c r="L36" s="107"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="105"/>
-      <c r="B37" s="52" t="s">
+      <c r="M36" s="108"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="84"/>
+      <c r="B37" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="52">
         <f>0.00444*$C$19</f>
         <v>9.99</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="52">
         <f t="shared" si="0"/>
         <v>8.9909999999999997</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="52">
         <f t="shared" si="2"/>
         <v>10.989000000000001</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="75"/>
-      <c r="J37" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="K37" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="L37" s="50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="105"/>
-      <c r="B38" s="52" t="s">
+      <c r="H37" s="99"/>
+      <c r="I37" s="68"/>
+      <c r="K37" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="M37" s="49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="84"/>
+      <c r="B38" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="52">
         <f>0.00356*$C$19</f>
         <v>8.01</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="52">
         <f t="shared" si="0"/>
         <v>7.2089999999999996</v>
       </c>
-      <c r="E38" s="53">
+      <c r="E38" s="52">
         <f t="shared" si="2"/>
         <v>8.8109999999999999</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="75"/>
-      <c r="J38" s="65">
+      <c r="H38" s="100"/>
+      <c r="I38" s="68"/>
+      <c r="K38" s="62">
         <v>0.33</v>
       </c>
-      <c r="K38" s="50">
+      <c r="L38" s="49">
         <v>1500</v>
       </c>
-      <c r="L38" s="108">
-        <f>K38*J38+J39*K39+J40*K40</f>
+      <c r="M38" s="109">
+        <f>L38*K38+K39*L39+K40*L40</f>
         <v>2805</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="105"/>
-      <c r="B39" s="52" t="s">
+    <row r="39" spans="1:14">
+      <c r="A39" s="84"/>
+      <c r="B39" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="52">
         <f>0.000015*$C$19</f>
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="52">
         <f t="shared" si="0"/>
         <v>3.0375000000000003E-2</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="52">
         <f t="shared" si="2"/>
         <v>3.7125000000000005E-2</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="54" t="s">
+      <c r="G39" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="75"/>
-      <c r="J39" s="65">
+      <c r="H39" s="100"/>
+      <c r="I39" s="68"/>
+      <c r="K39" s="62">
         <v>0.33</v>
       </c>
-      <c r="K39" s="50">
+      <c r="L39" s="49">
         <v>6500</v>
       </c>
-      <c r="L39" s="108"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="106"/>
+      <c r="M39" s="110"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="85"/>
       <c r="B40" s="14" t="s">
         <v>165</v>
       </c>
@@ -2771,16 +2674,17 @@
       <c r="G40" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="J40" s="65">
+      <c r="H40" s="101"/>
+      <c r="K40" s="62">
         <v>0.33</v>
       </c>
-      <c r="K40" s="50">
+      <c r="L40" s="49">
         <v>500</v>
       </c>
-      <c r="L40" s="108"/>
-    </row>
-    <row r="41" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A41" s="101" t="s">
+      <c r="M40" s="111"/>
+    </row>
+    <row r="41" spans="1:14" ht="14.4" customHeight="1">
+      <c r="A41" s="80" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -2803,9 +2707,10 @@
       <c r="G41" s="19" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="102"/>
+      <c r="H41" s="49"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="81"/>
       <c r="B42" s="17" t="s">
         <v>33</v>
       </c>
@@ -2826,13 +2731,14 @@
       <c r="G42" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J42" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="K42" s="107"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="102"/>
+      <c r="H42" s="49"/>
+      <c r="K42" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="L42" s="108"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="81"/>
       <c r="B43" s="17" t="s">
         <v>34</v>
       </c>
@@ -2853,19 +2759,20 @@
       <c r="G43" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="J43" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="K43" s="50">
+      <c r="H43" s="49"/>
+      <c r="K43" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="L43" s="49">
         <v>116</v>
       </c>
-      <c r="L43" s="65">
-        <f>K43/SUM($K$43:$K$45)</f>
+      <c r="M43" s="62">
+        <f>L43/SUM($L$43:$L$45)</f>
         <v>0.30526315789473685</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="102"/>
+    <row r="44" spans="1:14">
+      <c r="A44" s="81"/>
       <c r="B44" s="17" t="s">
         <v>35</v>
       </c>
@@ -2886,20 +2793,21 @@
       <c r="G44" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J44" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="K44" s="50">
+      <c r="H44" s="49"/>
+      <c r="K44" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="L44" s="49">
         <f>184+56</f>
         <v>240</v>
       </c>
-      <c r="L44" s="65">
-        <f t="shared" ref="L44:L45" si="3">K44/SUM($K$43:$K$45)</f>
+      <c r="M44" s="62">
+        <f t="shared" ref="M44:M45" si="3">L44/SUM($L$43:$L$45)</f>
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="102"/>
+    <row r="45" spans="1:14">
+      <c r="A45" s="81"/>
       <c r="B45" s="17" t="s">
         <v>36</v>
       </c>
@@ -2920,20 +2828,21 @@
       <c r="G45" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J45" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="K45" s="50">
-        <f>0.1*K44</f>
+      <c r="H45" s="49"/>
+      <c r="K45" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="L45" s="49">
+        <f>0.1*L44</f>
         <v>24</v>
       </c>
-      <c r="L45" s="65">
+      <c r="M45" s="62">
         <f t="shared" si="3"/>
         <v>6.3157894736842107E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="102"/>
+    <row r="46" spans="1:14">
+      <c r="A46" s="81"/>
       <c r="B46" s="17" t="s">
         <v>37</v>
       </c>
@@ -2954,9 +2863,10 @@
       <c r="G46" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="103"/>
+      <c r="H46" s="49"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="82"/>
       <c r="B47" s="17" t="s">
         <v>151</v>
       </c>
@@ -2977,19 +2887,20 @@
       <c r="G47" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="J47" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="K47" s="107"/>
+      <c r="H47" s="49"/>
+      <c r="K47" s="106" t="s">
+        <v>192</v>
+      </c>
       <c r="L47" s="107"/>
       <c r="M47" s="107"/>
-    </row>
-    <row r="48" spans="1:13" ht="14.4" customHeight="1">
+      <c r="N47" s="108"/>
+    </row>
+    <row r="48" spans="1:14" ht="14.4" customHeight="1">
       <c r="A48" s="95" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C48" s="32">
         <f>34.5/C53</f>
@@ -3007,17 +2918,18 @@
         <v>10</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="H48" s="79"/>
-      <c r="J48" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="K48" s="64">
+        <v>219</v>
+      </c>
+      <c r="H48" s="49"/>
+      <c r="I48" s="71"/>
+      <c r="K48" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="L48" s="61">
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="96"/>
       <c r="B49" s="20" t="s">
         <v>171</v>
@@ -3040,26 +2952,27 @@
       <c r="G49" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H49" s="79"/>
-      <c r="J49" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="K49" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="L49" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="M49" s="50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="H49" s="99"/>
+      <c r="I49" s="71"/>
+      <c r="K49" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="L49" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="M49" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="N49" s="49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="96"/>
       <c r="B50" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="82">
+      <c r="C50" s="74">
         <f>9/C55</f>
         <v>0.15</v>
       </c>
@@ -3077,26 +2990,27 @@
       <c r="G50" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H50" s="79"/>
-      <c r="J50" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="K50" s="65">
+      <c r="H50" s="100"/>
+      <c r="I50" s="71"/>
+      <c r="K50" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L50" s="62">
         <v>0.9</v>
       </c>
-      <c r="L50" s="50">
+      <c r="M50" s="49">
         <f>5/5</f>
         <v>1</v>
       </c>
-      <c r="M50" s="62">
-        <f>L50/$K$48</f>
+      <c r="N50" s="59">
+        <f>M50/$L$48</f>
         <v>2.3923444976076554E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="96"/>
       <c r="B51" s="20" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C51" s="32">
         <f>9.5/C56</f>
@@ -3114,20 +3028,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H51" s="79"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="62"/>
-    </row>
-    <row r="52" spans="1:13">
+        <v>214</v>
+      </c>
+      <c r="H51" s="100"/>
+      <c r="I51" s="71"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="59"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="96"/>
       <c r="B52" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" s="82">
+        <v>212</v>
+      </c>
+      <c r="C52" s="74">
         <f>9/C57</f>
         <v>1.4999999999999999E-2</v>
       </c>
@@ -3143,30 +3058,31 @@
         <v>10</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H52" s="79"/>
-      <c r="J52" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="K52" s="65">
+        <v>215</v>
+      </c>
+      <c r="H52" s="100"/>
+      <c r="I52" s="71"/>
+      <c r="K52" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="L52" s="62">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L52" s="50">
+      <c r="M52" s="49">
         <f>29/5</f>
         <v>5.8</v>
       </c>
-      <c r="M52" s="62">
-        <f>L52/$K$48</f>
+      <c r="N52" s="59">
+        <f>M52/$L$48</f>
         <v>1.3875598086124402E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="96"/>
       <c r="B53" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" s="82">
+        <v>217</v>
+      </c>
+      <c r="C53" s="74">
         <f>14.7*60</f>
         <v>882</v>
       </c>
@@ -3182,30 +3098,31 @@
         <v>175</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="H53" s="79"/>
-      <c r="J53" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="K53" s="65">
+        <v>218</v>
+      </c>
+      <c r="H53" s="100"/>
+      <c r="I53" s="71"/>
+      <c r="K53" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="L53" s="62">
         <v>0.3</v>
       </c>
-      <c r="L53" s="50">
+      <c r="M53" s="49">
         <f>13/5</f>
         <v>2.6</v>
       </c>
-      <c r="M53" s="62">
-        <f>L53/$K$48</f>
+      <c r="N53" s="59">
+        <f>M53/$L$48</f>
         <v>6.2200956937799043E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="96"/>
       <c r="B54" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="82">
+      <c r="C54" s="74">
         <v>30</v>
       </c>
       <c r="D54" s="21">
@@ -3222,14 +3139,15 @@
       <c r="G54" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H54" s="79"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="H54" s="100"/>
+      <c r="I54" s="71"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="96"/>
       <c r="B55" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="82">
+      <c r="C55" s="74">
         <v>60</v>
       </c>
       <c r="D55" s="21">
@@ -3246,23 +3164,24 @@
       <c r="G55" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H55" s="79"/>
-      <c r="J55" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="K55" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="L55" s="50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="H55" s="100"/>
+      <c r="I55" s="71"/>
+      <c r="K55" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="L55" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M55" s="49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="96"/>
       <c r="B56" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="82">
+        <v>208</v>
+      </c>
+      <c r="C56" s="74">
         <f>60*1.0345</f>
         <v>62.07</v>
       </c>
@@ -3278,25 +3197,26 @@
         <v>175</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="H56" s="79"/>
-      <c r="J56" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="K56" s="66">
+        <v>211</v>
+      </c>
+      <c r="H56" s="100"/>
+      <c r="I56" s="71"/>
+      <c r="K56" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="L56" s="63">
         <v>40</v>
       </c>
-      <c r="L56" s="50">
+      <c r="M56" s="49">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="96"/>
       <c r="B57" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" s="82">
+        <v>209</v>
+      </c>
+      <c r="C57" s="74">
         <v>600</v>
       </c>
       <c r="D57" s="21">
@@ -3311,20 +3231,21 @@
         <v>175</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="H57" s="79"/>
-      <c r="J57" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="K57" s="66">
+        <v>210</v>
+      </c>
+      <c r="H57" s="100"/>
+      <c r="I57" s="71"/>
+      <c r="K57" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="L57" s="63">
         <v>12</v>
       </c>
-      <c r="L57" s="50">
+      <c r="M57" s="49">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="96"/>
       <c r="B58" s="23" t="s">
         <v>163</v>
@@ -3346,17 +3267,18 @@
       <c r="G58" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="J58" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="K58" s="66">
+      <c r="H58" s="101"/>
+      <c r="K58" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="L58" s="63">
         <v>0.5</v>
       </c>
-      <c r="L58" s="50">
+      <c r="M58" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="96"/>
       <c r="B59" s="23" t="s">
         <v>164</v>
@@ -3374,13 +3296,14 @@
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>179</v>
+      </c>
+      <c r="H59" s="49"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="96"/>
       <c r="B60" s="23" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C60" s="32">
         <v>10</v>
@@ -3395,587 +3318,607 @@
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="14.4" customHeight="1">
+        <v>222</v>
+      </c>
+      <c r="H60" s="73"/>
+    </row>
+    <row r="61" spans="1:14" ht="14.4" customHeight="1">
       <c r="A61" s="96"/>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="43">
-        <f>K62</f>
+      <c r="C61" s="42">
+        <f>L62</f>
         <v>2.3315789473684214</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="42">
         <f t="shared" si="0"/>
         <v>2.0984210526315792</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="42">
         <f t="shared" si="2"/>
         <v>2.5647368421052636</v>
       </c>
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G61" s="44" t="s">
+      <c r="G61" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="H61" t="s">
-        <v>214</v>
-      </c>
-      <c r="J61" s="50" t="s">
+      <c r="H61" s="99"/>
+      <c r="K61" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="L61" s="64">
+        <f>N50*L50*L43 + L56/M56</f>
+        <v>4.2497607655502394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="96"/>
+      <c r="B62" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="42">
+        <f>L63</f>
+        <v>4.4784688995215309E-2</v>
+      </c>
+      <c r="D62" s="42">
+        <f t="shared" si="0"/>
+        <v>4.0306220095693776E-2</v>
+      </c>
+      <c r="E62" s="42">
+        <f t="shared" si="2"/>
+        <v>4.9263157894736842E-2</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62" s="100"/>
+      <c r="K62" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="L62" s="64">
+        <f>N52*L52*L44 +L58</f>
+        <v>2.3315789473684214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="96"/>
+      <c r="B63" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="42">
+        <f>L61</f>
+        <v>4.2497607655502394</v>
+      </c>
+      <c r="D63" s="42">
+        <f t="shared" si="0"/>
+        <v>3.8247846889952157</v>
+      </c>
+      <c r="E63" s="42">
+        <f t="shared" si="2"/>
+        <v>4.674736842105264</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="100"/>
+      <c r="K63" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="L63" s="64">
+        <f>N53*L53*L45</f>
+        <v>4.4784688995215309E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="97"/>
+      <c r="B64" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="42">
+        <f>L64</f>
+        <v>6</v>
+      </c>
+      <c r="D64" s="42">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="E64" s="42">
+        <f t="shared" si="2"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H64" s="101"/>
+      <c r="K64" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="K61" s="67">
-        <f>M50*K50*K43 + K56/L56</f>
-        <v>4.2497607655502394</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="96"/>
-      <c r="B62" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="43">
-        <f>K63</f>
-        <v>4.4784688995215309E-2</v>
-      </c>
-      <c r="D62" s="43">
-        <f t="shared" si="0"/>
-        <v>4.0306220095693776E-2</v>
-      </c>
-      <c r="E62" s="43">
-        <f t="shared" si="2"/>
-        <v>4.9263157894736842E-2</v>
-      </c>
-      <c r="F62" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="J62" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="K62" s="67">
-        <f>M52*K52*K44 +K58</f>
-        <v>2.3315789473684214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="96"/>
-      <c r="B63" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="43">
-        <f>K61</f>
-        <v>4.2497607655502394</v>
-      </c>
-      <c r="D63" s="43">
-        <f t="shared" si="0"/>
-        <v>3.8247846889952157</v>
-      </c>
-      <c r="E63" s="43">
-        <f t="shared" si="2"/>
-        <v>4.674736842105264</v>
-      </c>
-      <c r="F63" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="J63" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="K63" s="67">
-        <f>M53*K53*K45</f>
-        <v>4.4784688995215309E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="97"/>
-      <c r="B64" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="43">
-        <f>K64</f>
+      <c r="L64" s="49">
+        <f>L57/M57</f>
         <v>6</v>
       </c>
-      <c r="D64" s="43">
-        <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="E64" s="43">
-        <f t="shared" si="2"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="F64" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="J64" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="K64" s="50">
-        <f>K57/L57</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="14.4" customHeight="1">
+    </row>
+    <row r="65" spans="1:11" ht="14.4" customHeight="1">
       <c r="A65" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="84">
+      <c r="C65" s="76">
         <v>0.25</v>
       </c>
-      <c r="D65" s="84">
+      <c r="D65" s="76">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="E65" s="84">
+      <c r="E65" s="76">
         <f t="shared" ref="E65:E82" si="4">1.1*C65</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58" t="s">
+      <c r="F65" s="56"/>
+      <c r="G65" s="56" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="H65" s="102"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="87"/>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="84">
+      <c r="C66" s="76">
         <v>0.2</v>
       </c>
-      <c r="D66" s="84">
+      <c r="D66" s="76">
         <f t="shared" si="0"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="E66" s="84">
+      <c r="E66" s="76">
         <f t="shared" si="4"/>
         <v>0.22000000000000003</v>
       </c>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58" t="s">
+      <c r="F66" s="56"/>
+      <c r="G66" s="56" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="H66" s="103"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="87"/>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="84">
+      <c r="C67" s="76">
         <v>0.2</v>
       </c>
-      <c r="D67" s="84">
+      <c r="D67" s="76">
         <f t="shared" si="0"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="E67" s="84">
+      <c r="E67" s="76">
         <f t="shared" si="4"/>
         <v>0.22000000000000003</v>
       </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58" t="s">
+      <c r="F67" s="56"/>
+      <c r="G67" s="56" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="H67" s="103"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="87"/>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="85">
+      <c r="C68" s="77">
         <v>0.2</v>
       </c>
-      <c r="D68" s="84">
+      <c r="D68" s="76">
         <f t="shared" si="0"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="E68" s="84">
+      <c r="E68" s="76">
         <f t="shared" si="4"/>
         <v>0.22000000000000003</v>
       </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58" t="s">
+      <c r="F68" s="56"/>
+      <c r="G68" s="56" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="H68" s="103"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="87"/>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="85">
+      <c r="C69" s="77">
         <v>0.5</v>
       </c>
-      <c r="D69" s="84">
+      <c r="D69" s="76">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="E69" s="84">
+      <c r="E69" s="76">
         <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58" t="s">
+      <c r="F69" s="56"/>
+      <c r="G69" s="56" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="H69" s="103"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="87"/>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="85">
+      <c r="C70" s="77">
         <v>0.5</v>
       </c>
-      <c r="D70" s="84">
+      <c r="D70" s="76">
         <f t="shared" ref="D70:D82" si="5">0.9*C70</f>
         <v>0.45</v>
       </c>
-      <c r="E70" s="84">
+      <c r="E70" s="76">
         <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58" t="s">
+      <c r="F70" s="56"/>
+      <c r="G70" s="56" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="H70" s="103"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="87"/>
-      <c r="B71" s="56" t="s">
+      <c r="B71" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="85">
+      <c r="C71" s="77">
         <v>0.25</v>
       </c>
-      <c r="D71" s="84">
+      <c r="D71" s="76">
         <f t="shared" si="5"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="E71" s="84">
+      <c r="E71" s="76">
         <f t="shared" si="4"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58" t="s">
+      <c r="F71" s="56"/>
+      <c r="G71" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="H71" s="103"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="87"/>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="85">
+      <c r="C72" s="77">
         <v>0.1</v>
       </c>
-      <c r="D72" s="84">
+      <c r="D72" s="76">
         <f t="shared" si="5"/>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="E72" s="84">
+      <c r="E72" s="76">
         <f t="shared" si="4"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58" t="s">
+      <c r="F72" s="56"/>
+      <c r="G72" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="H72" s="103"/>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="87"/>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="85">
+      <c r="C73" s="77">
         <v>0.1</v>
       </c>
-      <c r="D73" s="84">
+      <c r="D73" s="76">
         <f t="shared" si="5"/>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="E73" s="84">
+      <c r="E73" s="76">
         <f t="shared" si="4"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58" t="s">
+      <c r="F73" s="56"/>
+      <c r="G73" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="H73" s="103"/>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="87"/>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="85">
+      <c r="C74" s="77">
         <v>0.1</v>
       </c>
-      <c r="D74" s="84">
+      <c r="D74" s="76">
         <f t="shared" si="5"/>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="E74" s="84">
+      <c r="E74" s="76">
         <f t="shared" si="4"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58" t="s">
+      <c r="F74" s="56"/>
+      <c r="G74" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="J74" s="13"/>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="H74" s="103"/>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="87"/>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="85">
+      <c r="C75" s="77">
         <v>0.45</v>
       </c>
-      <c r="D75" s="84">
+      <c r="D75" s="76">
         <f t="shared" si="5"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="E75" s="84">
+      <c r="E75" s="76">
         <f t="shared" si="4"/>
         <v>0.49500000000000005</v>
       </c>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58" t="s">
+      <c r="F75" s="56"/>
+      <c r="G75" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="J75" s="13"/>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="H75" s="103"/>
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="87"/>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="85">
+      <c r="C76" s="77">
         <v>0.45</v>
       </c>
-      <c r="D76" s="84">
+      <c r="D76" s="76">
         <f t="shared" si="5"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="E76" s="84">
+      <c r="E76" s="76">
         <f t="shared" si="4"/>
         <v>0.49500000000000005</v>
       </c>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58" t="s">
+      <c r="F76" s="56"/>
+      <c r="G76" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="J76" s="13"/>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="H76" s="103"/>
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="87"/>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="85">
+      <c r="C77" s="77">
         <v>0.5</v>
       </c>
-      <c r="D77" s="84">
+      <c r="D77" s="76">
         <f t="shared" si="5"/>
         <v>0.45</v>
       </c>
-      <c r="E77" s="84">
+      <c r="E77" s="76">
         <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58" t="s">
+      <c r="F77" s="56"/>
+      <c r="G77" s="56" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="H77" s="103"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="87"/>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="84">
+      <c r="C78" s="76">
         <v>0.7</v>
       </c>
-      <c r="D78" s="84">
+      <c r="D78" s="76">
         <f t="shared" si="5"/>
         <v>0.63</v>
       </c>
-      <c r="E78" s="84">
+      <c r="E78" s="76">
         <f t="shared" si="4"/>
         <v>0.77</v>
       </c>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58" t="s">
+      <c r="F78" s="56"/>
+      <c r="G78" s="56" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="H78" s="103"/>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="87"/>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="84">
+      <c r="C79" s="76">
         <v>0.7</v>
       </c>
-      <c r="D79" s="84">
+      <c r="D79" s="76">
         <f t="shared" si="5"/>
         <v>0.63</v>
       </c>
-      <c r="E79" s="84">
+      <c r="E79" s="76">
         <f t="shared" si="4"/>
         <v>0.77</v>
       </c>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58" t="s">
+      <c r="F79" s="56"/>
+      <c r="G79" s="56" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="H79" s="103"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="87"/>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="84">
+      <c r="C80" s="76">
         <v>0.7</v>
       </c>
-      <c r="D80" s="84">
+      <c r="D80" s="76">
         <f t="shared" si="5"/>
         <v>0.63</v>
       </c>
-      <c r="E80" s="84">
+      <c r="E80" s="76">
         <f t="shared" si="4"/>
         <v>0.77</v>
       </c>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58" t="s">
+      <c r="F80" s="56"/>
+      <c r="G80" s="56" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="H80" s="103"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="87"/>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="84">
+      <c r="C81" s="76">
         <v>0.05</v>
       </c>
-      <c r="D81" s="84">
+      <c r="D81" s="76">
         <f t="shared" si="5"/>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="E81" s="84">
+      <c r="E81" s="76">
         <f t="shared" si="4"/>
         <v>5.5000000000000007E-2</v>
       </c>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58" t="s">
+      <c r="F81" s="56"/>
+      <c r="G81" s="56" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="H81" s="103"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="87"/>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="84">
+      <c r="C82" s="76">
         <v>0.05</v>
       </c>
-      <c r="D82" s="84">
+      <c r="D82" s="76">
         <f t="shared" si="5"/>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="E82" s="84">
+      <c r="E82" s="76">
         <f t="shared" si="4"/>
         <v>5.5000000000000007E-2</v>
       </c>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58" t="s">
+      <c r="F82" s="56"/>
+      <c r="G82" s="56" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="J84" s="13"/>
-    </row>
-    <row r="102" spans="10:10">
-      <c r="J102" s="13"/>
-    </row>
-    <row r="106" spans="10:10">
-      <c r="J106" s="13"/>
-    </row>
-    <row r="107" spans="10:10">
-      <c r="J107" s="13"/>
-    </row>
-    <row r="108" spans="10:10">
-      <c r="J108" s="13"/>
-    </row>
-    <row r="109" spans="10:10">
-      <c r="J109" s="13"/>
-    </row>
-    <row r="110" spans="10:10">
-      <c r="J110" s="13"/>
-    </row>
-    <row r="111" spans="10:10">
-      <c r="J111" s="13"/>
-    </row>
-    <row r="112" spans="10:10">
-      <c r="J112" s="13"/>
-    </row>
-    <row r="113" spans="10:10">
-      <c r="J113" s="13"/>
-    </row>
-    <row r="114" spans="10:10">
-      <c r="J114" s="13"/>
-    </row>
-    <row r="115" spans="10:10">
-      <c r="J115" s="13"/>
-    </row>
-    <row r="116" spans="10:10">
-      <c r="J116" s="13"/>
-    </row>
-    <row r="117" spans="10:10">
-      <c r="J117" s="13"/>
-    </row>
-    <row r="118" spans="10:10">
-      <c r="J118" s="13"/>
-    </row>
-    <row r="120" spans="10:10">
-      <c r="J120" s="13"/>
+      <c r="H82" s="104"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="K84" s="13"/>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="13"/>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="13"/>
+    </row>
+    <row r="107" spans="11:11">
+      <c r="K107" s="13"/>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" s="13"/>
+    </row>
+    <row r="109" spans="11:11">
+      <c r="K109" s="13"/>
+    </row>
+    <row r="110" spans="11:11">
+      <c r="K110" s="13"/>
+    </row>
+    <row r="111" spans="11:11">
+      <c r="K111" s="13"/>
+    </row>
+    <row r="112" spans="11:11">
+      <c r="K112" s="13"/>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" s="13"/>
+    </row>
+    <row r="114" spans="11:11">
+      <c r="K114" s="13"/>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" s="13"/>
+    </row>
+    <row r="116" spans="11:11">
+      <c r="K116" s="13"/>
+    </row>
+    <row r="117" spans="11:11">
+      <c r="K117" s="13"/>
+    </row>
+    <row r="118" spans="11:11">
+      <c r="K118" s="13"/>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J36:L36"/>
     <mergeCell ref="A65:A82"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="A24:A35"/>
     <mergeCell ref="A48:A64"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K36:M36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3986,1820 +3929,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD1356E-92C9-4E2F-94B4-6E67679BADF5}">
-  <dimension ref="A1:H82"/>
-  <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="C1" s="112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="11">
-        <v>9</v>
-      </c>
-      <c r="D4" s="11">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11">
-        <v>11.7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="89"/>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="31">
-        <v>2044</v>
-      </c>
-      <c r="D5" s="31">
-        <f>0.8*C5</f>
-        <v>1635.2</v>
-      </c>
-      <c r="E5" s="31">
-        <f>1.2*C5</f>
-        <v>2452.7999999999997</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="50"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="89"/>
-      <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="77">
-        <f>ROUNDUP((500/C7),0)</f>
-        <v>953</v>
-      </c>
-      <c r="D6" s="11">
-        <f t="shared" ref="D6:D64" si="0">0.8*C6</f>
-        <v>762.40000000000009</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" ref="E6:E64" si="1">1.2*C6</f>
-        <v>1143.5999999999999</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="89"/>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="77">
-        <f>31.5/60</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="1"/>
-        <v>0.63</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="89"/>
-      <c r="B8" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="77">
-        <v>380</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
-        <v>304</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="1"/>
-        <v>456</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="89"/>
-      <c r="B9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="11">
-        <v>30</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="55"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="89"/>
-      <c r="B10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="45">
-        <f>747-Iris!C10</f>
-        <v>326</v>
-      </c>
-      <c r="D10" s="45">
-        <f t="shared" si="0"/>
-        <v>260.8</v>
-      </c>
-      <c r="E10" s="45">
-        <f t="shared" si="1"/>
-        <v>391.2</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="60"/>
-      <c r="B11" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="116" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="60"/>
-      <c r="B12" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="116"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="60"/>
-      <c r="B13" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="116"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="60"/>
-      <c r="B14" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="78">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="40">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="40">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="73" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="48">
-        <f>214.17*$C$19</f>
-        <v>1499.1899999999998</v>
-      </c>
-      <c r="D15" s="48">
-        <f t="shared" si="0"/>
-        <v>1199.3519999999999</v>
-      </c>
-      <c r="E15" s="48">
-        <f t="shared" si="1"/>
-        <v>1799.0279999999998</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="109" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="91"/>
-      <c r="B16" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="48">
-        <f>0.38*$C$19</f>
-        <v>2.66</v>
-      </c>
-      <c r="D16" s="48">
-        <f t="shared" si="0"/>
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="E16" s="48">
-        <f t="shared" si="1"/>
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="110"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="91"/>
-      <c r="B17" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="48">
-        <f>1.5*$C$19</f>
-        <v>10.5</v>
-      </c>
-      <c r="D17" s="48">
-        <f t="shared" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="E17" s="48">
-        <f t="shared" si="1"/>
-        <v>12.6</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="111"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="26">
-        <v>48</v>
-      </c>
-      <c r="D18" s="26">
-        <f t="shared" si="0"/>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="E18" s="26">
-        <f t="shared" si="1"/>
-        <v>57.599999999999994</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:8" ht="28.8">
-      <c r="A19" s="92"/>
-      <c r="B19" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="28">
-        <v>7</v>
-      </c>
-      <c r="D19" s="28">
-        <f t="shared" si="0"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="E19" s="28">
-        <f t="shared" si="1"/>
-        <v>8.4</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="92"/>
-      <c r="B20" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="28">
-        <v>2250</v>
-      </c>
-      <c r="D20" s="28">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="E20" s="28">
-        <f t="shared" si="1"/>
-        <v>2700</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="92"/>
-      <c r="B21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="28">
-        <v>10</v>
-      </c>
-      <c r="D21" s="28">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E21" s="28">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="92"/>
-      <c r="B22" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="28">
-        <v>3</v>
-      </c>
-      <c r="D22" s="28">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="E22" s="28">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="92"/>
-      <c r="B23" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="28">
-        <v>0</v>
-      </c>
-      <c r="D23" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="92"/>
-      <c r="B24" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="28">
-        <v>100</v>
-      </c>
-      <c r="D24" s="28">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E24" s="28">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="50"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12">
-        <v>63</v>
-      </c>
-      <c r="D25" s="12">
-        <f t="shared" si="0"/>
-        <v>50.400000000000006</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" si="1"/>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="50"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="94"/>
-      <c r="B26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="12">
-        <v>31</v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>24.8</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" si="1"/>
-        <v>37.199999999999996</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="50"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="94"/>
-      <c r="B27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="12">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="50"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="94"/>
-      <c r="B28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="12">
-        <v>6</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="1"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="94"/>
-      <c r="B29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="12">
-        <v>0</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="94"/>
-      <c r="B30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="12">
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="50"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="94"/>
-      <c r="B31" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="D31" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="37">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="94"/>
-      <c r="B32" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="D32" s="37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E32" s="37">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="94"/>
-      <c r="B33" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="113" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="94"/>
-      <c r="B34" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="70"/>
-      <c r="D34" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="114"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="94"/>
-      <c r="B35" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="114"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="94"/>
-      <c r="B36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="115"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="53">
-        <f>4.44*$C$20</f>
-        <v>9990</v>
-      </c>
-      <c r="D37" s="53">
-        <f t="shared" si="0"/>
-        <v>7992</v>
-      </c>
-      <c r="E37" s="53">
-        <f t="shared" si="1"/>
-        <v>11988</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="113" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="105"/>
-      <c r="B38" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="53">
-        <f>0.00444*$C$20</f>
-        <v>9.99</v>
-      </c>
-      <c r="D38" s="53">
-        <f t="shared" si="0"/>
-        <v>7.9920000000000009</v>
-      </c>
-      <c r="E38" s="53">
-        <f t="shared" si="1"/>
-        <v>11.988</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" s="114"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="105"/>
-      <c r="B39" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="53">
-        <f>0.00356*$C$20</f>
-        <v>8.01</v>
-      </c>
-      <c r="D39" s="53">
-        <f t="shared" si="0"/>
-        <v>6.4080000000000004</v>
-      </c>
-      <c r="E39" s="53">
-        <f t="shared" si="1"/>
-        <v>9.6120000000000001</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="H39" s="114"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="105"/>
-      <c r="B40" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="53">
-        <f>0.000015*$C$20</f>
-        <v>3.3750000000000002E-2</v>
-      </c>
-      <c r="D40" s="53">
-        <f t="shared" si="0"/>
-        <v>2.7000000000000003E-2</v>
-      </c>
-      <c r="E40" s="53">
-        <f t="shared" si="1"/>
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="115"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="106"/>
-      <c r="B41" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41" s="15" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E41" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="50"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="18">
-        <v>330</v>
-      </c>
-      <c r="D42" s="18">
-        <f t="shared" si="0"/>
-        <v>264</v>
-      </c>
-      <c r="E42" s="18">
-        <f t="shared" si="1"/>
-        <v>396</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="102"/>
-      <c r="B43" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="18">
-        <v>0</v>
-      </c>
-      <c r="D43" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="50"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="102"/>
-      <c r="B44" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="18">
-        <v>2805</v>
-      </c>
-      <c r="D44" s="18">
-        <f t="shared" si="0"/>
-        <v>2244</v>
-      </c>
-      <c r="E44" s="18">
-        <f t="shared" si="1"/>
-        <v>3366</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="102"/>
-      <c r="B45" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="D45" s="18">
-        <f t="shared" si="0"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="E45" s="18">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="50"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="102"/>
-      <c r="B46" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="18">
-        <v>0</v>
-      </c>
-      <c r="D46" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="50"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="102"/>
-      <c r="B47" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="18">
-        <v>2.44</v>
-      </c>
-      <c r="D47" s="18">
-        <f t="shared" si="0"/>
-        <v>1.952</v>
-      </c>
-      <c r="E47" s="18">
-        <f t="shared" si="1"/>
-        <v>2.9279999999999999</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="50"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="103"/>
-      <c r="B48" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="18">
-        <v>2805</v>
-      </c>
-      <c r="D48" s="18">
-        <f t="shared" si="0"/>
-        <v>2244</v>
-      </c>
-      <c r="E48" s="18">
-        <f t="shared" si="1"/>
-        <v>3366</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H48" s="50"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" s="32">
-        <f>(34.5/C54)*0.89</f>
-        <v>3.4812925170068031E-2</v>
-      </c>
-      <c r="D49" s="30">
-        <f t="shared" si="0"/>
-        <v>2.7850340136054426E-2</v>
-      </c>
-      <c r="E49" s="30">
-        <f t="shared" si="1"/>
-        <v>4.1775510204081635E-2</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="H49" s="113" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="96"/>
-      <c r="B50" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="32">
-        <f>(23/C55)*0.89</f>
-        <v>0.68233333333333335</v>
-      </c>
-      <c r="D50" s="21">
-        <f t="shared" si="0"/>
-        <v>0.54586666666666672</v>
-      </c>
-      <c r="E50" s="21">
-        <f t="shared" si="1"/>
-        <v>0.81879999999999997</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="114"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="96"/>
-      <c r="B51" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="82">
-        <f>(9/C56)*0.89</f>
-        <v>0.13350000000000001</v>
-      </c>
-      <c r="D51" s="21">
-        <f>0.8*C51</f>
-        <v>0.10680000000000001</v>
-      </c>
-      <c r="E51" s="21">
-        <f t="shared" si="1"/>
-        <v>0.16020000000000001</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="H51" s="114"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="96"/>
-      <c r="B52" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" s="32">
-        <f>(9.5/C57)*0.89</f>
-        <v>0.13621717415820847</v>
-      </c>
-      <c r="D52" s="21">
-        <f>0.8*C52</f>
-        <v>0.10897373932656679</v>
-      </c>
-      <c r="E52" s="21">
-        <f t="shared" si="1"/>
-        <v>0.16346060898985015</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H52" s="114"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="96"/>
-      <c r="B53" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="82">
-        <f>(9/C58)*0.89</f>
-        <v>1.3349999999999999E-2</v>
-      </c>
-      <c r="D53" s="21">
-        <f t="shared" si="0"/>
-        <v>1.068E-2</v>
-      </c>
-      <c r="E53" s="21">
-        <f t="shared" si="1"/>
-        <v>1.602E-2</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H53" s="114"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="96"/>
-      <c r="B54" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C54" s="82">
-        <f>14.7*60</f>
-        <v>882</v>
-      </c>
-      <c r="D54" s="21">
-        <f t="shared" si="0"/>
-        <v>705.6</v>
-      </c>
-      <c r="E54" s="21">
-        <f t="shared" si="1"/>
-        <v>1058.3999999999999</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="H54" s="114"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="96"/>
-      <c r="B55" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="82">
-        <v>30</v>
-      </c>
-      <c r="D55" s="21">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E55" s="21">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H55" s="114"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="96"/>
-      <c r="B56" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="82">
-        <v>60</v>
-      </c>
-      <c r="D56" s="21">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E56" s="21">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56" s="114"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="96"/>
-      <c r="B57" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C57" s="82">
-        <f>60*1.0345</f>
-        <v>62.07</v>
-      </c>
-      <c r="D57" s="21">
-        <f t="shared" si="0"/>
-        <v>49.656000000000006</v>
-      </c>
-      <c r="E57" s="21">
-        <f t="shared" si="1"/>
-        <v>74.483999999999995</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="H57" s="114"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="96"/>
-      <c r="B58" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" s="82">
-        <v>600</v>
-      </c>
-      <c r="D58" s="21">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="E58" s="21">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="H58" s="115"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="96"/>
-      <c r="B59" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="D59" s="21">
-        <f t="shared" si="0"/>
-        <v>3.44</v>
-      </c>
-      <c r="E59" s="21">
-        <f t="shared" si="1"/>
-        <v>5.1599999999999993</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H59" s="50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="96"/>
-      <c r="B60" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="32">
-        <v>0.81</v>
-      </c>
-      <c r="D60" s="21">
-        <f t="shared" si="0"/>
-        <v>0.64800000000000013</v>
-      </c>
-      <c r="E60" s="21">
-        <f t="shared" si="1"/>
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H60" s="81" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="96"/>
-      <c r="B61" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="43">
-        <f>L62</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="113" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="96"/>
-      <c r="B62" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="43">
-        <f>L63</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H62" s="114"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="96"/>
-      <c r="B63" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="43">
-        <f>L61</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H63" s="114"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="97"/>
-      <c r="B64" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="43">
-        <f>L64</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="H64" s="115"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="H65" s="109" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="87"/>
-      <c r="B66" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="H66" s="110"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="87"/>
-      <c r="B67" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="H67" s="110"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="87"/>
-      <c r="B68" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H68" s="110"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="87"/>
-      <c r="B69" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H69" s="110"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="87"/>
-      <c r="B70" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="H70" s="110"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="87"/>
-      <c r="B71" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="70"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="H71" s="110"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="87"/>
-      <c r="B72" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="H72" s="110"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="87"/>
-      <c r="B73" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="H73" s="110"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="87"/>
-      <c r="B74" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="H74" s="110"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="87"/>
-      <c r="B75" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="H75" s="110"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="87"/>
-      <c r="B76" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="H76" s="110"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="87"/>
-      <c r="B77" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="H77" s="110"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="87"/>
-      <c r="B78" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="71"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="H78" s="110"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="87"/>
-      <c r="B79" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="H79" s="110"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="87"/>
-      <c r="B80" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="H80" s="110"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="87"/>
-      <c r="B81" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="71"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="H81" s="110"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="87"/>
-      <c r="B82" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" s="71"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="H82" s="111"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A65:A82"/>
-    <mergeCell ref="H65:H82"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A64"/>
-    <mergeCell ref="H49:H58"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="H33:H36"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C52" formula="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D2CC3865CED4124A9830BAAA78333A39" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="74fbc97153726fbf9f4b2acfe0ba4f2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="47151ffa-27c1-491d-bdc5-fff6d8a44614" xmlns:ns4="2a729546-cf4e-435c-aabc-21366d2421e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef40a5df47e7cf58b55af26490b848e0" ns3:_="" ns4:_="">
     <xsd:import namespace="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
@@ -6022,36 +4167,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3D48284-4FE0-49DC-82DA-D80B72208958}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9031FEDD-5FF8-4C9C-AF51-AEFA4BF396D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
-    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6074,9 +4193,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9031FEDD-5FF8-4C9C-AF51-AEFA4BF396D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3D48284-4FE0-49DC-82DA-D80B72208958}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="47151ffa-27c1-491d-bdc5-fff6d8a44614"/>
+    <ds:schemaRef ds:uri="2a729546-cf4e-435c-aabc-21366d2421e1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>